--- a/tcc/pontos.xlsx
+++ b/tcc/pontos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\puchealth\tcc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drive\puc\puchealth\tcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90E7462B-D949-42EA-A9D8-6FFA08C1D42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1999DFE-508D-479B-95A9-0C442F2E72BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2530" yWindow="2180" windowWidth="28800" windowHeight="15370" tabRatio="734"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="734" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagem" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="TiposDeFuncao" localSheetId="1">Deflatores!$L$37:$L$64</definedName>
     <definedName name="TiposDeManutencao" localSheetId="1">Deflatores!$G$4:$G$38</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,12 +41,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="Q4" authorId="0" shapeId="0">
+    <comment ref="Q4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q5" authorId="0" shapeId="0">
+    <comment ref="Q5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q6" authorId="0" shapeId="0">
+    <comment ref="Q6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -119,12 +119,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="K4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -149,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0" shapeId="0">
+    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -173,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0">
+    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -198,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -223,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -249,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -276,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -291,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -306,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -321,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M7" authorId="0" shapeId="0">
+    <comment ref="M7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -336,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0" shapeId="0">
+    <comment ref="N7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -356,12 +356,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B46" authorId="0" shapeId="0">
+    <comment ref="B46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -376,7 +376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B47" authorId="0" shapeId="0">
+    <comment ref="B47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -396,12 +396,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="H9" authorId="0" shapeId="0">
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -416,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H46" authorId="0" shapeId="0">
+    <comment ref="H46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -436,7 +436,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="223">
   <si>
     <t>Identificação da Contagem</t>
   </si>
@@ -950,15 +950,174 @@
   <si>
     <t>Mudança de Plataforma - Banco de Dados (mesmo paradigma com alterações)</t>
   </si>
+  <si>
+    <t>TCC Engenharia de Software - PUC Minas</t>
+  </si>
+  <si>
+    <t>Caio Philipe Vargas de Souza</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Puchealth</t>
+  </si>
+  <si>
+    <t>Endereço</t>
+  </si>
+  <si>
+    <t>Endereço / Criar e editar</t>
+  </si>
+  <si>
+    <t>Usuário / Listar</t>
+  </si>
+  <si>
+    <t>Usuário / Validar acesso</t>
+  </si>
+  <si>
+    <t>Usuário, Paciente e Profissional</t>
+  </si>
+  <si>
+    <t>Endereço / Listar</t>
+  </si>
+  <si>
+    <t>Usuário / Consultar por id</t>
+  </si>
+  <si>
+    <t>Usuário / Criar e editar</t>
+  </si>
+  <si>
+    <t>Especialidade</t>
+  </si>
+  <si>
+    <t>Especialidade / Listar</t>
+  </si>
+  <si>
+    <t>Especialidade / Criar e editar</t>
+  </si>
+  <si>
+    <t>Estabelecimento</t>
+  </si>
+  <si>
+    <t>Estabelecimento / Listar</t>
+  </si>
+  <si>
+    <t>Estabelecimento / Criar e editar</t>
+  </si>
+  <si>
+    <t>Estabelecimento / Consultar por id</t>
+  </si>
+  <si>
+    <t>Medicamento</t>
+  </si>
+  <si>
+    <t>Medicamento / Listar</t>
+  </si>
+  <si>
+    <t>Medicamento / Consultar por id</t>
+  </si>
+  <si>
+    <t>Medicamento / Criar, editar e deletar</t>
+  </si>
+  <si>
+    <t>Vacina</t>
+  </si>
+  <si>
+    <t>Vacina / Listar</t>
+  </si>
+  <si>
+    <t>Vacina / Consultar por id</t>
+  </si>
+  <si>
+    <t>Vacina / Criar, editar e deletar</t>
+  </si>
+  <si>
+    <t>Agenda</t>
+  </si>
+  <si>
+    <t>Agenda / Listar</t>
+  </si>
+  <si>
+    <t>Agenda / Consultar por id</t>
+  </si>
+  <si>
+    <t>Leito</t>
+  </si>
+  <si>
+    <t>Leito / Listar</t>
+  </si>
+  <si>
+    <t>Leito / Consultar por id</t>
+  </si>
+  <si>
+    <t>Leito / Criar, editar e deletar</t>
+  </si>
+  <si>
+    <t>Internação</t>
+  </si>
+  <si>
+    <t>Internação / Listar</t>
+  </si>
+  <si>
+    <t>Internação / Consultar por id</t>
+  </si>
+  <si>
+    <t>Internação / Criar, editar e deletar</t>
+  </si>
+  <si>
+    <t>Ação publicitária</t>
+  </si>
+  <si>
+    <t>Ação / Listar</t>
+  </si>
+  <si>
+    <t>Ação / Consultar por id</t>
+  </si>
+  <si>
+    <t>Ação / Criar, editar e deletar</t>
+  </si>
+  <si>
+    <t>Código de doenças</t>
+  </si>
+  <si>
+    <t>Código de doenças / Importar</t>
+  </si>
+  <si>
+    <t>Agenda / Criar, editar e cancelar</t>
+  </si>
+  <si>
+    <t>Procedimento</t>
+  </si>
+  <si>
+    <t>Consulta Vacinação</t>
+  </si>
+  <si>
+    <t>Consulta Prontuário</t>
+  </si>
+  <si>
+    <t>Recomendação de ação de saúde pública</t>
+  </si>
+  <si>
+    <t>Recomendar tratamento e consulta</t>
+  </si>
+  <si>
+    <t>Procedimento / Listar</t>
+  </si>
+  <si>
+    <t>Procedimento / Consultar por id</t>
+  </si>
+  <si>
+    <t>Procedimento / Criar, editar e deletar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="170" formatCode="* #,##0.00\ ;* \(#,##0.00\);* \-#\ ;@\ "/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="* #,##0.00\ ;* \(#,##0.00\);* \-#\ ;@\ "/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1686,7 +1845,7 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -1787,9 +1946,9 @@
     <xf numFmtId="4" fontId="5" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1882,7 +2041,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1927,7 +2086,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1945,7 +2104,7 @@
     <xf numFmtId="2" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1957,7 +2116,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1999,6 +2158,45 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2008,45 +2206,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2076,26 +2235,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2106,13 +2253,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2124,8 +2274,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2136,12 +2292,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
-    <cellStyle name="TableStyleLight1" xfId="3"/>
+    <cellStyle name="TableStyleLight1" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -2480,7 +2639,7 @@
                       <a:cs typeface="Calibri"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-BR"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -2519,7 +2678,7 @@
                       <a:cs typeface="Calibri"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-BR"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -2558,7 +2717,7 @@
                       <a:cs typeface="Calibri"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-BR"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -2597,7 +2756,7 @@
                       <a:cs typeface="Calibri"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-BR"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -2636,7 +2795,7 @@
                       <a:cs typeface="Calibri"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-BR"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -2675,7 +2834,7 @@
                     <a:cs typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2719,16 +2878,16 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.17351598173515981</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.14611872146118721</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.29680365296803651</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.38356164383561642</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2797,7 +2956,7 @@
               <a:cs typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2827,7 +2986,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2888,7 +3047,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:blipFill dpi="0" rotWithShape="0">
                 <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
                 <a:srcRect/>
@@ -2899,7 +3058,7 @@
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="3465A4"/>
               </a:solidFill>
@@ -2909,7 +3068,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -2972,7 +3131,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -3042,7 +3201,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -3112,7 +3271,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -3187,7 +3346,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:blipFill dpi="0" rotWithShape="0">
                 <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
                 <a:srcRect/>
@@ -3198,7 +3357,7 @@
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="3465A4"/>
               </a:solidFill>
@@ -3208,7 +3367,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -3276,7 +3435,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:blipFill dpi="0" rotWithShape="0">
                 <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
                 <a:srcRect/>
@@ -3287,7 +3446,7 @@
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="3465A4"/>
               </a:solidFill>
@@ -3297,7 +3456,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -3403,7 +3562,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:blipFill dpi="0" rotWithShape="0">
                 <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
                 <a:srcRect/>
@@ -3414,7 +3573,7 @@
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="3465A4"/>
               </a:solidFill>
@@ -3424,7 +3583,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -3492,7 +3651,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:blipFill dpi="0" rotWithShape="0">
                 <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
                 <a:srcRect/>
@@ -3503,7 +3662,7 @@
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="3465A4"/>
               </a:solidFill>
@@ -3513,7 +3672,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -3841,7 +4000,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3883,7 +4042,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3902,14 +4061,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Plan1"/>
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B11" sqref="B11"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:V21"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -3931,1159 +4090,1143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
+      <c r="A1" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
     </row>
     <row r="2" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="139"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="139"/>
-      <c r="V2" s="139"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
     </row>
     <row r="3" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="139"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="139"/>
-      <c r="S3" s="139"/>
-      <c r="T3" s="139"/>
-      <c r="U3" s="139"/>
-      <c r="V3" s="139"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
+      <c r="V3" s="128"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="140" t="s">
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="130" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="140"/>
-      <c r="Q4" s="138">
+      <c r="P4" s="131"/>
+      <c r="Q4" s="132">
         <f>Funções!L4</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="138"/>
-      <c r="S4" s="138"/>
-      <c r="T4" s="138"/>
-      <c r="U4" s="138"/>
-      <c r="V4" s="138"/>
+        <v>219</v>
+      </c>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="132"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="135"/>
-      <c r="K5" s="135"/>
-      <c r="L5" s="135"/>
-      <c r="M5" s="135"/>
-      <c r="N5" s="135"/>
-      <c r="O5" s="136" t="s">
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="133" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="136"/>
-      <c r="Q5" s="138">
+      <c r="P5" s="134"/>
+      <c r="Q5" s="132">
         <f>Funções!L5</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="138"/>
-      <c r="S5" s="138"/>
-      <c r="T5" s="138"/>
-      <c r="U5" s="138"/>
-      <c r="V5" s="138"/>
+        <v>219</v>
+      </c>
+      <c r="R5" s="132"/>
+      <c r="S5" s="132"/>
+      <c r="T5" s="132"/>
+      <c r="U5" s="132"/>
+      <c r="V5" s="132"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="131"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="132"/>
-      <c r="O6" s="136" t="s">
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="136"/>
-      <c r="Q6" s="138">
+      <c r="P6" s="134"/>
+      <c r="Q6" s="132">
         <f>Funções!L6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="138"/>
-      <c r="S6" s="138"/>
-      <c r="T6" s="138"/>
-      <c r="U6" s="138"/>
-      <c r="V6" s="138"/>
+      <c r="R6" s="132"/>
+      <c r="S6" s="132"/>
+      <c r="T6" s="132"/>
+      <c r="U6" s="132"/>
+      <c r="V6" s="132"/>
     </row>
     <row r="7" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="135"/>
-      <c r="N7" s="135"/>
-      <c r="O7" s="136" t="s">
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="136"/>
-      <c r="Q7" s="136"/>
-      <c r="R7" s="137"/>
-      <c r="S7" s="137"/>
-      <c r="T7" s="137"/>
-      <c r="U7" s="137"/>
-      <c r="V7" s="137"/>
+      <c r="P7" s="134"/>
+      <c r="Q7" s="134"/>
+      <c r="R7" s="136"/>
+      <c r="S7" s="136"/>
+      <c r="T7" s="136"/>
+      <c r="U7" s="136"/>
+      <c r="V7" s="136"/>
     </row>
     <row r="8" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="135"/>
-      <c r="K8" s="135"/>
-      <c r="L8" s="135"/>
-      <c r="M8" s="135"/>
-      <c r="N8" s="135"/>
-      <c r="O8" s="136" t="s">
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="130" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="130"/>
+      <c r="M8" s="130"/>
+      <c r="N8" s="130"/>
+      <c r="O8" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="136"/>
-      <c r="Q8" s="136"/>
-      <c r="R8" s="137"/>
-      <c r="S8" s="137"/>
-      <c r="T8" s="137"/>
-      <c r="U8" s="137"/>
-      <c r="V8" s="137"/>
+      <c r="P8" s="134"/>
+      <c r="Q8" s="134"/>
+      <c r="R8" s="136"/>
+      <c r="S8" s="136"/>
+      <c r="T8" s="136"/>
+      <c r="U8" s="136"/>
+      <c r="V8" s="136"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="132"/>
-      <c r="N9" s="132"/>
-      <c r="O9" s="133" t="s">
+      <c r="B9" s="129"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="135" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="135"/>
+      <c r="M9" s="135"/>
+      <c r="N9" s="135"/>
+      <c r="O9" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="133"/>
-      <c r="Q9" s="133"/>
-      <c r="R9" s="134"/>
-      <c r="S9" s="134"/>
-      <c r="T9" s="134"/>
-      <c r="U9" s="134"/>
-      <c r="V9" s="134"/>
+      <c r="P9" s="137"/>
+      <c r="Q9" s="137"/>
+      <c r="R9" s="138"/>
+      <c r="S9" s="138"/>
+      <c r="T9" s="138"/>
+      <c r="U9" s="138"/>
+      <c r="V9" s="138"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A10" s="131" t="s">
+      <c r="A10" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="131"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="132"/>
-      <c r="K10" s="132"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="133" t="s">
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="135" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="135"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="135"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="133"/>
-      <c r="Q10" s="133"/>
-      <c r="R10" s="134"/>
-      <c r="S10" s="134"/>
-      <c r="T10" s="134"/>
-      <c r="U10" s="134"/>
-      <c r="V10" s="134"/>
+      <c r="P10" s="137"/>
+      <c r="Q10" s="137"/>
+      <c r="R10" s="138"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="138"/>
+      <c r="U10" s="138"/>
+      <c r="V10" s="138"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="128" t="s">
+      <c r="A11" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="128"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="128"/>
-      <c r="N11" s="128"/>
-      <c r="O11" s="128"/>
-      <c r="P11" s="128"/>
-      <c r="Q11" s="128"/>
-      <c r="R11" s="128"/>
-      <c r="S11" s="128"/>
-      <c r="T11" s="128"/>
-      <c r="U11" s="128"/>
-      <c r="V11" s="128"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="139"/>
+      <c r="N11" s="139"/>
+      <c r="O11" s="139"/>
+      <c r="P11" s="139"/>
+      <c r="Q11" s="139"/>
+      <c r="R11" s="139"/>
+      <c r="S11" s="139"/>
+      <c r="T11" s="139"/>
+      <c r="U11" s="139"/>
+      <c r="V11" s="139"/>
     </row>
     <row r="12" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="129"/>
-      <c r="B12" s="129"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
-      <c r="N12" s="129"/>
-      <c r="O12" s="129"/>
-      <c r="P12" s="129"/>
-      <c r="Q12" s="129"/>
-      <c r="R12" s="129"/>
-      <c r="S12" s="129"/>
-      <c r="T12" s="129"/>
-      <c r="U12" s="129"/>
-      <c r="V12" s="129"/>
+      <c r="A12" s="140"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="140"/>
+      <c r="O12" s="140"/>
+      <c r="P12" s="140"/>
+      <c r="Q12" s="140"/>
+      <c r="R12" s="140"/>
+      <c r="S12" s="140"/>
+      <c r="T12" s="140"/>
+      <c r="U12" s="140"/>
+      <c r="V12" s="140"/>
     </row>
     <row r="13" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="129"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
-      <c r="P13" s="129"/>
-      <c r="Q13" s="129"/>
-      <c r="R13" s="129"/>
-      <c r="S13" s="129"/>
-      <c r="T13" s="129"/>
-      <c r="U13" s="129"/>
-      <c r="V13" s="129"/>
+      <c r="A13" s="140"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="140"/>
+      <c r="N13" s="140"/>
+      <c r="O13" s="140"/>
+      <c r="P13" s="140"/>
+      <c r="Q13" s="140"/>
+      <c r="R13" s="140"/>
+      <c r="S13" s="140"/>
+      <c r="T13" s="140"/>
+      <c r="U13" s="140"/>
+      <c r="V13" s="140"/>
     </row>
     <row r="14" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="129"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="129"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="129"/>
-      <c r="M14" s="129"/>
-      <c r="N14" s="129"/>
-      <c r="O14" s="129"/>
-      <c r="P14" s="129"/>
-      <c r="Q14" s="129"/>
-      <c r="R14" s="129"/>
-      <c r="S14" s="129"/>
-      <c r="T14" s="129"/>
-      <c r="U14" s="129"/>
-      <c r="V14" s="129"/>
+      <c r="A14" s="140"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="140"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="140"/>
+      <c r="Q14" s="140"/>
+      <c r="R14" s="140"/>
+      <c r="S14" s="140"/>
+      <c r="T14" s="140"/>
+      <c r="U14" s="140"/>
+      <c r="V14" s="140"/>
     </row>
     <row r="15" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="129"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="129"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="129"/>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="129"/>
-      <c r="S15" s="129"/>
-      <c r="T15" s="129"/>
-      <c r="U15" s="129"/>
-      <c r="V15" s="129"/>
+      <c r="A15" s="140"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="140"/>
+      <c r="N15" s="140"/>
+      <c r="O15" s="140"/>
+      <c r="P15" s="140"/>
+      <c r="Q15" s="140"/>
+      <c r="R15" s="140"/>
+      <c r="S15" s="140"/>
+      <c r="T15" s="140"/>
+      <c r="U15" s="140"/>
+      <c r="V15" s="140"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="128" t="s">
+      <c r="A16" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="128"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="128"/>
-      <c r="M16" s="128"/>
-      <c r="N16" s="128"/>
-      <c r="O16" s="128"/>
-      <c r="P16" s="128"/>
-      <c r="Q16" s="128"/>
-      <c r="R16" s="128"/>
-      <c r="S16" s="128"/>
-      <c r="T16" s="128"/>
-      <c r="U16" s="128"/>
-      <c r="V16" s="128"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="139"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="139"/>
+      <c r="P16" s="139"/>
+      <c r="Q16" s="139"/>
+      <c r="R16" s="139"/>
+      <c r="S16" s="139"/>
+      <c r="T16" s="139"/>
+      <c r="U16" s="139"/>
+      <c r="V16" s="139"/>
     </row>
     <row r="17" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="129"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129"/>
-      <c r="P17" s="129"/>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="129"/>
-      <c r="S17" s="129"/>
-      <c r="T17" s="129"/>
-      <c r="U17" s="129"/>
-      <c r="V17" s="129"/>
+      <c r="A17" s="140"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="140"/>
+      <c r="L17" s="140"/>
+      <c r="M17" s="140"/>
+      <c r="N17" s="140"/>
+      <c r="O17" s="140"/>
+      <c r="P17" s="140"/>
+      <c r="Q17" s="140"/>
+      <c r="R17" s="140"/>
+      <c r="S17" s="140"/>
+      <c r="T17" s="140"/>
+      <c r="U17" s="140"/>
+      <c r="V17" s="140"/>
     </row>
     <row r="18" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="129"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="129"/>
-      <c r="M18" s="129"/>
-      <c r="N18" s="129"/>
-      <c r="O18" s="129"/>
-      <c r="P18" s="129"/>
-      <c r="Q18" s="129"/>
-      <c r="R18" s="129"/>
-      <c r="S18" s="129"/>
-      <c r="T18" s="129"/>
-      <c r="U18" s="129"/>
-      <c r="V18" s="129"/>
+      <c r="A18" s="140"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="140"/>
+      <c r="O18" s="140"/>
+      <c r="P18" s="140"/>
+      <c r="Q18" s="140"/>
+      <c r="R18" s="140"/>
+      <c r="S18" s="140"/>
+      <c r="T18" s="140"/>
+      <c r="U18" s="140"/>
+      <c r="V18" s="140"/>
     </row>
     <row r="19" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="129"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="129"/>
-      <c r="O19" s="129"/>
-      <c r="P19" s="129"/>
-      <c r="Q19" s="129"/>
-      <c r="R19" s="129"/>
-      <c r="S19" s="129"/>
-      <c r="T19" s="129"/>
-      <c r="U19" s="129"/>
-      <c r="V19" s="129"/>
+      <c r="A19" s="140"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="140"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="140"/>
+      <c r="N19" s="140"/>
+      <c r="O19" s="140"/>
+      <c r="P19" s="140"/>
+      <c r="Q19" s="140"/>
+      <c r="R19" s="140"/>
+      <c r="S19" s="140"/>
+      <c r="T19" s="140"/>
+      <c r="U19" s="140"/>
+      <c r="V19" s="140"/>
     </row>
     <row r="20" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="129"/>
-      <c r="B20" s="129"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="129"/>
-      <c r="O20" s="129"/>
-      <c r="P20" s="129"/>
-      <c r="Q20" s="129"/>
-      <c r="R20" s="129"/>
-      <c r="S20" s="129"/>
-      <c r="T20" s="129"/>
-      <c r="U20" s="129"/>
-      <c r="V20" s="129"/>
+      <c r="A20" s="140"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="140"/>
+      <c r="K20" s="140"/>
+      <c r="L20" s="140"/>
+      <c r="M20" s="140"/>
+      <c r="N20" s="140"/>
+      <c r="O20" s="140"/>
+      <c r="P20" s="140"/>
+      <c r="Q20" s="140"/>
+      <c r="R20" s="140"/>
+      <c r="S20" s="140"/>
+      <c r="T20" s="140"/>
+      <c r="U20" s="140"/>
+      <c r="V20" s="140"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="128" t="s">
+      <c r="A21" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="128"/>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="128"/>
-      <c r="L21" s="128"/>
-      <c r="M21" s="128"/>
-      <c r="N21" s="128"/>
-      <c r="O21" s="128"/>
-      <c r="P21" s="128"/>
-      <c r="Q21" s="128"/>
-      <c r="R21" s="128"/>
-      <c r="S21" s="128"/>
-      <c r="T21" s="128"/>
-      <c r="U21" s="128"/>
-      <c r="V21" s="128"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="139"/>
+      <c r="O21" s="139"/>
+      <c r="P21" s="139"/>
+      <c r="Q21" s="139"/>
+      <c r="R21" s="139"/>
+      <c r="S21" s="139"/>
+      <c r="T21" s="139"/>
+      <c r="U21" s="139"/>
+      <c r="V21" s="139"/>
     </row>
     <row r="22" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="130"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="130"/>
-      <c r="L22" s="130"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="130"/>
-      <c r="O22" s="130"/>
-      <c r="P22" s="130"/>
-      <c r="Q22" s="130"/>
-      <c r="R22" s="130"/>
-      <c r="S22" s="130"/>
-      <c r="T22" s="130"/>
-      <c r="U22" s="130"/>
-      <c r="V22" s="130"/>
+      <c r="A22" s="141"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="141"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="141"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="141"/>
+      <c r="N22" s="141"/>
+      <c r="O22" s="141"/>
+      <c r="P22" s="141"/>
+      <c r="Q22" s="141"/>
+      <c r="R22" s="141"/>
+      <c r="S22" s="141"/>
+      <c r="T22" s="141"/>
+      <c r="U22" s="141"/>
+      <c r="V22" s="141"/>
     </row>
     <row r="23" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="130"/>
-      <c r="B23" s="130"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="130"/>
-      <c r="K23" s="130"/>
-      <c r="L23" s="130"/>
-      <c r="M23" s="130"/>
-      <c r="N23" s="130"/>
-      <c r="O23" s="130"/>
-      <c r="P23" s="130"/>
-      <c r="Q23" s="130"/>
-      <c r="R23" s="130"/>
-      <c r="S23" s="130"/>
-      <c r="T23" s="130"/>
-      <c r="U23" s="130"/>
-      <c r="V23" s="130"/>
+      <c r="A23" s="141"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="141"/>
+      <c r="N23" s="141"/>
+      <c r="O23" s="141"/>
+      <c r="P23" s="141"/>
+      <c r="Q23" s="141"/>
+      <c r="R23" s="141"/>
+      <c r="S23" s="141"/>
+      <c r="T23" s="141"/>
+      <c r="U23" s="141"/>
+      <c r="V23" s="141"/>
     </row>
     <row r="24" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="130"/>
-      <c r="B24" s="130"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="130"/>
-      <c r="L24" s="130"/>
-      <c r="M24" s="130"/>
-      <c r="N24" s="130"/>
-      <c r="O24" s="130"/>
-      <c r="P24" s="130"/>
-      <c r="Q24" s="130"/>
-      <c r="R24" s="130"/>
-      <c r="S24" s="130"/>
-      <c r="T24" s="130"/>
-      <c r="U24" s="130"/>
-      <c r="V24" s="130"/>
+      <c r="A24" s="141"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="141"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="141"/>
+      <c r="L24" s="141"/>
+      <c r="M24" s="141"/>
+      <c r="N24" s="141"/>
+      <c r="O24" s="141"/>
+      <c r="P24" s="141"/>
+      <c r="Q24" s="141"/>
+      <c r="R24" s="141"/>
+      <c r="S24" s="141"/>
+      <c r="T24" s="141"/>
+      <c r="U24" s="141"/>
+      <c r="V24" s="141"/>
     </row>
     <row r="25" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="130"/>
-      <c r="B25" s="130"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="130"/>
-      <c r="L25" s="130"/>
-      <c r="M25" s="130"/>
-      <c r="N25" s="130"/>
-      <c r="O25" s="130"/>
-      <c r="P25" s="130"/>
-      <c r="Q25" s="130"/>
-      <c r="R25" s="130"/>
-      <c r="S25" s="130"/>
-      <c r="T25" s="130"/>
-      <c r="U25" s="130"/>
-      <c r="V25" s="130"/>
+      <c r="A25" s="141"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="141"/>
+      <c r="I25" s="141"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="141"/>
+      <c r="L25" s="141"/>
+      <c r="M25" s="141"/>
+      <c r="N25" s="141"/>
+      <c r="O25" s="141"/>
+      <c r="P25" s="141"/>
+      <c r="Q25" s="141"/>
+      <c r="R25" s="141"/>
+      <c r="S25" s="141"/>
+      <c r="T25" s="141"/>
+      <c r="U25" s="141"/>
+      <c r="V25" s="141"/>
     </row>
     <row r="26" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="130"/>
-      <c r="B26" s="130"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="130"/>
-      <c r="L26" s="130"/>
-      <c r="M26" s="130"/>
-      <c r="N26" s="130"/>
-      <c r="O26" s="130"/>
-      <c r="P26" s="130"/>
-      <c r="Q26" s="130"/>
-      <c r="R26" s="130"/>
-      <c r="S26" s="130"/>
-      <c r="T26" s="130"/>
-      <c r="U26" s="130"/>
-      <c r="V26" s="130"/>
+      <c r="A26" s="141"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="141"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="141"/>
+      <c r="L26" s="141"/>
+      <c r="M26" s="141"/>
+      <c r="N26" s="141"/>
+      <c r="O26" s="141"/>
+      <c r="P26" s="141"/>
+      <c r="Q26" s="141"/>
+      <c r="R26" s="141"/>
+      <c r="S26" s="141"/>
+      <c r="T26" s="141"/>
+      <c r="U26" s="141"/>
+      <c r="V26" s="141"/>
     </row>
     <row r="27" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="130"/>
-      <c r="B27" s="130"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="130"/>
-      <c r="K27" s="130"/>
-      <c r="L27" s="130"/>
-      <c r="M27" s="130"/>
-      <c r="N27" s="130"/>
-      <c r="O27" s="130"/>
-      <c r="P27" s="130"/>
-      <c r="Q27" s="130"/>
-      <c r="R27" s="130"/>
-      <c r="S27" s="130"/>
-      <c r="T27" s="130"/>
-      <c r="U27" s="130"/>
-      <c r="V27" s="130"/>
+      <c r="A27" s="141"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="141"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="141"/>
+      <c r="L27" s="141"/>
+      <c r="M27" s="141"/>
+      <c r="N27" s="141"/>
+      <c r="O27" s="141"/>
+      <c r="P27" s="141"/>
+      <c r="Q27" s="141"/>
+      <c r="R27" s="141"/>
+      <c r="S27" s="141"/>
+      <c r="T27" s="141"/>
+      <c r="U27" s="141"/>
+      <c r="V27" s="141"/>
     </row>
     <row r="28" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="130"/>
-      <c r="B28" s="130"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="130"/>
-      <c r="K28" s="130"/>
-      <c r="L28" s="130"/>
-      <c r="M28" s="130"/>
-      <c r="N28" s="130"/>
-      <c r="O28" s="130"/>
-      <c r="P28" s="130"/>
-      <c r="Q28" s="130"/>
-      <c r="R28" s="130"/>
-      <c r="S28" s="130"/>
-      <c r="T28" s="130"/>
-      <c r="U28" s="130"/>
-      <c r="V28" s="130"/>
+      <c r="A28" s="141"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="141"/>
+      <c r="L28" s="141"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="141"/>
+      <c r="O28" s="141"/>
+      <c r="P28" s="141"/>
+      <c r="Q28" s="141"/>
+      <c r="R28" s="141"/>
+      <c r="S28" s="141"/>
+      <c r="T28" s="141"/>
+      <c r="U28" s="141"/>
+      <c r="V28" s="141"/>
     </row>
     <row r="29" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="130"/>
-      <c r="B29" s="130"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="130"/>
-      <c r="L29" s="130"/>
-      <c r="M29" s="130"/>
-      <c r="N29" s="130"/>
-      <c r="O29" s="130"/>
-      <c r="P29" s="130"/>
-      <c r="Q29" s="130"/>
-      <c r="R29" s="130"/>
-      <c r="S29" s="130"/>
-      <c r="T29" s="130"/>
-      <c r="U29" s="130"/>
-      <c r="V29" s="130"/>
+      <c r="A29" s="141"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="141"/>
+      <c r="I29" s="141"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="141"/>
+      <c r="P29" s="141"/>
+      <c r="Q29" s="141"/>
+      <c r="R29" s="141"/>
+      <c r="S29" s="141"/>
+      <c r="T29" s="141"/>
+      <c r="U29" s="141"/>
+      <c r="V29" s="141"/>
     </row>
     <row r="30" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="130"/>
-      <c r="B30" s="130"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="130"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="130"/>
-      <c r="K30" s="130"/>
-      <c r="L30" s="130"/>
-      <c r="M30" s="130"/>
-      <c r="N30" s="130"/>
-      <c r="O30" s="130"/>
-      <c r="P30" s="130"/>
-      <c r="Q30" s="130"/>
-      <c r="R30" s="130"/>
-      <c r="S30" s="130"/>
-      <c r="T30" s="130"/>
-      <c r="U30" s="130"/>
-      <c r="V30" s="130"/>
+      <c r="A30" s="141"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="141"/>
+      <c r="I30" s="141"/>
+      <c r="J30" s="141"/>
+      <c r="K30" s="141"/>
+      <c r="L30" s="141"/>
+      <c r="M30" s="141"/>
+      <c r="N30" s="141"/>
+      <c r="O30" s="141"/>
+      <c r="P30" s="141"/>
+      <c r="Q30" s="141"/>
+      <c r="R30" s="141"/>
+      <c r="S30" s="141"/>
+      <c r="T30" s="141"/>
+      <c r="U30" s="141"/>
+      <c r="V30" s="141"/>
     </row>
     <row r="31" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="130"/>
-      <c r="B31" s="130"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="130"/>
-      <c r="K31" s="130"/>
-      <c r="L31" s="130"/>
-      <c r="M31" s="130"/>
-      <c r="N31" s="130"/>
-      <c r="O31" s="130"/>
-      <c r="P31" s="130"/>
-      <c r="Q31" s="130"/>
-      <c r="R31" s="130"/>
-      <c r="S31" s="130"/>
-      <c r="T31" s="130"/>
-      <c r="U31" s="130"/>
-      <c r="V31" s="130"/>
+      <c r="A31" s="141"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="141"/>
+      <c r="I31" s="141"/>
+      <c r="J31" s="141"/>
+      <c r="K31" s="141"/>
+      <c r="L31" s="141"/>
+      <c r="M31" s="141"/>
+      <c r="N31" s="141"/>
+      <c r="O31" s="141"/>
+      <c r="P31" s="141"/>
+      <c r="Q31" s="141"/>
+      <c r="R31" s="141"/>
+      <c r="S31" s="141"/>
+      <c r="T31" s="141"/>
+      <c r="U31" s="141"/>
+      <c r="V31" s="141"/>
     </row>
     <row r="32" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="130"/>
-      <c r="B32" s="130"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="130"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="130"/>
-      <c r="K32" s="130"/>
-      <c r="L32" s="130"/>
-      <c r="M32" s="130"/>
-      <c r="N32" s="130"/>
-      <c r="O32" s="130"/>
-      <c r="P32" s="130"/>
-      <c r="Q32" s="130"/>
-      <c r="R32" s="130"/>
-      <c r="S32" s="130"/>
-      <c r="T32" s="130"/>
-      <c r="U32" s="130"/>
-      <c r="V32" s="130"/>
+      <c r="A32" s="141"/>
+      <c r="B32" s="141"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="141"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="141"/>
+      <c r="L32" s="141"/>
+      <c r="M32" s="141"/>
+      <c r="N32" s="141"/>
+      <c r="O32" s="141"/>
+      <c r="P32" s="141"/>
+      <c r="Q32" s="141"/>
+      <c r="R32" s="141"/>
+      <c r="S32" s="141"/>
+      <c r="T32" s="141"/>
+      <c r="U32" s="141"/>
+      <c r="V32" s="141"/>
     </row>
     <row r="33" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="130"/>
-      <c r="B33" s="130"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="130"/>
-      <c r="K33" s="130"/>
-      <c r="L33" s="130"/>
-      <c r="M33" s="130"/>
-      <c r="N33" s="130"/>
-      <c r="O33" s="130"/>
-      <c r="P33" s="130"/>
-      <c r="Q33" s="130"/>
-      <c r="R33" s="130"/>
-      <c r="S33" s="130"/>
-      <c r="T33" s="130"/>
-      <c r="U33" s="130"/>
-      <c r="V33" s="130"/>
+      <c r="A33" s="141"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="141"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="141"/>
+      <c r="L33" s="141"/>
+      <c r="M33" s="141"/>
+      <c r="N33" s="141"/>
+      <c r="O33" s="141"/>
+      <c r="P33" s="141"/>
+      <c r="Q33" s="141"/>
+      <c r="R33" s="141"/>
+      <c r="S33" s="141"/>
+      <c r="T33" s="141"/>
+      <c r="U33" s="141"/>
+      <c r="V33" s="141"/>
     </row>
     <row r="34" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="130"/>
-      <c r="B34" s="130"/>
-      <c r="C34" s="130"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="130"/>
-      <c r="F34" s="130"/>
-      <c r="G34" s="130"/>
-      <c r="H34" s="130"/>
-      <c r="I34" s="130"/>
-      <c r="J34" s="130"/>
-      <c r="K34" s="130"/>
-      <c r="L34" s="130"/>
-      <c r="M34" s="130"/>
-      <c r="N34" s="130"/>
-      <c r="O34" s="130"/>
-      <c r="P34" s="130"/>
-      <c r="Q34" s="130"/>
-      <c r="R34" s="130"/>
-      <c r="S34" s="130"/>
-      <c r="T34" s="130"/>
-      <c r="U34" s="130"/>
-      <c r="V34" s="130"/>
+      <c r="A34" s="141"/>
+      <c r="B34" s="141"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="141"/>
+      <c r="H34" s="141"/>
+      <c r="I34" s="141"/>
+      <c r="J34" s="141"/>
+      <c r="K34" s="141"/>
+      <c r="L34" s="141"/>
+      <c r="M34" s="141"/>
+      <c r="N34" s="141"/>
+      <c r="O34" s="141"/>
+      <c r="P34" s="141"/>
+      <c r="Q34" s="141"/>
+      <c r="R34" s="141"/>
+      <c r="S34" s="141"/>
+      <c r="T34" s="141"/>
+      <c r="U34" s="141"/>
+      <c r="V34" s="141"/>
     </row>
     <row r="35" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="130"/>
-      <c r="B35" s="130"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="130"/>
-      <c r="J35" s="130"/>
-      <c r="K35" s="130"/>
-      <c r="L35" s="130"/>
-      <c r="M35" s="130"/>
-      <c r="N35" s="130"/>
-      <c r="O35" s="130"/>
-      <c r="P35" s="130"/>
-      <c r="Q35" s="130"/>
-      <c r="R35" s="130"/>
-      <c r="S35" s="130"/>
-      <c r="T35" s="130"/>
-      <c r="U35" s="130"/>
-      <c r="V35" s="130"/>
+      <c r="A35" s="141"/>
+      <c r="B35" s="141"/>
+      <c r="C35" s="141"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="141"/>
+      <c r="F35" s="141"/>
+      <c r="G35" s="141"/>
+      <c r="H35" s="141"/>
+      <c r="I35" s="141"/>
+      <c r="J35" s="141"/>
+      <c r="K35" s="141"/>
+      <c r="L35" s="141"/>
+      <c r="M35" s="141"/>
+      <c r="N35" s="141"/>
+      <c r="O35" s="141"/>
+      <c r="P35" s="141"/>
+      <c r="Q35" s="141"/>
+      <c r="R35" s="141"/>
+      <c r="S35" s="141"/>
+      <c r="T35" s="141"/>
+      <c r="U35" s="141"/>
+      <c r="V35" s="141"/>
     </row>
     <row r="36" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="130"/>
-      <c r="B36" s="130"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="130"/>
-      <c r="F36" s="130"/>
-      <c r="G36" s="130"/>
-      <c r="H36" s="130"/>
-      <c r="I36" s="130"/>
-      <c r="J36" s="130"/>
-      <c r="K36" s="130"/>
-      <c r="L36" s="130"/>
-      <c r="M36" s="130"/>
-      <c r="N36" s="130"/>
-      <c r="O36" s="130"/>
-      <c r="P36" s="130"/>
-      <c r="Q36" s="130"/>
-      <c r="R36" s="130"/>
-      <c r="S36" s="130"/>
-      <c r="T36" s="130"/>
-      <c r="U36" s="130"/>
-      <c r="V36" s="130"/>
+      <c r="A36" s="141"/>
+      <c r="B36" s="141"/>
+      <c r="C36" s="141"/>
+      <c r="D36" s="141"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="141"/>
+      <c r="H36" s="141"/>
+      <c r="I36" s="141"/>
+      <c r="J36" s="141"/>
+      <c r="K36" s="141"/>
+      <c r="L36" s="141"/>
+      <c r="M36" s="141"/>
+      <c r="N36" s="141"/>
+      <c r="O36" s="141"/>
+      <c r="P36" s="141"/>
+      <c r="Q36" s="141"/>
+      <c r="R36" s="141"/>
+      <c r="S36" s="141"/>
+      <c r="T36" s="141"/>
+      <c r="U36" s="141"/>
+      <c r="V36" s="141"/>
     </row>
     <row r="37" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="130"/>
-      <c r="B37" s="130"/>
-      <c r="C37" s="130"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="130"/>
-      <c r="F37" s="130"/>
-      <c r="G37" s="130"/>
-      <c r="H37" s="130"/>
-      <c r="I37" s="130"/>
-      <c r="J37" s="130"/>
-      <c r="K37" s="130"/>
-      <c r="L37" s="130"/>
-      <c r="M37" s="130"/>
-      <c r="N37" s="130"/>
-      <c r="O37" s="130"/>
-      <c r="P37" s="130"/>
-      <c r="Q37" s="130"/>
-      <c r="R37" s="130"/>
-      <c r="S37" s="130"/>
-      <c r="T37" s="130"/>
-      <c r="U37" s="130"/>
-      <c r="V37" s="130"/>
+      <c r="A37" s="141"/>
+      <c r="B37" s="141"/>
+      <c r="C37" s="141"/>
+      <c r="D37" s="141"/>
+      <c r="E37" s="141"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="141"/>
+      <c r="H37" s="141"/>
+      <c r="I37" s="141"/>
+      <c r="J37" s="141"/>
+      <c r="K37" s="141"/>
+      <c r="L37" s="141"/>
+      <c r="M37" s="141"/>
+      <c r="N37" s="141"/>
+      <c r="O37" s="141"/>
+      <c r="P37" s="141"/>
+      <c r="Q37" s="141"/>
+      <c r="R37" s="141"/>
+      <c r="S37" s="141"/>
+      <c r="T37" s="141"/>
+      <c r="U37" s="141"/>
+      <c r="V37" s="141"/>
     </row>
     <row r="38" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="130"/>
-      <c r="B38" s="130"/>
-      <c r="C38" s="130"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="130"/>
-      <c r="H38" s="130"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="130"/>
-      <c r="L38" s="130"/>
-      <c r="M38" s="130"/>
-      <c r="N38" s="130"/>
-      <c r="O38" s="130"/>
-      <c r="P38" s="130"/>
-      <c r="Q38" s="130"/>
-      <c r="R38" s="130"/>
-      <c r="S38" s="130"/>
-      <c r="T38" s="130"/>
-      <c r="U38" s="130"/>
-      <c r="V38" s="130"/>
+      <c r="A38" s="141"/>
+      <c r="B38" s="141"/>
+      <c r="C38" s="141"/>
+      <c r="D38" s="141"/>
+      <c r="E38" s="141"/>
+      <c r="F38" s="141"/>
+      <c r="G38" s="141"/>
+      <c r="H38" s="141"/>
+      <c r="I38" s="141"/>
+      <c r="J38" s="141"/>
+      <c r="K38" s="141"/>
+      <c r="L38" s="141"/>
+      <c r="M38" s="141"/>
+      <c r="N38" s="141"/>
+      <c r="O38" s="141"/>
+      <c r="P38" s="141"/>
+      <c r="Q38" s="141"/>
+      <c r="R38" s="141"/>
+      <c r="S38" s="141"/>
+      <c r="T38" s="141"/>
+      <c r="U38" s="141"/>
+      <c r="V38" s="141"/>
     </row>
     <row r="39" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="130"/>
-      <c r="B39" s="130"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="130"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="130"/>
-      <c r="H39" s="130"/>
-      <c r="I39" s="130"/>
-      <c r="J39" s="130"/>
-      <c r="K39" s="130"/>
-      <c r="L39" s="130"/>
-      <c r="M39" s="130"/>
-      <c r="N39" s="130"/>
-      <c r="O39" s="130"/>
-      <c r="P39" s="130"/>
-      <c r="Q39" s="130"/>
-      <c r="R39" s="130"/>
-      <c r="S39" s="130"/>
-      <c r="T39" s="130"/>
-      <c r="U39" s="130"/>
-      <c r="V39" s="130"/>
+      <c r="A39" s="141"/>
+      <c r="B39" s="141"/>
+      <c r="C39" s="141"/>
+      <c r="D39" s="141"/>
+      <c r="E39" s="141"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="141"/>
+      <c r="H39" s="141"/>
+      <c r="I39" s="141"/>
+      <c r="J39" s="141"/>
+      <c r="K39" s="141"/>
+      <c r="L39" s="141"/>
+      <c r="M39" s="141"/>
+      <c r="N39" s="141"/>
+      <c r="O39" s="141"/>
+      <c r="P39" s="141"/>
+      <c r="Q39" s="141"/>
+      <c r="R39" s="141"/>
+      <c r="S39" s="141"/>
+      <c r="T39" s="141"/>
+      <c r="U39" s="141"/>
+      <c r="V39" s="141"/>
     </row>
     <row r="40" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="130"/>
-      <c r="B40" s="130"/>
-      <c r="C40" s="130"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="130"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="130"/>
-      <c r="I40" s="130"/>
-      <c r="J40" s="130"/>
-      <c r="K40" s="130"/>
-      <c r="L40" s="130"/>
-      <c r="M40" s="130"/>
-      <c r="N40" s="130"/>
-      <c r="O40" s="130"/>
-      <c r="P40" s="130"/>
-      <c r="Q40" s="130"/>
-      <c r="R40" s="130"/>
-      <c r="S40" s="130"/>
-      <c r="T40" s="130"/>
-      <c r="U40" s="130"/>
-      <c r="V40" s="130"/>
+      <c r="A40" s="141"/>
+      <c r="B40" s="141"/>
+      <c r="C40" s="141"/>
+      <c r="D40" s="141"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="141"/>
+      <c r="G40" s="141"/>
+      <c r="H40" s="141"/>
+      <c r="I40" s="141"/>
+      <c r="J40" s="141"/>
+      <c r="K40" s="141"/>
+      <c r="L40" s="141"/>
+      <c r="M40" s="141"/>
+      <c r="N40" s="141"/>
+      <c r="O40" s="141"/>
+      <c r="P40" s="141"/>
+      <c r="Q40" s="141"/>
+      <c r="R40" s="141"/>
+      <c r="S40" s="141"/>
+      <c r="T40" s="141"/>
+      <c r="U40" s="141"/>
+      <c r="V40" s="141"/>
     </row>
     <row r="41" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="130"/>
-      <c r="B41" s="130"/>
-      <c r="C41" s="130"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="130"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="130"/>
-      <c r="H41" s="130"/>
-      <c r="I41" s="130"/>
-      <c r="J41" s="130"/>
-      <c r="K41" s="130"/>
-      <c r="L41" s="130"/>
-      <c r="M41" s="130"/>
-      <c r="N41" s="130"/>
-      <c r="O41" s="130"/>
-      <c r="P41" s="130"/>
-      <c r="Q41" s="130"/>
-      <c r="R41" s="130"/>
-      <c r="S41" s="130"/>
-      <c r="T41" s="130"/>
-      <c r="U41" s="130"/>
-      <c r="V41" s="130"/>
+      <c r="A41" s="141"/>
+      <c r="B41" s="141"/>
+      <c r="C41" s="141"/>
+      <c r="D41" s="141"/>
+      <c r="E41" s="141"/>
+      <c r="F41" s="141"/>
+      <c r="G41" s="141"/>
+      <c r="H41" s="141"/>
+      <c r="I41" s="141"/>
+      <c r="J41" s="141"/>
+      <c r="K41" s="141"/>
+      <c r="L41" s="141"/>
+      <c r="M41" s="141"/>
+      <c r="N41" s="141"/>
+      <c r="O41" s="141"/>
+      <c r="P41" s="141"/>
+      <c r="Q41" s="141"/>
+      <c r="R41" s="141"/>
+      <c r="S41" s="141"/>
+      <c r="T41" s="141"/>
+      <c r="U41" s="141"/>
+      <c r="V41" s="141"/>
     </row>
     <row r="42" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="130"/>
-      <c r="B42" s="130"/>
-      <c r="C42" s="130"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="130"/>
-      <c r="F42" s="130"/>
-      <c r="G42" s="130"/>
-      <c r="H42" s="130"/>
-      <c r="I42" s="130"/>
-      <c r="J42" s="130"/>
-      <c r="K42" s="130"/>
-      <c r="L42" s="130"/>
-      <c r="M42" s="130"/>
-      <c r="N42" s="130"/>
-      <c r="O42" s="130"/>
-      <c r="P42" s="130"/>
-      <c r="Q42" s="130"/>
-      <c r="R42" s="130"/>
-      <c r="S42" s="130"/>
-      <c r="T42" s="130"/>
-      <c r="U42" s="130"/>
-      <c r="V42" s="130"/>
+      <c r="A42" s="141"/>
+      <c r="B42" s="141"/>
+      <c r="C42" s="141"/>
+      <c r="D42" s="141"/>
+      <c r="E42" s="141"/>
+      <c r="F42" s="141"/>
+      <c r="G42" s="141"/>
+      <c r="H42" s="141"/>
+      <c r="I42" s="141"/>
+      <c r="J42" s="141"/>
+      <c r="K42" s="141"/>
+      <c r="L42" s="141"/>
+      <c r="M42" s="141"/>
+      <c r="N42" s="141"/>
+      <c r="O42" s="141"/>
+      <c r="P42" s="141"/>
+      <c r="Q42" s="141"/>
+      <c r="R42" s="141"/>
+      <c r="S42" s="141"/>
+      <c r="T42" s="141"/>
+      <c r="U42" s="141"/>
+      <c r="V42" s="141"/>
     </row>
     <row r="43" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="130"/>
-      <c r="B43" s="130"/>
-      <c r="C43" s="130"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="130"/>
-      <c r="F43" s="130"/>
-      <c r="G43" s="130"/>
-      <c r="H43" s="130"/>
-      <c r="I43" s="130"/>
-      <c r="J43" s="130"/>
-      <c r="K43" s="130"/>
-      <c r="L43" s="130"/>
-      <c r="M43" s="130"/>
-      <c r="N43" s="130"/>
-      <c r="O43" s="130"/>
-      <c r="P43" s="130"/>
-      <c r="Q43" s="130"/>
-      <c r="R43" s="130"/>
-      <c r="S43" s="130"/>
-      <c r="T43" s="130"/>
-      <c r="U43" s="130"/>
-      <c r="V43" s="130"/>
+      <c r="A43" s="141"/>
+      <c r="B43" s="141"/>
+      <c r="C43" s="141"/>
+      <c r="D43" s="141"/>
+      <c r="E43" s="141"/>
+      <c r="F43" s="141"/>
+      <c r="G43" s="141"/>
+      <c r="H43" s="141"/>
+      <c r="I43" s="141"/>
+      <c r="J43" s="141"/>
+      <c r="K43" s="141"/>
+      <c r="L43" s="141"/>
+      <c r="M43" s="141"/>
+      <c r="N43" s="141"/>
+      <c r="O43" s="141"/>
+      <c r="P43" s="141"/>
+      <c r="Q43" s="141"/>
+      <c r="R43" s="141"/>
+      <c r="S43" s="141"/>
+      <c r="T43" s="141"/>
+      <c r="U43" s="141"/>
+      <c r="V43" s="141"/>
     </row>
     <row r="44" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="130"/>
-      <c r="B44" s="130"/>
-      <c r="C44" s="130"/>
-      <c r="D44" s="130"/>
-      <c r="E44" s="130"/>
-      <c r="F44" s="130"/>
-      <c r="G44" s="130"/>
-      <c r="H44" s="130"/>
-      <c r="I44" s="130"/>
-      <c r="J44" s="130"/>
-      <c r="K44" s="130"/>
-      <c r="L44" s="130"/>
-      <c r="M44" s="130"/>
-      <c r="N44" s="130"/>
-      <c r="O44" s="130"/>
-      <c r="P44" s="130"/>
-      <c r="Q44" s="130"/>
-      <c r="R44" s="130"/>
-      <c r="S44" s="130"/>
-      <c r="T44" s="130"/>
-      <c r="U44" s="130"/>
-      <c r="V44" s="130"/>
+      <c r="A44" s="141"/>
+      <c r="B44" s="141"/>
+      <c r="C44" s="141"/>
+      <c r="D44" s="141"/>
+      <c r="E44" s="141"/>
+      <c r="F44" s="141"/>
+      <c r="G44" s="141"/>
+      <c r="H44" s="141"/>
+      <c r="I44" s="141"/>
+      <c r="J44" s="141"/>
+      <c r="K44" s="141"/>
+      <c r="L44" s="141"/>
+      <c r="M44" s="141"/>
+      <c r="N44" s="141"/>
+      <c r="O44" s="141"/>
+      <c r="P44" s="141"/>
+      <c r="Q44" s="141"/>
+      <c r="R44" s="141"/>
+      <c r="S44" s="141"/>
+      <c r="T44" s="141"/>
+      <c r="U44" s="141"/>
+      <c r="V44" s="141"/>
     </row>
     <row r="45" spans="1:22" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="130"/>
-      <c r="B45" s="130"/>
-      <c r="C45" s="130"/>
-      <c r="D45" s="130"/>
-      <c r="E45" s="130"/>
-      <c r="F45" s="130"/>
-      <c r="G45" s="130"/>
-      <c r="H45" s="130"/>
-      <c r="I45" s="130"/>
-      <c r="J45" s="130"/>
-      <c r="K45" s="130"/>
-      <c r="L45" s="130"/>
-      <c r="M45" s="130"/>
-      <c r="N45" s="130"/>
-      <c r="O45" s="130"/>
-      <c r="P45" s="130"/>
-      <c r="Q45" s="130"/>
-      <c r="R45" s="130"/>
-      <c r="S45" s="130"/>
-      <c r="T45" s="130"/>
-      <c r="U45" s="130"/>
-      <c r="V45" s="130"/>
+      <c r="A45" s="141"/>
+      <c r="B45" s="141"/>
+      <c r="C45" s="141"/>
+      <c r="D45" s="141"/>
+      <c r="E45" s="141"/>
+      <c r="F45" s="141"/>
+      <c r="G45" s="141"/>
+      <c r="H45" s="141"/>
+      <c r="I45" s="141"/>
+      <c r="J45" s="141"/>
+      <c r="K45" s="141"/>
+      <c r="L45" s="141"/>
+      <c r="M45" s="141"/>
+      <c r="N45" s="141"/>
+      <c r="O45" s="141"/>
+      <c r="P45" s="141"/>
+      <c r="Q45" s="141"/>
+      <c r="R45" s="141"/>
+      <c r="S45" s="141"/>
+      <c r="T45" s="141"/>
+      <c r="U45" s="141"/>
+      <c r="V45" s="141"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="35">
-    <mergeCell ref="A1:V3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:V5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:V6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="R7:V7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="A16:V16"/>
     <mergeCell ref="A17:V20"/>
     <mergeCell ref="A21:V21"/>
     <mergeCell ref="A22:V45"/>
@@ -5093,17 +5236,43 @@
     <mergeCell ref="R10:V10"/>
     <mergeCell ref="A11:V11"/>
     <mergeCell ref="A12:V15"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="A16:V16"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="R7:V7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:V5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:V6"/>
+    <mergeCell ref="A1:V3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:V4"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="F6">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="F6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Aplicação,Projeto de Desenvolvimento,Projeto de Melhoria"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="G6:N7">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="G6:N7" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Aplicação,Estimativa,Projeto de Desenvolvimento,Projeto de Melhoria"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="Método de COntagem" prompt="Detalhada (IFPUG)_x000a_Estimativa (NESMA)_x000a_Indicativa (NESMA)" sqref="F7">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="Método de COntagem" prompt="Detalhada (IFPUG)_x000a_Estimativa (NESMA)_x000a_Indicativa (NESMA)" sqref="F7" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Detalhada (IFPUG),Estimativa (NESMA),Indicativa (NESMA)"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5119,16 +5288,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Plan2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O469"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B11" sqref="B11"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5206,11 +5375,11 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
-        <v xml:space="preserve">Aplicação : </v>
+        <v>Aplicação : Puchealth</v>
       </c>
       <c r="B4" s="143" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
-        <v xml:space="preserve">Projeto : </v>
+        <v>Projeto : TCC Engenharia de Software - PUC Minas</v>
       </c>
       <c r="C4" s="144"/>
       <c r="D4" s="144"/>
@@ -5225,7 +5394,7 @@
       </c>
       <c r="L4" s="116">
         <f>SUM(H8:H469)</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="M4" s="149"/>
       <c r="N4" s="149"/>
@@ -5234,11 +5403,11 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
         <f>Contagem!A9&amp;" : "&amp;Contagem!F9</f>
-        <v xml:space="preserve">Responsável : </v>
+        <v>Responsável : Caio Philipe Vargas de Souza</v>
       </c>
       <c r="B5" s="143" t="str">
         <f>Contagem!A10&amp;" : "&amp;Contagem!F10</f>
-        <v xml:space="preserve">Revisor : </v>
+        <v>Revisor : -</v>
       </c>
       <c r="C5" s="144"/>
       <c r="D5" s="144"/>
@@ -5253,7 +5422,7 @@
       </c>
       <c r="L5" s="116">
         <f>SUM(K8:K469)</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="M5" s="142"/>
       <c r="N5" s="142"/>
@@ -5262,7 +5431,7 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="121" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
-        <v xml:space="preserve">Empresa : </v>
+        <v>Empresa : -</v>
       </c>
       <c r="B6" s="146" t="str">
         <f>"Tipo da Contagem : "&amp;Contagem!F6</f>
@@ -5335,34 +5504,42 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="126"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="126" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="D8" s="7">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
       <c r="F8" s="8" t="str">
         <f t="shared" ref="F8:F61" si="0">IF(ISBLANK(B8),"",IF(I8="L","Baixa",IF(I8="A","Média",IF(I8="","","Alta"))))</f>
-        <v/>
+        <v>Baixa</v>
       </c>
       <c r="G8" s="7" t="str">
         <f t="shared" ref="G8:G61" si="1">CONCATENATE(B8,I8)</f>
-        <v/>
-      </c>
-      <c r="H8" s="5" t="str">
+        <v>ALIL</v>
+      </c>
+      <c r="H8" s="5">
         <f t="shared" ref="H8:H61" si="2">IF(ISBLANK(B8),"",IF(B8="ALI",IF(I8="L",7,IF(I8="A",10,15)),IF(B8="AIE",IF(I8="L",5,IF(I8="A",7,10)),IF(B8="SE",IF(I8="L",4,IF(I8="A",5,7)),IF(OR(B8="EE",B8="CE"),IF(I8="L",3,IF(I8="A",4,6)),0)))))</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="I8" s="122" t="str">
         <f t="shared" ref="I8:I61" si="3">IF(OR(ISBLANK(D8),ISBLANK(E8)),IF(OR(B8="ALI",B8="AIE"),"L",IF(OR(B8="EE",B8="SE",B8="CE"),"A","")),IF(B8="EE",IF(E8&gt;=3,IF(D8&gt;=5,"H","A"),IF(E8&gt;=2,IF(D8&gt;=16,"H",IF(D8&lt;=4,"L","A")),IF(D8&lt;=15,"L","A"))),IF(OR(B8="SE",B8="CE"),IF(E8&gt;=4,IF(D8&gt;=6,"H","A"),IF(E8&gt;=2,IF(D8&gt;=20,"H",IF(D8&lt;=5,"L","A")),IF(D8&lt;=19,"L","A"))),IF(OR(B8="ALI",B8="AIE"),IF(E8&gt;=6,IF(D8&gt;=20,"H","A"),IF(E8&gt;=2,IF(D8&gt;=51,"H",IF(D8&lt;=19,"L","A")),IF(D8&lt;=50,"L","A"))),""))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J8" s="7" t="str">
         <f t="shared" ref="J8:J61" si="4">CONCATENATE(B8,C8)</f>
-        <v/>
-      </c>
-      <c r="K8" s="9" t="str">
+        <v>ALI</v>
+      </c>
+      <c r="K8" s="9">
         <f t="shared" ref="K8:K63" si="5">IF(OR(H8="",H8=0),L8,H8)</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="L8" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B8,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B8,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C8),ISBLANK(B8)),"",VLOOKUP(C8,Deflatores!G$4:H$38,2,FALSE)*H8+VLOOKUP(C8,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -5373,34 +5550,42 @@
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="126"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="126" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="D9" s="7">
+        <v>7</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
       <c r="F9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Baixa</v>
       </c>
       <c r="G9" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H9" s="5" t="str">
+        <v>CEL</v>
+      </c>
+      <c r="H9" s="5">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="I9" s="122" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J9" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K9" s="9" t="str">
+        <v>CE</v>
+      </c>
+      <c r="K9" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="L9" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B9,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B9,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C9),ISBLANK(B9)),"",VLOOKUP(C9,Deflatores!G$4:H$38,2,FALSE)*H9+VLOOKUP(C9,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -5411,34 +5596,42 @@
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="126"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="126" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="D10" s="7">
+        <v>7</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
       <c r="F10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Baixa</v>
       </c>
       <c r="G10" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H10" s="5" t="str">
+        <v>EEL</v>
+      </c>
+      <c r="H10" s="5">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="I10" s="122" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J10" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K10" s="9" t="str">
+        <v>EE</v>
+      </c>
+      <c r="K10" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="L10" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B10,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B10,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C10),ISBLANK(B10)),"",VLOOKUP(C10,Deflatores!G$4:H$38,2,FALSE)*H10+VLOOKUP(C10,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -5449,34 +5642,42 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="126"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="126" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="D11" s="7">
+        <v>8</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
       <c r="F11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Baixa</v>
       </c>
       <c r="G11" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H11" s="5" t="str">
+        <v>ALIL</v>
+      </c>
+      <c r="H11" s="5">
         <f t="shared" si="2"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="I11" s="122" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J11" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K11" s="9" t="str">
+        <v>ALI</v>
+      </c>
+      <c r="K11" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="L11" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B11,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B11,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C11),ISBLANK(B11)),"",VLOOKUP(C11,Deflatores!G$4:H$38,2,FALSE)*H11+VLOOKUP(C11,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -5487,34 +5688,42 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="126"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="126" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="D12" s="7">
+        <v>8</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
       <c r="F12" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Baixa</v>
       </c>
       <c r="G12" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H12" s="5" t="str">
+        <v>CEL</v>
+      </c>
+      <c r="H12" s="5">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="I12" s="122" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J12" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K12" s="9" t="str">
+        <v>CE</v>
+      </c>
+      <c r="K12" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="L12" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B12,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B12,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C12),ISBLANK(B12)),"",VLOOKUP(C12,Deflatores!G$4:H$38,2,FALSE)*H12+VLOOKUP(C12,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -5525,34 +5734,42 @@
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="126"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="126" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="D13" s="7">
+        <v>8</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
       <c r="F13" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Baixa</v>
       </c>
       <c r="G13" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H13" s="5" t="str">
+        <v>SEL</v>
+      </c>
+      <c r="H13" s="5">
         <f t="shared" si="2"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I13" s="122" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J13" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K13" s="9" t="str">
+        <v>SE</v>
+      </c>
+      <c r="K13" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="L13" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B13,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B13,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C13),ISBLANK(B13)),"",VLOOKUP(C13,Deflatores!G$4:H$38,2,FALSE)*H13+VLOOKUP(C13,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -5563,34 +5780,42 @@
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="126"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="126" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="D14" s="7">
+        <v>8</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2</v>
+      </c>
       <c r="F14" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G14" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H14" s="5" t="str">
+        <v>EEA</v>
+      </c>
+      <c r="H14" s="5">
         <f t="shared" si="2"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I14" s="122" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J14" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K14" s="9" t="str">
+        <v>EE</v>
+      </c>
+      <c r="K14" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="L14" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B14,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B14,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C14),ISBLANK(B14)),"",VLOOKUP(C14,Deflatores!G$4:H$38,2,FALSE)*H14+VLOOKUP(C14,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -5601,34 +5826,42 @@
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="126"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="126" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="D15" s="7">
+        <v>8</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2</v>
+      </c>
       <c r="F15" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Média</v>
       </c>
       <c r="G15" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H15" s="5" t="str">
+        <v>CEA</v>
+      </c>
+      <c r="H15" s="5">
         <f t="shared" si="2"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I15" s="122" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="J15" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K15" s="9" t="str">
+        <v>CE</v>
+      </c>
+      <c r="K15" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="L15" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B15,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B15,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C15),ISBLANK(B15)),"",VLOOKUP(C15,Deflatores!G$4:H$38,2,FALSE)*H15+VLOOKUP(C15,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -5639,34 +5872,42 @@
       <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="126"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="126" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="D16" s="7">
+        <v>2</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
       <c r="F16" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Baixa</v>
       </c>
       <c r="G16" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H16" s="5" t="str">
+        <v>ALIL</v>
+      </c>
+      <c r="H16" s="5">
         <f t="shared" si="2"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="I16" s="122" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J16" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K16" s="9" t="str">
+        <v>ALI</v>
+      </c>
+      <c r="K16" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="L16" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B16,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B16,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C16),ISBLANK(B16)),"",VLOOKUP(C16,Deflatores!G$4:H$38,2,FALSE)*H16+VLOOKUP(C16,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -5677,34 +5918,42 @@
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="126"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="126" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="D17" s="7">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
       <c r="F17" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Baixa</v>
       </c>
       <c r="G17" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H17" s="5" t="str">
+        <v>CEL</v>
+      </c>
+      <c r="H17" s="5">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="I17" s="122" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J17" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K17" s="9" t="str">
+        <v>CE</v>
+      </c>
+      <c r="K17" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="L17" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B17,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B17,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C17),ISBLANK(B17)),"",VLOOKUP(C17,Deflatores!G$4:H$38,2,FALSE)*H17+VLOOKUP(C17,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -5715,34 +5964,42 @@
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="126"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="126" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="D18" s="7">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
       <c r="F18" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Baixa</v>
       </c>
       <c r="G18" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H18" s="5" t="str">
+        <v>EEL</v>
+      </c>
+      <c r="H18" s="5">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="I18" s="122" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J18" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K18" s="9" t="str">
+        <v>EE</v>
+      </c>
+      <c r="K18" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="L18" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B18,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B18,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C18),ISBLANK(B18)),"",VLOOKUP(C18,Deflatores!G$4:H$38,2,FALSE)*H18+VLOOKUP(C18,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -5753,34 +6010,42 @@
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="126"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="126" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="D19" s="7">
+        <v>4</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
       <c r="F19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Baixa</v>
       </c>
       <c r="G19" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H19" s="5" t="str">
+        <v>ALIL</v>
+      </c>
+      <c r="H19" s="5">
         <f t="shared" si="2"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="I19" s="122" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J19" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K19" s="9" t="str">
+        <v>ALI</v>
+      </c>
+      <c r="K19" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="L19" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B19,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B19,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C19),ISBLANK(B19)),"",VLOOKUP(C19,Deflatores!G$4:H$38,2,FALSE)*H19+VLOOKUP(C19,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -5791,34 +6056,42 @@
       <c r="O19" s="6"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="126"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="126" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="D20" s="7">
+        <v>4</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2</v>
+      </c>
       <c r="F20" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Baixa</v>
       </c>
       <c r="G20" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H20" s="5" t="str">
+        <v>CEL</v>
+      </c>
+      <c r="H20" s="5">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="I20" s="122" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J20" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K20" s="9" t="str">
+        <v>CE</v>
+      </c>
+      <c r="K20" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="L20" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B20,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B20,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C20),ISBLANK(B20)),"",VLOOKUP(C20,Deflatores!G$4:H$38,2,FALSE)*H20+VLOOKUP(C20,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -5829,34 +6102,42 @@
       <c r="O20" s="6"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="126"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="126" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="D21" s="7">
+        <v>4</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2</v>
+      </c>
       <c r="F21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(B21),"",IF(I21="L","Baixa",IF(I21="A","Média",IF(I21="","","Alta"))))</f>
+        <v>Baixa</v>
       </c>
       <c r="G21" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H21" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>CONCATENATE(B21,I21)</f>
+        <v>CEL</v>
+      </c>
+      <c r="H21" s="5">
+        <f>IF(ISBLANK(B21),"",IF(B21="ALI",IF(I21="L",7,IF(I21="A",10,15)),IF(B21="AIE",IF(I21="L",5,IF(I21="A",7,10)),IF(B21="SE",IF(I21="L",4,IF(I21="A",5,7)),IF(OR(B21="EE",B21="CE"),IF(I21="L",3,IF(I21="A",4,6)),0)))))</f>
+        <v>3</v>
       </c>
       <c r="I21" s="122" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(OR(ISBLANK(D21),ISBLANK(E21)),IF(OR(B21="ALI",B21="AIE"),"L",IF(OR(B21="EE",B21="SE",B21="CE"),"A","")),IF(B21="EE",IF(E21&gt;=3,IF(D21&gt;=5,"H","A"),IF(E21&gt;=2,IF(D21&gt;=16,"H",IF(D21&lt;=4,"L","A")),IF(D21&lt;=15,"L","A"))),IF(OR(B21="SE",B21="CE"),IF(E21&gt;=4,IF(D21&gt;=6,"H","A"),IF(E21&gt;=2,IF(D21&gt;=20,"H",IF(D21&lt;=5,"L","A")),IF(D21&lt;=19,"L","A"))),IF(OR(B21="ALI",B21="AIE"),IF(E21&gt;=6,IF(D21&gt;=20,"H","A"),IF(E21&gt;=2,IF(D21&gt;=51,"H",IF(D21&lt;=19,"L","A")),IF(D21&lt;=50,"L","A"))),""))))</f>
+        <v>L</v>
       </c>
       <c r="J21" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K21" s="9" t="str">
+        <f>CONCATENATE(B21,C21)</f>
+        <v>CE</v>
+      </c>
+      <c r="K21" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="L21" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B21,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B21,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C21),ISBLANK(B21)),"",VLOOKUP(C21,Deflatores!G$4:H$38,2,FALSE)*H21+VLOOKUP(C21,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -5867,34 +6148,42 @@
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="126"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="126" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="D22" s="7">
+        <v>4</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2</v>
+      </c>
       <c r="F22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(B22),"",IF(I22="L","Baixa",IF(I22="A","Média",IF(I22="","","Alta"))))</f>
+        <v>Baixa</v>
       </c>
       <c r="G22" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H22" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>CONCATENATE(B22,I22)</f>
+        <v>EEL</v>
+      </c>
+      <c r="H22" s="5">
+        <f>IF(ISBLANK(B22),"",IF(B22="ALI",IF(I22="L",7,IF(I22="A",10,15)),IF(B22="AIE",IF(I22="L",5,IF(I22="A",7,10)),IF(B22="SE",IF(I22="L",4,IF(I22="A",5,7)),IF(OR(B22="EE",B22="CE"),IF(I22="L",3,IF(I22="A",4,6)),0)))))</f>
+        <v>3</v>
       </c>
       <c r="I22" s="122" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(OR(ISBLANK(D22),ISBLANK(E22)),IF(OR(B22="ALI",B22="AIE"),"L",IF(OR(B22="EE",B22="SE",B22="CE"),"A","")),IF(B22="EE",IF(E22&gt;=3,IF(D22&gt;=5,"H","A"),IF(E22&gt;=2,IF(D22&gt;=16,"H",IF(D22&lt;=4,"L","A")),IF(D22&lt;=15,"L","A"))),IF(OR(B22="SE",B22="CE"),IF(E22&gt;=4,IF(D22&gt;=6,"H","A"),IF(E22&gt;=2,IF(D22&gt;=20,"H",IF(D22&lt;=5,"L","A")),IF(D22&lt;=19,"L","A"))),IF(OR(B22="ALI",B22="AIE"),IF(E22&gt;=6,IF(D22&gt;=20,"H","A"),IF(E22&gt;=2,IF(D22&gt;=51,"H",IF(D22&lt;=19,"L","A")),IF(D22&lt;=50,"L","A"))),""))))</f>
+        <v>L</v>
       </c>
       <c r="J22" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K22" s="9" t="str">
+        <f>CONCATENATE(B22,C22)</f>
+        <v>EE</v>
+      </c>
+      <c r="K22" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="L22" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B22,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B22,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C22),ISBLANK(B22)),"",VLOOKUP(C22,Deflatores!G$4:H$38,2,FALSE)*H22+VLOOKUP(C22,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -5905,34 +6194,42 @@
       <c r="O22" s="6"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="126"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="126" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="D23" s="7">
+        <v>3</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
       <c r="F23" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Baixa</v>
       </c>
       <c r="G23" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H23" s="5" t="str">
+        <v>ALIL</v>
+      </c>
+      <c r="H23" s="5">
         <f t="shared" si="2"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="I23" s="122" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J23" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K23" s="9" t="str">
+        <v>ALI</v>
+      </c>
+      <c r="K23" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="L23" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B23,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B23,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C23),ISBLANK(B23)),"",VLOOKUP(C23,Deflatores!G$4:H$38,2,FALSE)*H23+VLOOKUP(C23,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -5943,34 +6240,42 @@
       <c r="O23" s="6"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="126"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="126" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="D24" s="7">
+        <v>3</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1</v>
+      </c>
       <c r="F24" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Baixa</v>
       </c>
       <c r="G24" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H24" s="5" t="str">
+        <v>CEL</v>
+      </c>
+      <c r="H24" s="5">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="I24" s="122" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J24" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K24" s="9" t="str">
+        <v>CE</v>
+      </c>
+      <c r="K24" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="L24" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B24,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B24,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C24),ISBLANK(B24)),"",VLOOKUP(C24,Deflatores!G$4:H$38,2,FALSE)*H24+VLOOKUP(C24,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -5981,34 +6286,42 @@
       <c r="O24" s="6"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="126"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="126" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="D25" s="7">
+        <v>3</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1</v>
+      </c>
       <c r="F25" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Baixa</v>
       </c>
       <c r="G25" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H25" s="5" t="str">
+        <v>CEL</v>
+      </c>
+      <c r="H25" s="5">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="I25" s="122" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J25" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K25" s="9" t="str">
+        <v>CE</v>
+      </c>
+      <c r="K25" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="L25" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B25,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B25,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C25),ISBLANK(B25)),"",VLOOKUP(C25,Deflatores!G$4:H$38,2,FALSE)*H25+VLOOKUP(C25,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -6019,34 +6332,42 @@
       <c r="O25" s="6"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="126"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="126" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="D26" s="7">
+        <v>3</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1</v>
+      </c>
       <c r="F26" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Baixa</v>
       </c>
       <c r="G26" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H26" s="5" t="str">
+        <v>EEL</v>
+      </c>
+      <c r="H26" s="5">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="I26" s="122" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J26" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K26" s="9" t="str">
+        <v>EE</v>
+      </c>
+      <c r="K26" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="L26" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B26,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B26,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C26),ISBLANK(B26)),"",VLOOKUP(C26,Deflatores!G$4:H$38,2,FALSE)*H26+VLOOKUP(C26,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -6057,34 +6378,42 @@
       <c r="O26" s="6"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="126"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="126" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="D27" s="7">
+        <v>3</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1</v>
+      </c>
       <c r="F27" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Baixa</v>
       </c>
       <c r="G27" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H27" s="5" t="str">
+        <v>ALIL</v>
+      </c>
+      <c r="H27" s="5">
         <f t="shared" si="2"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="I27" s="122" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J27" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K27" s="9" t="str">
+        <v>ALI</v>
+      </c>
+      <c r="K27" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="L27" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B27,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B27,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C27),ISBLANK(B27)),"",VLOOKUP(C27,Deflatores!G$4:H$38,2,FALSE)*H27+VLOOKUP(C27,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -6095,34 +6424,42 @@
       <c r="O27" s="6"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="126"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="126" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="D28" s="7">
+        <v>3</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1</v>
+      </c>
       <c r="F28" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Baixa</v>
       </c>
       <c r="G28" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H28" s="5" t="str">
+        <v>CEL</v>
+      </c>
+      <c r="H28" s="5">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="I28" s="122" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J28" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K28" s="9" t="str">
+        <v>CE</v>
+      </c>
+      <c r="K28" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="L28" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B28,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B28,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C28),ISBLANK(B28)),"",VLOOKUP(C28,Deflatores!G$4:H$38,2,FALSE)*H28+VLOOKUP(C28,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -6133,34 +6470,42 @@
       <c r="O28" s="6"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="126"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="126" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="D29" s="7">
+        <v>3</v>
+      </c>
+      <c r="E29" s="7">
+        <v>2</v>
+      </c>
       <c r="F29" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Baixa</v>
       </c>
       <c r="G29" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H29" s="5" t="str">
+        <v>CEL</v>
+      </c>
+      <c r="H29" s="5">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="I29" s="122" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J29" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K29" s="9" t="str">
+        <v>CE</v>
+      </c>
+      <c r="K29" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="L29" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B29,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B29,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C29),ISBLANK(B29)),"",VLOOKUP(C29,Deflatores!G$4:H$38,2,FALSE)*H29+VLOOKUP(C29,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -6171,34 +6516,42 @@
       <c r="O29" s="6"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="126"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="126" t="s">
+        <v>196</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="D30" s="7">
+        <v>3</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1</v>
+      </c>
       <c r="F30" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(B30),"",IF(I30="L","Baixa",IF(I30="A","Média",IF(I30="","","Alta"))))</f>
+        <v>Baixa</v>
       </c>
       <c r="G30" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H30" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>CONCATENATE(B30,I30)</f>
+        <v>EEL</v>
+      </c>
+      <c r="H30" s="5">
+        <f>IF(ISBLANK(B30),"",IF(B30="ALI",IF(I30="L",7,IF(I30="A",10,15)),IF(B30="AIE",IF(I30="L",5,IF(I30="A",7,10)),IF(B30="SE",IF(I30="L",4,IF(I30="A",5,7)),IF(OR(B30="EE",B30="CE"),IF(I30="L",3,IF(I30="A",4,6)),0)))))</f>
+        <v>3</v>
       </c>
       <c r="I30" s="122" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(OR(ISBLANK(D30),ISBLANK(E30)),IF(OR(B30="ALI",B30="AIE"),"L",IF(OR(B30="EE",B30="SE",B30="CE"),"A","")),IF(B30="EE",IF(E30&gt;=3,IF(D30&gt;=5,"H","A"),IF(E30&gt;=2,IF(D30&gt;=16,"H",IF(D30&lt;=4,"L","A")),IF(D30&lt;=15,"L","A"))),IF(OR(B30="SE",B30="CE"),IF(E30&gt;=4,IF(D30&gt;=6,"H","A"),IF(E30&gt;=2,IF(D30&gt;=20,"H",IF(D30&lt;=5,"L","A")),IF(D30&lt;=19,"L","A"))),IF(OR(B30="ALI",B30="AIE"),IF(E30&gt;=6,IF(D30&gt;=20,"H","A"),IF(E30&gt;=2,IF(D30&gt;=51,"H",IF(D30&lt;=19,"L","A")),IF(D30&lt;=50,"L","A"))),""))))</f>
+        <v>L</v>
       </c>
       <c r="J30" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K30" s="9" t="str">
+        <f>CONCATENATE(B30,C30)</f>
+        <v>EE</v>
+      </c>
+      <c r="K30" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="L30" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B30,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B30,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C30),ISBLANK(B30)),"",VLOOKUP(C30,Deflatores!G$4:H$38,2,FALSE)*H30+VLOOKUP(C30,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -6209,34 +6562,42 @@
       <c r="O30" s="6"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="126"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="126" t="s">
+        <v>215</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="D31" s="7">
+        <v>7</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1</v>
+      </c>
       <c r="F31" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(B31),"",IF(I31="L","Baixa",IF(I31="A","Média",IF(I31="","","Alta"))))</f>
+        <v>Baixa</v>
       </c>
       <c r="G31" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H31" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>CONCATENATE(B31,I31)</f>
+        <v>ALIL</v>
+      </c>
+      <c r="H31" s="5">
+        <f>IF(ISBLANK(B31),"",IF(B31="ALI",IF(I31="L",7,IF(I31="A",10,15)),IF(B31="AIE",IF(I31="L",5,IF(I31="A",7,10)),IF(B31="SE",IF(I31="L",4,IF(I31="A",5,7)),IF(OR(B31="EE",B31="CE"),IF(I31="L",3,IF(I31="A",4,6)),0)))))</f>
+        <v>7</v>
       </c>
       <c r="I31" s="122" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(OR(ISBLANK(D31),ISBLANK(E31)),IF(OR(B31="ALI",B31="AIE"),"L",IF(OR(B31="EE",B31="SE",B31="CE"),"A","")),IF(B31="EE",IF(E31&gt;=3,IF(D31&gt;=5,"H","A"),IF(E31&gt;=2,IF(D31&gt;=16,"H",IF(D31&lt;=4,"L","A")),IF(D31&lt;=15,"L","A"))),IF(OR(B31="SE",B31="CE"),IF(E31&gt;=4,IF(D31&gt;=6,"H","A"),IF(E31&gt;=2,IF(D31&gt;=20,"H",IF(D31&lt;=5,"L","A")),IF(D31&lt;=19,"L","A"))),IF(OR(B31="ALI",B31="AIE"),IF(E31&gt;=6,IF(D31&gt;=20,"H","A"),IF(E31&gt;=2,IF(D31&gt;=51,"H",IF(D31&lt;=19,"L","A")),IF(D31&lt;=50,"L","A"))),""))))</f>
+        <v>L</v>
       </c>
       <c r="J31" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K31" s="9" t="str">
+        <f>CONCATENATE(B31,C31)</f>
+        <v>ALI</v>
+      </c>
+      <c r="K31" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="L31" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B31,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B31,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C31),ISBLANK(B31)),"",VLOOKUP(C31,Deflatores!G$4:H$38,2,FALSE)*H31+VLOOKUP(C31,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -6247,34 +6608,42 @@
       <c r="O31" s="6"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="126"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="126" t="s">
+        <v>220</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="D32" s="7">
+        <v>7</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1</v>
+      </c>
       <c r="F32" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(B32),"",IF(I32="L","Baixa",IF(I32="A","Média",IF(I32="","","Alta"))))</f>
+        <v>Baixa</v>
       </c>
       <c r="G32" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H32" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>CONCATENATE(B32,I32)</f>
+        <v>CEL</v>
+      </c>
+      <c r="H32" s="5">
+        <f>IF(ISBLANK(B32),"",IF(B32="ALI",IF(I32="L",7,IF(I32="A",10,15)),IF(B32="AIE",IF(I32="L",5,IF(I32="A",7,10)),IF(B32="SE",IF(I32="L",4,IF(I32="A",5,7)),IF(OR(B32="EE",B32="CE"),IF(I32="L",3,IF(I32="A",4,6)),0)))))</f>
+        <v>3</v>
       </c>
       <c r="I32" s="122" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(OR(ISBLANK(D32),ISBLANK(E32)),IF(OR(B32="ALI",B32="AIE"),"L",IF(OR(B32="EE",B32="SE",B32="CE"),"A","")),IF(B32="EE",IF(E32&gt;=3,IF(D32&gt;=5,"H","A"),IF(E32&gt;=2,IF(D32&gt;=16,"H",IF(D32&lt;=4,"L","A")),IF(D32&lt;=15,"L","A"))),IF(OR(B32="SE",B32="CE"),IF(E32&gt;=4,IF(D32&gt;=6,"H","A"),IF(E32&gt;=2,IF(D32&gt;=20,"H",IF(D32&lt;=5,"L","A")),IF(D32&lt;=19,"L","A"))),IF(OR(B32="ALI",B32="AIE"),IF(E32&gt;=6,IF(D32&gt;=20,"H","A"),IF(E32&gt;=2,IF(D32&gt;=51,"H",IF(D32&lt;=19,"L","A")),IF(D32&lt;=50,"L","A"))),""))))</f>
+        <v>L</v>
       </c>
       <c r="J32" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K32" s="9" t="str">
+        <f>CONCATENATE(B32,C32)</f>
+        <v>CE</v>
+      </c>
+      <c r="K32" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="L32" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B32,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B32,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C32),ISBLANK(B32)),"",VLOOKUP(C32,Deflatores!G$4:H$38,2,FALSE)*H32+VLOOKUP(C32,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -6285,34 +6654,42 @@
       <c r="O32" s="6"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="126"/>
-      <c r="B33" s="4"/>
+      <c r="A33" s="126" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="D33" s="7">
+        <v>7</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1</v>
+      </c>
       <c r="F33" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(B33),"",IF(I33="L","Baixa",IF(I33="A","Média",IF(I33="","","Alta"))))</f>
+        <v>Baixa</v>
       </c>
       <c r="G33" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H33" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>CONCATENATE(B33,I33)</f>
+        <v>CEL</v>
+      </c>
+      <c r="H33" s="5">
+        <f>IF(ISBLANK(B33),"",IF(B33="ALI",IF(I33="L",7,IF(I33="A",10,15)),IF(B33="AIE",IF(I33="L",5,IF(I33="A",7,10)),IF(B33="SE",IF(I33="L",4,IF(I33="A",5,7)),IF(OR(B33="EE",B33="CE"),IF(I33="L",3,IF(I33="A",4,6)),0)))))</f>
+        <v>3</v>
       </c>
       <c r="I33" s="122" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(OR(ISBLANK(D33),ISBLANK(E33)),IF(OR(B33="ALI",B33="AIE"),"L",IF(OR(B33="EE",B33="SE",B33="CE"),"A","")),IF(B33="EE",IF(E33&gt;=3,IF(D33&gt;=5,"H","A"),IF(E33&gt;=2,IF(D33&gt;=16,"H",IF(D33&lt;=4,"L","A")),IF(D33&lt;=15,"L","A"))),IF(OR(B33="SE",B33="CE"),IF(E33&gt;=4,IF(D33&gt;=6,"H","A"),IF(E33&gt;=2,IF(D33&gt;=20,"H",IF(D33&lt;=5,"L","A")),IF(D33&lt;=19,"L","A"))),IF(OR(B33="ALI",B33="AIE"),IF(E33&gt;=6,IF(D33&gt;=20,"H","A"),IF(E33&gt;=2,IF(D33&gt;=51,"H",IF(D33&lt;=19,"L","A")),IF(D33&lt;=50,"L","A"))),""))))</f>
+        <v>L</v>
       </c>
       <c r="J33" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K33" s="9" t="str">
+        <f>CONCATENATE(B33,C33)</f>
+        <v>CE</v>
+      </c>
+      <c r="K33" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="L33" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B33,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B33,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C33),ISBLANK(B33)),"",VLOOKUP(C33,Deflatores!G$4:H$38,2,FALSE)*H33+VLOOKUP(C33,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -6323,34 +6700,42 @@
       <c r="O33" s="6"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="126"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="126" t="s">
+        <v>222</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="D34" s="7">
+        <v>7</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1</v>
+      </c>
       <c r="F34" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(B34),"",IF(I34="L","Baixa",IF(I34="A","Média",IF(I34="","","Alta"))))</f>
+        <v>Baixa</v>
       </c>
       <c r="G34" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H34" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>CONCATENATE(B34,I34)</f>
+        <v>EEL</v>
+      </c>
+      <c r="H34" s="5">
+        <f>IF(ISBLANK(B34),"",IF(B34="ALI",IF(I34="L",7,IF(I34="A",10,15)),IF(B34="AIE",IF(I34="L",5,IF(I34="A",7,10)),IF(B34="SE",IF(I34="L",4,IF(I34="A",5,7)),IF(OR(B34="EE",B34="CE"),IF(I34="L",3,IF(I34="A",4,6)),0)))))</f>
+        <v>3</v>
       </c>
       <c r="I34" s="122" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(OR(ISBLANK(D34),ISBLANK(E34)),IF(OR(B34="ALI",B34="AIE"),"L",IF(OR(B34="EE",B34="SE",B34="CE"),"A","")),IF(B34="EE",IF(E34&gt;=3,IF(D34&gt;=5,"H","A"),IF(E34&gt;=2,IF(D34&gt;=16,"H",IF(D34&lt;=4,"L","A")),IF(D34&lt;=15,"L","A"))),IF(OR(B34="SE",B34="CE"),IF(E34&gt;=4,IF(D34&gt;=6,"H","A"),IF(E34&gt;=2,IF(D34&gt;=20,"H",IF(D34&lt;=5,"L","A")),IF(D34&lt;=19,"L","A"))),IF(OR(B34="ALI",B34="AIE"),IF(E34&gt;=6,IF(D34&gt;=20,"H","A"),IF(E34&gt;=2,IF(D34&gt;=51,"H",IF(D34&lt;=19,"L","A")),IF(D34&lt;=50,"L","A"))),""))))</f>
+        <v>L</v>
       </c>
       <c r="J34" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K34" s="9" t="str">
+        <f>CONCATENATE(B34,C34)</f>
+        <v>EE</v>
+      </c>
+      <c r="K34" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="L34" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B34,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B34,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C34),ISBLANK(B34)),"",VLOOKUP(C34,Deflatores!G$4:H$38,2,FALSE)*H34+VLOOKUP(C34,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -6361,34 +6746,42 @@
       <c r="O34" s="6"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="126"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="126" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="D35" s="7">
+        <v>4</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1</v>
+      </c>
       <c r="F35" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(B35),"",IF(I35="L","Baixa",IF(I35="A","Média",IF(I35="","","Alta"))))</f>
+        <v>Baixa</v>
       </c>
       <c r="G35" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H35" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>CONCATENATE(B35,I35)</f>
+        <v>ALIL</v>
+      </c>
+      <c r="H35" s="5">
+        <f>IF(ISBLANK(B35),"",IF(B35="ALI",IF(I35="L",7,IF(I35="A",10,15)),IF(B35="AIE",IF(I35="L",5,IF(I35="A",7,10)),IF(B35="SE",IF(I35="L",4,IF(I35="A",5,7)),IF(OR(B35="EE",B35="CE"),IF(I35="L",3,IF(I35="A",4,6)),0)))))</f>
+        <v>7</v>
       </c>
       <c r="I35" s="122" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(OR(ISBLANK(D35),ISBLANK(E35)),IF(OR(B35="ALI",B35="AIE"),"L",IF(OR(B35="EE",B35="SE",B35="CE"),"A","")),IF(B35="EE",IF(E35&gt;=3,IF(D35&gt;=5,"H","A"),IF(E35&gt;=2,IF(D35&gt;=16,"H",IF(D35&lt;=4,"L","A")),IF(D35&lt;=15,"L","A"))),IF(OR(B35="SE",B35="CE"),IF(E35&gt;=4,IF(D35&gt;=6,"H","A"),IF(E35&gt;=2,IF(D35&gt;=20,"H",IF(D35&lt;=5,"L","A")),IF(D35&lt;=19,"L","A"))),IF(OR(B35="ALI",B35="AIE"),IF(E35&gt;=6,IF(D35&gt;=20,"H","A"),IF(E35&gt;=2,IF(D35&gt;=51,"H",IF(D35&lt;=19,"L","A")),IF(D35&lt;=50,"L","A"))),""))))</f>
+        <v>L</v>
       </c>
       <c r="J35" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K35" s="9" t="str">
+        <f>CONCATENATE(B35,C35)</f>
+        <v>ALI</v>
+      </c>
+      <c r="K35" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="L35" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B35,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B35,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C35),ISBLANK(B35)),"",VLOOKUP(C35,Deflatores!G$4:H$38,2,FALSE)*H35+VLOOKUP(C35,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -6399,34 +6792,42 @@
       <c r="O35" s="6"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="126"/>
-      <c r="B36" s="4"/>
+      <c r="A36" s="126" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="D36" s="7">
+        <v>4</v>
+      </c>
+      <c r="E36" s="7">
+        <v>4</v>
+      </c>
       <c r="F36" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(B36),"",IF(I36="L","Baixa",IF(I36="A","Média",IF(I36="","","Alta"))))</f>
+        <v>Média</v>
       </c>
       <c r="G36" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H36" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>CONCATENATE(B36,I36)</f>
+        <v>CEA</v>
+      </c>
+      <c r="H36" s="5">
+        <f>IF(ISBLANK(B36),"",IF(B36="ALI",IF(I36="L",7,IF(I36="A",10,15)),IF(B36="AIE",IF(I36="L",5,IF(I36="A",7,10)),IF(B36="SE",IF(I36="L",4,IF(I36="A",5,7)),IF(OR(B36="EE",B36="CE"),IF(I36="L",3,IF(I36="A",4,6)),0)))))</f>
+        <v>4</v>
       </c>
       <c r="I36" s="122" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(OR(ISBLANK(D36),ISBLANK(E36)),IF(OR(B36="ALI",B36="AIE"),"L",IF(OR(B36="EE",B36="SE",B36="CE"),"A","")),IF(B36="EE",IF(E36&gt;=3,IF(D36&gt;=5,"H","A"),IF(E36&gt;=2,IF(D36&gt;=16,"H",IF(D36&lt;=4,"L","A")),IF(D36&lt;=15,"L","A"))),IF(OR(B36="SE",B36="CE"),IF(E36&gt;=4,IF(D36&gt;=6,"H","A"),IF(E36&gt;=2,IF(D36&gt;=20,"H",IF(D36&lt;=5,"L","A")),IF(D36&lt;=19,"L","A"))),IF(OR(B36="ALI",B36="AIE"),IF(E36&gt;=6,IF(D36&gt;=20,"H","A"),IF(E36&gt;=2,IF(D36&gt;=51,"H",IF(D36&lt;=19,"L","A")),IF(D36&lt;=50,"L","A"))),""))))</f>
+        <v>A</v>
       </c>
       <c r="J36" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K36" s="9" t="str">
+        <f>CONCATENATE(B36,C36)</f>
+        <v>CE</v>
+      </c>
+      <c r="K36" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="L36" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B36,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B36,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C36),ISBLANK(B36)),"",VLOOKUP(C36,Deflatores!G$4:H$38,2,FALSE)*H36+VLOOKUP(C36,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -6437,34 +6838,42 @@
       <c r="O36" s="6"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="126"/>
-      <c r="B37" s="4"/>
+      <c r="A37" s="126" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="D37" s="7">
+        <v>7</v>
+      </c>
+      <c r="E37" s="7">
+        <v>4</v>
+      </c>
       <c r="F37" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(B37),"",IF(I37="L","Baixa",IF(I37="A","Média",IF(I37="","","Alta"))))</f>
+        <v>Alta</v>
       </c>
       <c r="G37" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H37" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>CONCATENATE(B37,I37)</f>
+        <v>CEH</v>
+      </c>
+      <c r="H37" s="5">
+        <f>IF(ISBLANK(B37),"",IF(B37="ALI",IF(I37="L",7,IF(I37="A",10,15)),IF(B37="AIE",IF(I37="L",5,IF(I37="A",7,10)),IF(B37="SE",IF(I37="L",4,IF(I37="A",5,7)),IF(OR(B37="EE",B37="CE"),IF(I37="L",3,IF(I37="A",4,6)),0)))))</f>
+        <v>6</v>
       </c>
       <c r="I37" s="122" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(OR(ISBLANK(D37),ISBLANK(E37)),IF(OR(B37="ALI",B37="AIE"),"L",IF(OR(B37="EE",B37="SE",B37="CE"),"A","")),IF(B37="EE",IF(E37&gt;=3,IF(D37&gt;=5,"H","A"),IF(E37&gt;=2,IF(D37&gt;=16,"H",IF(D37&lt;=4,"L","A")),IF(D37&lt;=15,"L","A"))),IF(OR(B37="SE",B37="CE"),IF(E37&gt;=4,IF(D37&gt;=6,"H","A"),IF(E37&gt;=2,IF(D37&gt;=20,"H",IF(D37&lt;=5,"L","A")),IF(D37&lt;=19,"L","A"))),IF(OR(B37="ALI",B37="AIE"),IF(E37&gt;=6,IF(D37&gt;=20,"H","A"),IF(E37&gt;=2,IF(D37&gt;=51,"H",IF(D37&lt;=19,"L","A")),IF(D37&lt;=50,"L","A"))),""))))</f>
+        <v>H</v>
       </c>
       <c r="J37" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K37" s="9" t="str">
+        <f>CONCATENATE(B37,C37)</f>
+        <v>CE</v>
+      </c>
+      <c r="K37" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="L37" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B37,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B37,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C37),ISBLANK(B37)),"",VLOOKUP(C37,Deflatores!G$4:H$38,2,FALSE)*H37+VLOOKUP(C37,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -6475,34 +6884,42 @@
       <c r="O37" s="6"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="126"/>
-      <c r="B38" s="4"/>
+      <c r="A38" s="126" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+      <c r="D38" s="7">
+        <v>7</v>
+      </c>
+      <c r="E38" s="7">
+        <v>2</v>
+      </c>
       <c r="F38" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(B38),"",IF(I38="L","Baixa",IF(I38="A","Média",IF(I38="","","Alta"))))</f>
+        <v>Média</v>
       </c>
       <c r="G38" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H38" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>CONCATENATE(B38,I38)</f>
+        <v>EEA</v>
+      </c>
+      <c r="H38" s="5">
+        <f>IF(ISBLANK(B38),"",IF(B38="ALI",IF(I38="L",7,IF(I38="A",10,15)),IF(B38="AIE",IF(I38="L",5,IF(I38="A",7,10)),IF(B38="SE",IF(I38="L",4,IF(I38="A",5,7)),IF(OR(B38="EE",B38="CE"),IF(I38="L",3,IF(I38="A",4,6)),0)))))</f>
+        <v>4</v>
       </c>
       <c r="I38" s="122" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(OR(ISBLANK(D38),ISBLANK(E38)),IF(OR(B38="ALI",B38="AIE"),"L",IF(OR(B38="EE",B38="SE",B38="CE"),"A","")),IF(B38="EE",IF(E38&gt;=3,IF(D38&gt;=5,"H","A"),IF(E38&gt;=2,IF(D38&gt;=16,"H",IF(D38&lt;=4,"L","A")),IF(D38&lt;=15,"L","A"))),IF(OR(B38="SE",B38="CE"),IF(E38&gt;=4,IF(D38&gt;=6,"H","A"),IF(E38&gt;=2,IF(D38&gt;=20,"H",IF(D38&lt;=5,"L","A")),IF(D38&lt;=19,"L","A"))),IF(OR(B38="ALI",B38="AIE"),IF(E38&gt;=6,IF(D38&gt;=20,"H","A"),IF(E38&gt;=2,IF(D38&gt;=51,"H",IF(D38&lt;=19,"L","A")),IF(D38&lt;=50,"L","A"))),""))))</f>
+        <v>A</v>
       </c>
       <c r="J38" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K38" s="9" t="str">
+        <f>CONCATENATE(B38,C38)</f>
+        <v>EE</v>
+      </c>
+      <c r="K38" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="L38" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B38,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B38,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C38),ISBLANK(B38)),"",VLOOKUP(C38,Deflatores!G$4:H$38,2,FALSE)*H38+VLOOKUP(C38,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -6513,34 +6930,42 @@
       <c r="O38" s="6"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="126"/>
-      <c r="B39" s="4"/>
+      <c r="A39" s="126" t="s">
+        <v>200</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="D39" s="7">
+        <v>2</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1</v>
+      </c>
       <c r="F39" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(B39),"",IF(I39="L","Baixa",IF(I39="A","Média",IF(I39="","","Alta"))))</f>
+        <v>Baixa</v>
       </c>
       <c r="G39" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H39" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>CONCATENATE(B39,I39)</f>
+        <v>ALIL</v>
+      </c>
+      <c r="H39" s="5">
+        <f>IF(ISBLANK(B39),"",IF(B39="ALI",IF(I39="L",7,IF(I39="A",10,15)),IF(B39="AIE",IF(I39="L",5,IF(I39="A",7,10)),IF(B39="SE",IF(I39="L",4,IF(I39="A",5,7)),IF(OR(B39="EE",B39="CE"),IF(I39="L",3,IF(I39="A",4,6)),0)))))</f>
+        <v>7</v>
       </c>
       <c r="I39" s="122" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(OR(ISBLANK(D39),ISBLANK(E39)),IF(OR(B39="ALI",B39="AIE"),"L",IF(OR(B39="EE",B39="SE",B39="CE"),"A","")),IF(B39="EE",IF(E39&gt;=3,IF(D39&gt;=5,"H","A"),IF(E39&gt;=2,IF(D39&gt;=16,"H",IF(D39&lt;=4,"L","A")),IF(D39&lt;=15,"L","A"))),IF(OR(B39="SE",B39="CE"),IF(E39&gt;=4,IF(D39&gt;=6,"H","A"),IF(E39&gt;=2,IF(D39&gt;=20,"H",IF(D39&lt;=5,"L","A")),IF(D39&lt;=19,"L","A"))),IF(OR(B39="ALI",B39="AIE"),IF(E39&gt;=6,IF(D39&gt;=20,"H","A"),IF(E39&gt;=2,IF(D39&gt;=51,"H",IF(D39&lt;=19,"L","A")),IF(D39&lt;=50,"L","A"))),""))))</f>
+        <v>L</v>
       </c>
       <c r="J39" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K39" s="9" t="str">
+        <f>CONCATENATE(B39,C39)</f>
+        <v>ALI</v>
+      </c>
+      <c r="K39" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="L39" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B39,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B39,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C39),ISBLANK(B39)),"",VLOOKUP(C39,Deflatores!G$4:H$38,2,FALSE)*H39+VLOOKUP(C39,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -6551,34 +6976,42 @@
       <c r="O39" s="6"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="126"/>
-      <c r="B40" s="4"/>
+      <c r="A40" s="126" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="D40" s="7">
+        <v>2</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1</v>
+      </c>
       <c r="F40" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(B40),"",IF(I40="L","Baixa",IF(I40="A","Média",IF(I40="","","Alta"))))</f>
+        <v>Baixa</v>
       </c>
       <c r="G40" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H40" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>CONCATENATE(B40,I40)</f>
+        <v>CEL</v>
+      </c>
+      <c r="H40" s="5">
+        <f>IF(ISBLANK(B40),"",IF(B40="ALI",IF(I40="L",7,IF(I40="A",10,15)),IF(B40="AIE",IF(I40="L",5,IF(I40="A",7,10)),IF(B40="SE",IF(I40="L",4,IF(I40="A",5,7)),IF(OR(B40="EE",B40="CE"),IF(I40="L",3,IF(I40="A",4,6)),0)))))</f>
+        <v>3</v>
       </c>
       <c r="I40" s="122" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(OR(ISBLANK(D40),ISBLANK(E40)),IF(OR(B40="ALI",B40="AIE"),"L",IF(OR(B40="EE",B40="SE",B40="CE"),"A","")),IF(B40="EE",IF(E40&gt;=3,IF(D40&gt;=5,"H","A"),IF(E40&gt;=2,IF(D40&gt;=16,"H",IF(D40&lt;=4,"L","A")),IF(D40&lt;=15,"L","A"))),IF(OR(B40="SE",B40="CE"),IF(E40&gt;=4,IF(D40&gt;=6,"H","A"),IF(E40&gt;=2,IF(D40&gt;=20,"H",IF(D40&lt;=5,"L","A")),IF(D40&lt;=19,"L","A"))),IF(OR(B40="ALI",B40="AIE"),IF(E40&gt;=6,IF(D40&gt;=20,"H","A"),IF(E40&gt;=2,IF(D40&gt;=51,"H",IF(D40&lt;=19,"L","A")),IF(D40&lt;=50,"L","A"))),""))))</f>
+        <v>L</v>
       </c>
       <c r="J40" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K40" s="9" t="str">
+        <f>CONCATENATE(B40,C40)</f>
+        <v>CE</v>
+      </c>
+      <c r="K40" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="L40" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B40,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B40,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C40),ISBLANK(B40)),"",VLOOKUP(C40,Deflatores!G$4:H$38,2,FALSE)*H40+VLOOKUP(C40,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -6589,34 +7022,42 @@
       <c r="O40" s="6"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="126"/>
-      <c r="B41" s="4"/>
+      <c r="A41" s="126" t="s">
+        <v>202</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="D41" s="7">
+        <v>2</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1</v>
+      </c>
       <c r="F41" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(B41),"",IF(I41="L","Baixa",IF(I41="A","Média",IF(I41="","","Alta"))))</f>
+        <v>Baixa</v>
       </c>
       <c r="G41" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H41" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>CONCATENATE(B41,I41)</f>
+        <v>CEL</v>
+      </c>
+      <c r="H41" s="5">
+        <f>IF(ISBLANK(B41),"",IF(B41="ALI",IF(I41="L",7,IF(I41="A",10,15)),IF(B41="AIE",IF(I41="L",5,IF(I41="A",7,10)),IF(B41="SE",IF(I41="L",4,IF(I41="A",5,7)),IF(OR(B41="EE",B41="CE"),IF(I41="L",3,IF(I41="A",4,6)),0)))))</f>
+        <v>3</v>
       </c>
       <c r="I41" s="122" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(OR(ISBLANK(D41),ISBLANK(E41)),IF(OR(B41="ALI",B41="AIE"),"L",IF(OR(B41="EE",B41="SE",B41="CE"),"A","")),IF(B41="EE",IF(E41&gt;=3,IF(D41&gt;=5,"H","A"),IF(E41&gt;=2,IF(D41&gt;=16,"H",IF(D41&lt;=4,"L","A")),IF(D41&lt;=15,"L","A"))),IF(OR(B41="SE",B41="CE"),IF(E41&gt;=4,IF(D41&gt;=6,"H","A"),IF(E41&gt;=2,IF(D41&gt;=20,"H",IF(D41&lt;=5,"L","A")),IF(D41&lt;=19,"L","A"))),IF(OR(B41="ALI",B41="AIE"),IF(E41&gt;=6,IF(D41&gt;=20,"H","A"),IF(E41&gt;=2,IF(D41&gt;=51,"H",IF(D41&lt;=19,"L","A")),IF(D41&lt;=50,"L","A"))),""))))</f>
+        <v>L</v>
       </c>
       <c r="J41" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K41" s="9" t="str">
+        <f>CONCATENATE(B41,C41)</f>
+        <v>CE</v>
+      </c>
+      <c r="K41" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="L41" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B41,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B41,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C41),ISBLANK(B41)),"",VLOOKUP(C41,Deflatores!G$4:H$38,2,FALSE)*H41+VLOOKUP(C41,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -6627,34 +7068,42 @@
       <c r="O41" s="6"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="126"/>
-      <c r="B42" s="4"/>
+      <c r="A42" s="126" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+      <c r="D42" s="7">
+        <v>2</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1</v>
+      </c>
       <c r="F42" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(B42),"",IF(I42="L","Baixa",IF(I42="A","Média",IF(I42="","","Alta"))))</f>
+        <v>Baixa</v>
       </c>
       <c r="G42" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H42" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>CONCATENATE(B42,I42)</f>
+        <v>EEL</v>
+      </c>
+      <c r="H42" s="5">
+        <f>IF(ISBLANK(B42),"",IF(B42="ALI",IF(I42="L",7,IF(I42="A",10,15)),IF(B42="AIE",IF(I42="L",5,IF(I42="A",7,10)),IF(B42="SE",IF(I42="L",4,IF(I42="A",5,7)),IF(OR(B42="EE",B42="CE"),IF(I42="L",3,IF(I42="A",4,6)),0)))))</f>
+        <v>3</v>
       </c>
       <c r="I42" s="122" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(OR(ISBLANK(D42),ISBLANK(E42)),IF(OR(B42="ALI",B42="AIE"),"L",IF(OR(B42="EE",B42="SE",B42="CE"),"A","")),IF(B42="EE",IF(E42&gt;=3,IF(D42&gt;=5,"H","A"),IF(E42&gt;=2,IF(D42&gt;=16,"H",IF(D42&lt;=4,"L","A")),IF(D42&lt;=15,"L","A"))),IF(OR(B42="SE",B42="CE"),IF(E42&gt;=4,IF(D42&gt;=6,"H","A"),IF(E42&gt;=2,IF(D42&gt;=20,"H",IF(D42&lt;=5,"L","A")),IF(D42&lt;=19,"L","A"))),IF(OR(B42="ALI",B42="AIE"),IF(E42&gt;=6,IF(D42&gt;=20,"H","A"),IF(E42&gt;=2,IF(D42&gt;=51,"H",IF(D42&lt;=19,"L","A")),IF(D42&lt;=50,"L","A"))),""))))</f>
+        <v>L</v>
       </c>
       <c r="J42" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K42" s="9" t="str">
+        <f>CONCATENATE(B42,C42)</f>
+        <v>EE</v>
+      </c>
+      <c r="K42" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="L42" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B42,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B42,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C42),ISBLANK(B42)),"",VLOOKUP(C42,Deflatores!G$4:H$38,2,FALSE)*H42+VLOOKUP(C42,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -6665,34 +7114,42 @@
       <c r="O42" s="6"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="126"/>
-      <c r="B43" s="4"/>
+      <c r="A43" s="126" t="s">
+        <v>204</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="D43" s="7">
+        <v>3</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1</v>
+      </c>
       <c r="F43" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(B43),"",IF(I43="L","Baixa",IF(I43="A","Média",IF(I43="","","Alta"))))</f>
+        <v>Baixa</v>
       </c>
       <c r="G43" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H43" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>CONCATENATE(B43,I43)</f>
+        <v>ALIL</v>
+      </c>
+      <c r="H43" s="5">
+        <f>IF(ISBLANK(B43),"",IF(B43="ALI",IF(I43="L",7,IF(I43="A",10,15)),IF(B43="AIE",IF(I43="L",5,IF(I43="A",7,10)),IF(B43="SE",IF(I43="L",4,IF(I43="A",5,7)),IF(OR(B43="EE",B43="CE"),IF(I43="L",3,IF(I43="A",4,6)),0)))))</f>
+        <v>7</v>
       </c>
       <c r="I43" s="122" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(OR(ISBLANK(D43),ISBLANK(E43)),IF(OR(B43="ALI",B43="AIE"),"L",IF(OR(B43="EE",B43="SE",B43="CE"),"A","")),IF(B43="EE",IF(E43&gt;=3,IF(D43&gt;=5,"H","A"),IF(E43&gt;=2,IF(D43&gt;=16,"H",IF(D43&lt;=4,"L","A")),IF(D43&lt;=15,"L","A"))),IF(OR(B43="SE",B43="CE"),IF(E43&gt;=4,IF(D43&gt;=6,"H","A"),IF(E43&gt;=2,IF(D43&gt;=20,"H",IF(D43&lt;=5,"L","A")),IF(D43&lt;=19,"L","A"))),IF(OR(B43="ALI",B43="AIE"),IF(E43&gt;=6,IF(D43&gt;=20,"H","A"),IF(E43&gt;=2,IF(D43&gt;=51,"H",IF(D43&lt;=19,"L","A")),IF(D43&lt;=50,"L","A"))),""))))</f>
+        <v>L</v>
       </c>
       <c r="J43" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K43" s="9" t="str">
+        <f>CONCATENATE(B43,C43)</f>
+        <v>ALI</v>
+      </c>
+      <c r="K43" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="L43" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B43,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B43,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C43),ISBLANK(B43)),"",VLOOKUP(C43,Deflatores!G$4:H$38,2,FALSE)*H43+VLOOKUP(C43,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -6703,34 +7160,42 @@
       <c r="O43" s="6"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="126"/>
-      <c r="B44" s="4"/>
+      <c r="A44" s="126" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
+      <c r="D44" s="7">
+        <v>3</v>
+      </c>
+      <c r="E44" s="7">
+        <v>2</v>
+      </c>
       <c r="F44" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(B44),"",IF(I44="L","Baixa",IF(I44="A","Média",IF(I44="","","Alta"))))</f>
+        <v>Baixa</v>
       </c>
       <c r="G44" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H44" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>CONCATENATE(B44,I44)</f>
+        <v>CEL</v>
+      </c>
+      <c r="H44" s="5">
+        <f>IF(ISBLANK(B44),"",IF(B44="ALI",IF(I44="L",7,IF(I44="A",10,15)),IF(B44="AIE",IF(I44="L",5,IF(I44="A",7,10)),IF(B44="SE",IF(I44="L",4,IF(I44="A",5,7)),IF(OR(B44="EE",B44="CE"),IF(I44="L",3,IF(I44="A",4,6)),0)))))</f>
+        <v>3</v>
       </c>
       <c r="I44" s="122" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(OR(ISBLANK(D44),ISBLANK(E44)),IF(OR(B44="ALI",B44="AIE"),"L",IF(OR(B44="EE",B44="SE",B44="CE"),"A","")),IF(B44="EE",IF(E44&gt;=3,IF(D44&gt;=5,"H","A"),IF(E44&gt;=2,IF(D44&gt;=16,"H",IF(D44&lt;=4,"L","A")),IF(D44&lt;=15,"L","A"))),IF(OR(B44="SE",B44="CE"),IF(E44&gt;=4,IF(D44&gt;=6,"H","A"),IF(E44&gt;=2,IF(D44&gt;=20,"H",IF(D44&lt;=5,"L","A")),IF(D44&lt;=19,"L","A"))),IF(OR(B44="ALI",B44="AIE"),IF(E44&gt;=6,IF(D44&gt;=20,"H","A"),IF(E44&gt;=2,IF(D44&gt;=51,"H",IF(D44&lt;=19,"L","A")),IF(D44&lt;=50,"L","A"))),""))))</f>
+        <v>L</v>
       </c>
       <c r="J44" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K44" s="9" t="str">
+        <f>CONCATENATE(B44,C44)</f>
+        <v>CE</v>
+      </c>
+      <c r="K44" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="L44" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B44,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B44,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C44),ISBLANK(B44)),"",VLOOKUP(C44,Deflatores!G$4:H$38,2,FALSE)*H44+VLOOKUP(C44,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -6741,34 +7206,42 @@
       <c r="O44" s="6"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="126"/>
-      <c r="B45" s="4"/>
+      <c r="A45" s="126" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="D45" s="7">
+        <v>3</v>
+      </c>
+      <c r="E45" s="7">
+        <v>3</v>
+      </c>
       <c r="F45" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(B45),"",IF(I45="L","Baixa",IF(I45="A","Média",IF(I45="","","Alta"))))</f>
+        <v>Baixa</v>
       </c>
       <c r="G45" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H45" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>CONCATENATE(B45,I45)</f>
+        <v>CEL</v>
+      </c>
+      <c r="H45" s="5">
+        <f>IF(ISBLANK(B45),"",IF(B45="ALI",IF(I45="L",7,IF(I45="A",10,15)),IF(B45="AIE",IF(I45="L",5,IF(I45="A",7,10)),IF(B45="SE",IF(I45="L",4,IF(I45="A",5,7)),IF(OR(B45="EE",B45="CE"),IF(I45="L",3,IF(I45="A",4,6)),0)))))</f>
+        <v>3</v>
       </c>
       <c r="I45" s="122" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(OR(ISBLANK(D45),ISBLANK(E45)),IF(OR(B45="ALI",B45="AIE"),"L",IF(OR(B45="EE",B45="SE",B45="CE"),"A","")),IF(B45="EE",IF(E45&gt;=3,IF(D45&gt;=5,"H","A"),IF(E45&gt;=2,IF(D45&gt;=16,"H",IF(D45&lt;=4,"L","A")),IF(D45&lt;=15,"L","A"))),IF(OR(B45="SE",B45="CE"),IF(E45&gt;=4,IF(D45&gt;=6,"H","A"),IF(E45&gt;=2,IF(D45&gt;=20,"H",IF(D45&lt;=5,"L","A")),IF(D45&lt;=19,"L","A"))),IF(OR(B45="ALI",B45="AIE"),IF(E45&gt;=6,IF(D45&gt;=20,"H","A"),IF(E45&gt;=2,IF(D45&gt;=51,"H",IF(D45&lt;=19,"L","A")),IF(D45&lt;=50,"L","A"))),""))))</f>
+        <v>L</v>
       </c>
       <c r="J45" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K45" s="9" t="str">
+        <f>CONCATENATE(B45,C45)</f>
+        <v>CE</v>
+      </c>
+      <c r="K45" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="L45" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B45,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B45,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C45),ISBLANK(B45)),"",VLOOKUP(C45,Deflatores!G$4:H$38,2,FALSE)*H45+VLOOKUP(C45,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -6779,34 +7252,42 @@
       <c r="O45" s="6"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="126"/>
-      <c r="B46" s="4"/>
+      <c r="A46" s="126" t="s">
+        <v>207</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
+      <c r="D46" s="7">
+        <v>3</v>
+      </c>
+      <c r="E46" s="7">
+        <v>1</v>
+      </c>
       <c r="F46" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(B46),"",IF(I46="L","Baixa",IF(I46="A","Média",IF(I46="","","Alta"))))</f>
+        <v>Baixa</v>
       </c>
       <c r="G46" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H46" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>CONCATENATE(B46,I46)</f>
+        <v>EEL</v>
+      </c>
+      <c r="H46" s="5">
+        <f>IF(ISBLANK(B46),"",IF(B46="ALI",IF(I46="L",7,IF(I46="A",10,15)),IF(B46="AIE",IF(I46="L",5,IF(I46="A",7,10)),IF(B46="SE",IF(I46="L",4,IF(I46="A",5,7)),IF(OR(B46="EE",B46="CE"),IF(I46="L",3,IF(I46="A",4,6)),0)))))</f>
+        <v>3</v>
       </c>
       <c r="I46" s="122" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(OR(ISBLANK(D46),ISBLANK(E46)),IF(OR(B46="ALI",B46="AIE"),"L",IF(OR(B46="EE",B46="SE",B46="CE"),"A","")),IF(B46="EE",IF(E46&gt;=3,IF(D46&gt;=5,"H","A"),IF(E46&gt;=2,IF(D46&gt;=16,"H",IF(D46&lt;=4,"L","A")),IF(D46&lt;=15,"L","A"))),IF(OR(B46="SE",B46="CE"),IF(E46&gt;=4,IF(D46&gt;=6,"H","A"),IF(E46&gt;=2,IF(D46&gt;=20,"H",IF(D46&lt;=5,"L","A")),IF(D46&lt;=19,"L","A"))),IF(OR(B46="ALI",B46="AIE"),IF(E46&gt;=6,IF(D46&gt;=20,"H","A"),IF(E46&gt;=2,IF(D46&gt;=51,"H",IF(D46&lt;=19,"L","A")),IF(D46&lt;=50,"L","A"))),""))))</f>
+        <v>L</v>
       </c>
       <c r="J46" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K46" s="9" t="str">
+        <f>CONCATENATE(B46,C46)</f>
+        <v>EE</v>
+      </c>
+      <c r="K46" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="L46" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B46,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B46,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C46),ISBLANK(B46)),"",VLOOKUP(C46,Deflatores!G$4:H$38,2,FALSE)*H46+VLOOKUP(C46,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -6817,34 +7298,42 @@
       <c r="O46" s="6"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="126"/>
-      <c r="B47" s="4"/>
+      <c r="A47" s="126" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+      <c r="D47" s="7">
+        <v>4</v>
+      </c>
+      <c r="E47" s="7">
+        <v>1</v>
+      </c>
       <c r="F47" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(B47),"",IF(I47="L","Baixa",IF(I47="A","Média",IF(I47="","","Alta"))))</f>
+        <v>Baixa</v>
       </c>
       <c r="G47" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H47" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>CONCATENATE(B47,I47)</f>
+        <v>ALIL</v>
+      </c>
+      <c r="H47" s="5">
+        <f>IF(ISBLANK(B47),"",IF(B47="ALI",IF(I47="L",7,IF(I47="A",10,15)),IF(B47="AIE",IF(I47="L",5,IF(I47="A",7,10)),IF(B47="SE",IF(I47="L",4,IF(I47="A",5,7)),IF(OR(B47="EE",B47="CE"),IF(I47="L",3,IF(I47="A",4,6)),0)))))</f>
+        <v>7</v>
       </c>
       <c r="I47" s="122" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(OR(ISBLANK(D47),ISBLANK(E47)),IF(OR(B47="ALI",B47="AIE"),"L",IF(OR(B47="EE",B47="SE",B47="CE"),"A","")),IF(B47="EE",IF(E47&gt;=3,IF(D47&gt;=5,"H","A"),IF(E47&gt;=2,IF(D47&gt;=16,"H",IF(D47&lt;=4,"L","A")),IF(D47&lt;=15,"L","A"))),IF(OR(B47="SE",B47="CE"),IF(E47&gt;=4,IF(D47&gt;=6,"H","A"),IF(E47&gt;=2,IF(D47&gt;=20,"H",IF(D47&lt;=5,"L","A")),IF(D47&lt;=19,"L","A"))),IF(OR(B47="ALI",B47="AIE"),IF(E47&gt;=6,IF(D47&gt;=20,"H","A"),IF(E47&gt;=2,IF(D47&gt;=51,"H",IF(D47&lt;=19,"L","A")),IF(D47&lt;=50,"L","A"))),""))))</f>
+        <v>L</v>
       </c>
       <c r="J47" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K47" s="9" t="str">
+        <f>CONCATENATE(B47,C47)</f>
+        <v>ALI</v>
+      </c>
+      <c r="K47" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="L47" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B47,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B47,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C47),ISBLANK(B47)),"",VLOOKUP(C47,Deflatores!G$4:H$38,2,FALSE)*H47+VLOOKUP(C47,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -6855,34 +7344,42 @@
       <c r="O47" s="6"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="126"/>
-      <c r="B48" s="4"/>
+      <c r="A48" s="126" t="s">
+        <v>209</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
+      <c r="D48" s="7">
+        <v>4</v>
+      </c>
+      <c r="E48" s="7">
+        <v>1</v>
+      </c>
       <c r="F48" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(B48),"",IF(I48="L","Baixa",IF(I48="A","Média",IF(I48="","","Alta"))))</f>
+        <v>Baixa</v>
       </c>
       <c r="G48" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H48" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>CONCATENATE(B48,I48)</f>
+        <v>CEL</v>
+      </c>
+      <c r="H48" s="5">
+        <f>IF(ISBLANK(B48),"",IF(B48="ALI",IF(I48="L",7,IF(I48="A",10,15)),IF(B48="AIE",IF(I48="L",5,IF(I48="A",7,10)),IF(B48="SE",IF(I48="L",4,IF(I48="A",5,7)),IF(OR(B48="EE",B48="CE"),IF(I48="L",3,IF(I48="A",4,6)),0)))))</f>
+        <v>3</v>
       </c>
       <c r="I48" s="122" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(OR(ISBLANK(D48),ISBLANK(E48)),IF(OR(B48="ALI",B48="AIE"),"L",IF(OR(B48="EE",B48="SE",B48="CE"),"A","")),IF(B48="EE",IF(E48&gt;=3,IF(D48&gt;=5,"H","A"),IF(E48&gt;=2,IF(D48&gt;=16,"H",IF(D48&lt;=4,"L","A")),IF(D48&lt;=15,"L","A"))),IF(OR(B48="SE",B48="CE"),IF(E48&gt;=4,IF(D48&gt;=6,"H","A"),IF(E48&gt;=2,IF(D48&gt;=20,"H",IF(D48&lt;=5,"L","A")),IF(D48&lt;=19,"L","A"))),IF(OR(B48="ALI",B48="AIE"),IF(E48&gt;=6,IF(D48&gt;=20,"H","A"),IF(E48&gt;=2,IF(D48&gt;=51,"H",IF(D48&lt;=19,"L","A")),IF(D48&lt;=50,"L","A"))),""))))</f>
+        <v>L</v>
       </c>
       <c r="J48" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K48" s="9" t="str">
+        <f>CONCATENATE(B48,C48)</f>
+        <v>CE</v>
+      </c>
+      <c r="K48" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="L48" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B48,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B48,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C48),ISBLANK(B48)),"",VLOOKUP(C48,Deflatores!G$4:H$38,2,FALSE)*H48+VLOOKUP(C48,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -6893,34 +7390,42 @@
       <c r="O48" s="6"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="126"/>
-      <c r="B49" s="4"/>
+      <c r="A49" s="126" t="s">
+        <v>210</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C49" s="4"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
+      <c r="D49" s="7">
+        <v>4</v>
+      </c>
+      <c r="E49" s="7">
+        <v>1</v>
+      </c>
       <c r="F49" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(B49),"",IF(I49="L","Baixa",IF(I49="A","Média",IF(I49="","","Alta"))))</f>
+        <v>Baixa</v>
       </c>
       <c r="G49" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H49" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>CONCATENATE(B49,I49)</f>
+        <v>CEL</v>
+      </c>
+      <c r="H49" s="5">
+        <f>IF(ISBLANK(B49),"",IF(B49="ALI",IF(I49="L",7,IF(I49="A",10,15)),IF(B49="AIE",IF(I49="L",5,IF(I49="A",7,10)),IF(B49="SE",IF(I49="L",4,IF(I49="A",5,7)),IF(OR(B49="EE",B49="CE"),IF(I49="L",3,IF(I49="A",4,6)),0)))))</f>
+        <v>3</v>
       </c>
       <c r="I49" s="122" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(OR(ISBLANK(D49),ISBLANK(E49)),IF(OR(B49="ALI",B49="AIE"),"L",IF(OR(B49="EE",B49="SE",B49="CE"),"A","")),IF(B49="EE",IF(E49&gt;=3,IF(D49&gt;=5,"H","A"),IF(E49&gt;=2,IF(D49&gt;=16,"H",IF(D49&lt;=4,"L","A")),IF(D49&lt;=15,"L","A"))),IF(OR(B49="SE",B49="CE"),IF(E49&gt;=4,IF(D49&gt;=6,"H","A"),IF(E49&gt;=2,IF(D49&gt;=20,"H",IF(D49&lt;=5,"L","A")),IF(D49&lt;=19,"L","A"))),IF(OR(B49="ALI",B49="AIE"),IF(E49&gt;=6,IF(D49&gt;=20,"H","A"),IF(E49&gt;=2,IF(D49&gt;=51,"H",IF(D49&lt;=19,"L","A")),IF(D49&lt;=50,"L","A"))),""))))</f>
+        <v>L</v>
       </c>
       <c r="J49" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K49" s="9" t="str">
+        <f>CONCATENATE(B49,C49)</f>
+        <v>CE</v>
+      </c>
+      <c r="K49" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="L49" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B49,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B49,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C49),ISBLANK(B49)),"",VLOOKUP(C49,Deflatores!G$4:H$38,2,FALSE)*H49+VLOOKUP(C49,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -6931,34 +7436,42 @@
       <c r="O49" s="6"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="126"/>
-      <c r="B50" s="4"/>
+      <c r="A50" s="126" t="s">
+        <v>211</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="C50" s="4"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
+      <c r="D50" s="7">
+        <v>4</v>
+      </c>
+      <c r="E50" s="7">
+        <v>1</v>
+      </c>
       <c r="F50" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(B50),"",IF(I50="L","Baixa",IF(I50="A","Média",IF(I50="","","Alta"))))</f>
+        <v>Baixa</v>
       </c>
       <c r="G50" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H50" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>CONCATENATE(B50,I50)</f>
+        <v>EEL</v>
+      </c>
+      <c r="H50" s="5">
+        <f>IF(ISBLANK(B50),"",IF(B50="ALI",IF(I50="L",7,IF(I50="A",10,15)),IF(B50="AIE",IF(I50="L",5,IF(I50="A",7,10)),IF(B50="SE",IF(I50="L",4,IF(I50="A",5,7)),IF(OR(B50="EE",B50="CE"),IF(I50="L",3,IF(I50="A",4,6)),0)))))</f>
+        <v>3</v>
       </c>
       <c r="I50" s="122" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(OR(ISBLANK(D50),ISBLANK(E50)),IF(OR(B50="ALI",B50="AIE"),"L",IF(OR(B50="EE",B50="SE",B50="CE"),"A","")),IF(B50="EE",IF(E50&gt;=3,IF(D50&gt;=5,"H","A"),IF(E50&gt;=2,IF(D50&gt;=16,"H",IF(D50&lt;=4,"L","A")),IF(D50&lt;=15,"L","A"))),IF(OR(B50="SE",B50="CE"),IF(E50&gt;=4,IF(D50&gt;=6,"H","A"),IF(E50&gt;=2,IF(D50&gt;=20,"H",IF(D50&lt;=5,"L","A")),IF(D50&lt;=19,"L","A"))),IF(OR(B50="ALI",B50="AIE"),IF(E50&gt;=6,IF(D50&gt;=20,"H","A"),IF(E50&gt;=2,IF(D50&gt;=51,"H",IF(D50&lt;=19,"L","A")),IF(D50&lt;=50,"L","A"))),""))))</f>
+        <v>L</v>
       </c>
       <c r="J50" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K50" s="9" t="str">
+        <f>CONCATENATE(B50,C50)</f>
+        <v>EE</v>
+      </c>
+      <c r="K50" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="L50" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B50,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B50,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C50),ISBLANK(B50)),"",VLOOKUP(C50,Deflatores!G$4:H$38,2,FALSE)*H50+VLOOKUP(C50,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -6969,34 +7482,42 @@
       <c r="O50" s="6"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="126"/>
-      <c r="B51" s="4"/>
+      <c r="A51" s="126" t="s">
+        <v>212</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="C51" s="4"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
+      <c r="D51" s="7">
+        <v>4</v>
+      </c>
+      <c r="E51" s="7">
+        <v>1</v>
+      </c>
       <c r="F51" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(B51),"",IF(I51="L","Baixa",IF(I51="A","Média",IF(I51="","","Alta"))))</f>
+        <v>Baixa</v>
       </c>
       <c r="G51" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H51" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>CONCATENATE(B51,I51)</f>
+        <v>ALIL</v>
+      </c>
+      <c r="H51" s="5">
+        <f>IF(ISBLANK(B51),"",IF(B51="ALI",IF(I51="L",7,IF(I51="A",10,15)),IF(B51="AIE",IF(I51="L",5,IF(I51="A",7,10)),IF(B51="SE",IF(I51="L",4,IF(I51="A",5,7)),IF(OR(B51="EE",B51="CE"),IF(I51="L",3,IF(I51="A",4,6)),0)))))</f>
+        <v>7</v>
       </c>
       <c r="I51" s="122" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(OR(ISBLANK(D51),ISBLANK(E51)),IF(OR(B51="ALI",B51="AIE"),"L",IF(OR(B51="EE",B51="SE",B51="CE"),"A","")),IF(B51="EE",IF(E51&gt;=3,IF(D51&gt;=5,"H","A"),IF(E51&gt;=2,IF(D51&gt;=16,"H",IF(D51&lt;=4,"L","A")),IF(D51&lt;=15,"L","A"))),IF(OR(B51="SE",B51="CE"),IF(E51&gt;=4,IF(D51&gt;=6,"H","A"),IF(E51&gt;=2,IF(D51&gt;=20,"H",IF(D51&lt;=5,"L","A")),IF(D51&lt;=19,"L","A"))),IF(OR(B51="ALI",B51="AIE"),IF(E51&gt;=6,IF(D51&gt;=20,"H","A"),IF(E51&gt;=2,IF(D51&gt;=51,"H",IF(D51&lt;=19,"L","A")),IF(D51&lt;=50,"L","A"))),""))))</f>
+        <v>L</v>
       </c>
       <c r="J51" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K51" s="9" t="str">
+        <f>CONCATENATE(B51,C51)</f>
+        <v>ALI</v>
+      </c>
+      <c r="K51" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="L51" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B51,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B51,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C51),ISBLANK(B51)),"",VLOOKUP(C51,Deflatores!G$4:H$38,2,FALSE)*H51+VLOOKUP(C51,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -7007,34 +7528,42 @@
       <c r="O51" s="6"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="126"/>
-      <c r="B52" s="4"/>
+      <c r="A52" s="126" t="s">
+        <v>213</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="C52" s="4"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
+      <c r="D52" s="7">
+        <v>4</v>
+      </c>
+      <c r="E52" s="7">
+        <v>1</v>
+      </c>
       <c r="F52" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(B52),"",IF(I52="L","Baixa",IF(I52="A","Média",IF(I52="","","Alta"))))</f>
+        <v>Baixa</v>
       </c>
       <c r="G52" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H52" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>CONCATENATE(B52,I52)</f>
+        <v>EEL</v>
+      </c>
+      <c r="H52" s="5">
+        <f>IF(ISBLANK(B52),"",IF(B52="ALI",IF(I52="L",7,IF(I52="A",10,15)),IF(B52="AIE",IF(I52="L",5,IF(I52="A",7,10)),IF(B52="SE",IF(I52="L",4,IF(I52="A",5,7)),IF(OR(B52="EE",B52="CE"),IF(I52="L",3,IF(I52="A",4,6)),0)))))</f>
+        <v>3</v>
       </c>
       <c r="I52" s="122" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(OR(ISBLANK(D52),ISBLANK(E52)),IF(OR(B52="ALI",B52="AIE"),"L",IF(OR(B52="EE",B52="SE",B52="CE"),"A","")),IF(B52="EE",IF(E52&gt;=3,IF(D52&gt;=5,"H","A"),IF(E52&gt;=2,IF(D52&gt;=16,"H",IF(D52&lt;=4,"L","A")),IF(D52&lt;=15,"L","A"))),IF(OR(B52="SE",B52="CE"),IF(E52&gt;=4,IF(D52&gt;=6,"H","A"),IF(E52&gt;=2,IF(D52&gt;=20,"H",IF(D52&lt;=5,"L","A")),IF(D52&lt;=19,"L","A"))),IF(OR(B52="ALI",B52="AIE"),IF(E52&gt;=6,IF(D52&gt;=20,"H","A"),IF(E52&gt;=2,IF(D52&gt;=51,"H",IF(D52&lt;=19,"L","A")),IF(D52&lt;=50,"L","A"))),""))))</f>
+        <v>L</v>
       </c>
       <c r="J52" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K52" s="9" t="str">
+        <f>CONCATENATE(B52,C52)</f>
+        <v>EE</v>
+      </c>
+      <c r="K52" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="L52" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B52,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B52,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C52),ISBLANK(B52)),"",VLOOKUP(C52,Deflatores!G$4:H$38,2,FALSE)*H52+VLOOKUP(C52,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -7045,34 +7574,42 @@
       <c r="O52" s="6"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="126"/>
-      <c r="B53" s="4"/>
+      <c r="A53" s="126" t="s">
+        <v>217</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="C53" s="4"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
+      <c r="D53" s="7">
+        <v>9</v>
+      </c>
+      <c r="E53" s="7">
+        <v>5</v>
+      </c>
       <c r="F53" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(B53),"",IF(I53="L","Baixa",IF(I53="A","Média",IF(I53="","","Alta"))))</f>
+        <v>Alta</v>
       </c>
       <c r="G53" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H53" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>CONCATENATE(B53,I53)</f>
+        <v>SEH</v>
+      </c>
+      <c r="H53" s="5">
+        <f>IF(ISBLANK(B53),"",IF(B53="ALI",IF(I53="L",7,IF(I53="A",10,15)),IF(B53="AIE",IF(I53="L",5,IF(I53="A",7,10)),IF(B53="SE",IF(I53="L",4,IF(I53="A",5,7)),IF(OR(B53="EE",B53="CE"),IF(I53="L",3,IF(I53="A",4,6)),0)))))</f>
+        <v>7</v>
       </c>
       <c r="I53" s="122" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(OR(ISBLANK(D53),ISBLANK(E53)),IF(OR(B53="ALI",B53="AIE"),"L",IF(OR(B53="EE",B53="SE",B53="CE"),"A","")),IF(B53="EE",IF(E53&gt;=3,IF(D53&gt;=5,"H","A"),IF(E53&gt;=2,IF(D53&gt;=16,"H",IF(D53&lt;=4,"L","A")),IF(D53&lt;=15,"L","A"))),IF(OR(B53="SE",B53="CE"),IF(E53&gt;=4,IF(D53&gt;=6,"H","A"),IF(E53&gt;=2,IF(D53&gt;=20,"H",IF(D53&lt;=5,"L","A")),IF(D53&lt;=19,"L","A"))),IF(OR(B53="ALI",B53="AIE"),IF(E53&gt;=6,IF(D53&gt;=20,"H","A"),IF(E53&gt;=2,IF(D53&gt;=51,"H",IF(D53&lt;=19,"L","A")),IF(D53&lt;=50,"L","A"))),""))))</f>
+        <v>H</v>
       </c>
       <c r="J53" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K53" s="9" t="str">
+        <f>CONCATENATE(B53,C53)</f>
+        <v>SE</v>
+      </c>
+      <c r="K53" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="L53" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B53,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B53,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C53),ISBLANK(B53)),"",VLOOKUP(C53,Deflatores!G$4:H$38,2,FALSE)*H53+VLOOKUP(C53,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -7083,34 +7620,42 @@
       <c r="O53" s="6"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="126"/>
-      <c r="B54" s="4"/>
+      <c r="A54" s="126" t="s">
+        <v>216</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="C54" s="4"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
+      <c r="D54" s="7">
+        <v>6</v>
+      </c>
+      <c r="E54" s="7">
+        <v>4</v>
+      </c>
       <c r="F54" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Alta</v>
       </c>
       <c r="G54" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H54" s="5" t="str">
+        <v>SEH</v>
+      </c>
+      <c r="H54" s="5">
         <f t="shared" si="2"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="I54" s="122" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>H</v>
       </c>
       <c r="J54" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K54" s="9" t="str">
+        <v>SE</v>
+      </c>
+      <c r="K54" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="L54" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B54,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B54,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C54),ISBLANK(B54)),"",VLOOKUP(C54,Deflatores!G$4:H$38,2,FALSE)*H54+VLOOKUP(C54,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -7121,34 +7666,42 @@
       <c r="O54" s="6"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="126"/>
-      <c r="B55" s="4"/>
+      <c r="A55" s="126" t="s">
+        <v>219</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="C55" s="4"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
+      <c r="D55" s="7">
+        <v>12</v>
+      </c>
+      <c r="E55" s="7">
+        <v>5</v>
+      </c>
       <c r="F55" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Alta</v>
       </c>
       <c r="G55" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H55" s="5" t="str">
+        <v>SEH</v>
+      </c>
+      <c r="H55" s="5">
         <f t="shared" si="2"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="I55" s="122" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>H</v>
       </c>
       <c r="J55" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K55" s="9" t="str">
+        <v>SE</v>
+      </c>
+      <c r="K55" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="L55" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B55,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B55,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C55),ISBLANK(B55)),"",VLOOKUP(C55,Deflatores!G$4:H$38,2,FALSE)*H55+VLOOKUP(C55,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -7159,34 +7712,42 @@
       <c r="O55" s="6"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="126"/>
-      <c r="B56" s="4"/>
+      <c r="A56" s="126" t="s">
+        <v>218</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="C56" s="4"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
+      <c r="D56" s="7">
+        <v>8</v>
+      </c>
+      <c r="E56" s="7">
+        <v>5</v>
+      </c>
       <c r="F56" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Alta</v>
       </c>
       <c r="G56" s="7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H56" s="5" t="str">
+        <v>SEH</v>
+      </c>
+      <c r="H56" s="5">
         <f t="shared" si="2"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="I56" s="122" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>H</v>
       </c>
       <c r="J56" s="7" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K56" s="9" t="str">
+        <v>SE</v>
+      </c>
+      <c r="K56" s="9">
         <f t="shared" si="5"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="L56" s="9" t="str">
         <f>IF(NOT(ISERROR(VLOOKUP(B56,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B56,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C56),ISBLANK(B56)),"",VLOOKUP(C56,Deflatores!G$4:H$38,2,FALSE)*H56+VLOOKUP(C56,Deflatores!G$4:I$38,3,FALSE)))</f>
@@ -22893,13 +23454,13 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="7">
+    <mergeCell ref="A1:O3"/>
+    <mergeCell ref="M4:O4"/>
     <mergeCell ref="M5:O5"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="M6:O6"/>
-    <mergeCell ref="A1:O3"/>
-    <mergeCell ref="M4:O4"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:C469">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
@@ -22913,11 +23474,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo da Função" prompt="ALI, AIE, EE, SE, CE_x000a_ou_x000a_Itens não mensuráveis" sqref="B8:B469">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo da Função" prompt="ALI, AIE, EE, SE, CE_x000a_ou_x000a_Itens não mensuráveis" sqref="B8:B469" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>TiposDeFuncao</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo de Manutenção na Função" prompt="I, A, E _x000a_ou_x000a_Itens não mensuráveis" sqref="C8:C469">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo de Manutenção na Função" prompt="I, A, E _x000a_ou_x000a_Itens não mensuráveis" sqref="C8:C469" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>TiposDeManutencao</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -22933,7 +23494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Plan3"/>
   <dimension ref="A1:L64"/>
   <sheetViews>
@@ -22956,41 +23517,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
       <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="154" t="s">
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="154" t="s">
+      <c r="H2" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154" t="s">
+      <c r="I2" s="152"/>
+      <c r="J2" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="155" t="s">
+      <c r="K2" s="153" t="s">
         <v>34</v>
       </c>
     </row>
@@ -22998,35 +23559,35 @@
       <c r="A3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
       <c r="F3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="154"/>
+      <c r="G3" s="152"/>
       <c r="H3" s="24" t="s">
         <v>37</v>
       </c>
       <c r="I3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="154"/>
-      <c r="K3" s="155"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="153"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
       <c r="F4" s="2"/>
       <c r="G4" s="25" t="s">
         <v>41</v>
@@ -23048,12 +23609,12 @@
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
       <c r="F5" s="2" t="s">
         <v>48</v>
       </c>
@@ -23077,12 +23638,12 @@
       <c r="A6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
       <c r="F6" s="2" t="s">
         <v>48</v>
       </c>
@@ -23104,12 +23665,12 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="134" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
       <c r="F7" s="2" t="s">
         <v>48</v>
       </c>
@@ -23131,12 +23692,12 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="136" t="s">
+      <c r="B8" s="134" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
       <c r="F8" s="2" t="s">
         <v>48</v>
       </c>
@@ -23158,12 +23719,12 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="134" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
       <c r="F9" s="2" t="s">
         <v>48</v>
       </c>
@@ -23185,12 +23746,12 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="136"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
       <c r="F10" s="2" t="s">
         <v>53</v>
       </c>
@@ -23212,12 +23773,12 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="136" t="s">
+      <c r="B11" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="136"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
       <c r="F11" s="2" t="s">
         <v>56</v>
       </c>
@@ -23239,12 +23800,12 @@
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="136"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
       <c r="F12" s="2" t="s">
         <v>56</v>
       </c>
@@ -23266,12 +23827,12 @@
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="136" t="s">
+      <c r="B13" s="134" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
       <c r="F13" s="2" t="s">
         <v>56</v>
       </c>
@@ -23293,12 +23854,12 @@
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="136" t="s">
+      <c r="B14" s="134" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
       <c r="F14" s="2" t="s">
         <v>56</v>
       </c>
@@ -23320,12 +23881,12 @@
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="136" t="s">
+      <c r="B15" s="134" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="136"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
       <c r="F15" s="2" t="s">
         <v>56</v>
       </c>
@@ -23347,12 +23908,12 @@
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="136" t="s">
+      <c r="B16" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
       <c r="F16" s="2" t="s">
         <v>63</v>
       </c>
@@ -23374,12 +23935,12 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="136" t="s">
+      <c r="B17" s="134" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
       <c r="F17" s="2" t="s">
         <v>65</v>
       </c>
@@ -23401,12 +23962,12 @@
     </row>
     <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="136" t="s">
+      <c r="B18" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
       <c r="F18" s="2" t="s">
         <v>65</v>
       </c>
@@ -23428,12 +23989,12 @@
     </row>
     <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="136" t="s">
+      <c r="B19" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="136"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
       <c r="F19" s="2" t="s">
         <v>67</v>
       </c>
@@ -23455,12 +24016,12 @@
     </row>
     <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="136" t="s">
+      <c r="B20" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
       <c r="F20" s="2" t="s">
         <v>70</v>
       </c>
@@ -23482,12 +24043,12 @@
     </row>
     <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="136" t="s">
+      <c r="B21" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="134"/>
       <c r="F21" s="2" t="s">
         <v>73</v>
       </c>
@@ -23509,12 +24070,12 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="136" t="s">
+      <c r="B22" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="134"/>
       <c r="F22" s="2" t="s">
         <v>76</v>
       </c>
@@ -23536,12 +24097,12 @@
     </row>
     <row r="23" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="158" t="s">
+      <c r="B23" s="154" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="160"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="156"/>
       <c r="F23" s="103" t="s">
         <v>78</v>
       </c>
@@ -23563,12 +24124,12 @@
     </row>
     <row r="24" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="158" t="s">
+      <c r="B24" s="154" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="159"/>
-      <c r="D24" s="159"/>
-      <c r="E24" s="160"/>
+      <c r="C24" s="155"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="156"/>
       <c r="F24" s="103" t="s">
         <v>78</v>
       </c>
@@ -23593,9 +24154,9 @@
       <c r="B25" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="C25" s="136"/>
-      <c r="D25" s="136"/>
-      <c r="E25" s="136"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
       <c r="F25" s="103" t="s">
         <v>78</v>
       </c>
@@ -23617,12 +24178,12 @@
     </row>
     <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="136" t="s">
+      <c r="B26" s="134" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="136"/>
-      <c r="D26" s="136"/>
-      <c r="E26" s="136"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="134"/>
       <c r="F26" s="2" t="s">
         <v>81</v>
       </c>
@@ -23644,12 +24205,12 @@
     </row>
     <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="136" t="s">
+      <c r="B27" s="134" t="s">
         <v>166</v>
       </c>
-      <c r="C27" s="136"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="136"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
       <c r="F27" s="2" t="s">
         <v>81</v>
       </c>
@@ -23671,12 +24232,12 @@
     </row>
     <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="136" t="s">
+      <c r="B28" s="134" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="136"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="134"/>
       <c r="F28" s="2" t="s">
         <v>81</v>
       </c>
@@ -23698,12 +24259,12 @@
     </row>
     <row r="29" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="136" t="s">
+      <c r="B29" s="134" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="136"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="134"/>
       <c r="F29" s="2" t="s">
         <v>86</v>
       </c>
@@ -23725,12 +24286,12 @@
     </row>
     <row r="30" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="136" t="s">
+      <c r="B30" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="136"/>
-      <c r="D30" s="136"/>
-      <c r="E30" s="136"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="134"/>
       <c r="F30" s="2" t="s">
         <v>89</v>
       </c>
@@ -23752,12 +24313,12 @@
     </row>
     <row r="31" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="136" t="s">
+      <c r="B31" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="136"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
       <c r="F31" s="2" t="s">
         <v>92</v>
       </c>
@@ -23887,12 +24448,12 @@
     </row>
     <row r="36" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
-      <c r="B36" s="136" t="s">
+      <c r="B36" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="136"/>
-      <c r="D36" s="136"/>
-      <c r="E36" s="136"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
       <c r="F36" s="2" t="s">
         <v>95</v>
       </c>
@@ -23914,10 +24475,10 @@
     </row>
     <row r="37" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
-      <c r="B37" s="136"/>
-      <c r="C37" s="136"/>
-      <c r="D37" s="136"/>
-      <c r="E37" s="136"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="134"/>
       <c r="F37" s="2"/>
       <c r="G37" s="25" t="s">
         <v>97</v>
@@ -23938,10 +24499,10 @@
     </row>
     <row r="38" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="B38" s="136"/>
-      <c r="C38" s="136"/>
-      <c r="D38" s="136"/>
-      <c r="E38" s="136"/>
+      <c r="B38" s="134"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="134"/>
+      <c r="E38" s="134"/>
       <c r="F38" s="2"/>
       <c r="G38" s="25" t="s">
         <v>97</v>
@@ -23977,25 +24538,25 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="156" t="s">
+      <c r="A40" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="156"/>
-      <c r="C40" s="156"/>
-      <c r="D40" s="156"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="156"/>
-      <c r="G40" s="154" t="s">
+      <c r="B40" s="151"/>
+      <c r="C40" s="151"/>
+      <c r="D40" s="151"/>
+      <c r="E40" s="151"/>
+      <c r="F40" s="151"/>
+      <c r="G40" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="H40" s="154" t="s">
+      <c r="H40" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="I40" s="154"/>
-      <c r="J40" s="154" t="s">
+      <c r="I40" s="152"/>
+      <c r="J40" s="152" t="s">
         <v>101</v>
       </c>
-      <c r="K40" s="155" t="s">
+      <c r="K40" s="153" t="s">
         <v>34</v>
       </c>
       <c r="L40" s="19" t="s">
@@ -24006,42 +24567,42 @@
       <c r="A41" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="154" t="s">
+      <c r="B41" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="154"/>
-      <c r="D41" s="154"/>
-      <c r="E41" s="154"/>
+      <c r="C41" s="152"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="152"/>
       <c r="F41" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="154"/>
-      <c r="H41" s="154"/>
-      <c r="I41" s="154"/>
-      <c r="J41" s="154"/>
-      <c r="K41" s="155"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="152"/>
+      <c r="I41" s="152"/>
+      <c r="J41" s="152"/>
+      <c r="K41" s="153"/>
       <c r="L41" s="19" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="27"/>
-      <c r="B42" s="136" t="s">
+      <c r="B42" s="134" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="136"/>
-      <c r="D42" s="136"/>
-      <c r="E42" s="136"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="134"/>
+      <c r="E42" s="134"/>
       <c r="F42" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G42" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="H42" s="151">
+      <c r="H42" s="158">
         <v>0.6</v>
       </c>
-      <c r="I42" s="151"/>
+      <c r="I42" s="158"/>
       <c r="J42" s="28">
         <f>COUNTIF(Funções!B$8:B$469,G42)</f>
         <v>0</v>
@@ -24057,22 +24618,22 @@
     </row>
     <row r="43" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="27"/>
-      <c r="B43" s="136" t="s">
+      <c r="B43" s="134" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="136"/>
-      <c r="D43" s="136"/>
-      <c r="E43" s="136"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="134"/>
       <c r="F43" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G43" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="H43" s="151">
+      <c r="H43" s="158">
         <v>0.6</v>
       </c>
-      <c r="I43" s="151"/>
+      <c r="I43" s="158"/>
       <c r="J43" s="28">
         <f>COUNTIF(Funções!B$8:B$469,G43)</f>
         <v>0</v>
@@ -24088,20 +24649,20 @@
     </row>
     <row r="44" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="27"/>
-      <c r="B44" s="136" t="s">
+      <c r="B44" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="136"/>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="134"/>
       <c r="F44" s="2"/>
       <c r="G44" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="H44" s="151">
-        <v>0</v>
-      </c>
-      <c r="I44" s="151"/>
+      <c r="H44" s="158">
+        <v>0</v>
+      </c>
+      <c r="I44" s="158"/>
       <c r="J44" s="28">
         <f>COUNTIF(Funções!B$8:B$469,G44)</f>
         <v>0</v>
@@ -24117,16 +24678,16 @@
     </row>
     <row r="45" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="27"/>
-      <c r="B45" s="136"/>
-      <c r="C45" s="136"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
+      <c r="E45" s="134"/>
       <c r="F45" s="2"/>
       <c r="G45" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H45" s="151"/>
-      <c r="I45" s="151"/>
+      <c r="H45" s="158"/>
+      <c r="I45" s="158"/>
       <c r="J45" s="28">
         <f>COUNTIF(Funções!B$8:B$469,G45)</f>
         <v>0</v>
@@ -24142,16 +24703,16 @@
     </row>
     <row r="46" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="27"/>
-      <c r="B46" s="136"/>
-      <c r="C46" s="136"/>
-      <c r="D46" s="136"/>
-      <c r="E46" s="136"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="134"/>
       <c r="F46" s="2"/>
       <c r="G46" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H46" s="151"/>
-      <c r="I46" s="151"/>
+      <c r="H46" s="158"/>
+      <c r="I46" s="158"/>
       <c r="J46" s="28">
         <f>COUNTIF(Funções!B$8:B$469,G46)</f>
         <v>0</v>
@@ -24167,16 +24728,16 @@
     </row>
     <row r="47" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A47" s="27"/>
-      <c r="B47" s="136"/>
-      <c r="C47" s="136"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="136"/>
+      <c r="B47" s="134"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="134"/>
+      <c r="E47" s="134"/>
       <c r="F47" s="2"/>
       <c r="G47" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H47" s="151"/>
-      <c r="I47" s="151"/>
+      <c r="H47" s="158"/>
+      <c r="I47" s="158"/>
       <c r="J47" s="28">
         <f>COUNTIF(Funções!B$8:B$469,G47)</f>
         <v>0</v>
@@ -24192,16 +24753,16 @@
     </row>
     <row r="48" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A48" s="27"/>
-      <c r="B48" s="136"/>
-      <c r="C48" s="136"/>
-      <c r="D48" s="136"/>
-      <c r="E48" s="136"/>
+      <c r="B48" s="134"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="134"/>
+      <c r="E48" s="134"/>
       <c r="F48" s="2"/>
       <c r="G48" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H48" s="151"/>
-      <c r="I48" s="151"/>
+      <c r="H48" s="158"/>
+      <c r="I48" s="158"/>
       <c r="J48" s="28">
         <f>COUNTIF(Funções!B$8:B$469,G48)</f>
         <v>0</v>
@@ -24217,16 +24778,16 @@
     </row>
     <row r="49" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A49" s="27"/>
-      <c r="B49" s="136"/>
-      <c r="C49" s="136"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="136"/>
+      <c r="B49" s="134"/>
+      <c r="C49" s="134"/>
+      <c r="D49" s="134"/>
+      <c r="E49" s="134"/>
       <c r="F49" s="2"/>
       <c r="G49" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H49" s="151"/>
-      <c r="I49" s="151"/>
+      <c r="H49" s="158"/>
+      <c r="I49" s="158"/>
       <c r="J49" s="28">
         <f>COUNTIF(Funções!B$8:B$469,G49)</f>
         <v>0</v>
@@ -24242,16 +24803,16 @@
     </row>
     <row r="50" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A50" s="27"/>
-      <c r="B50" s="136"/>
-      <c r="C50" s="136"/>
-      <c r="D50" s="136"/>
-      <c r="E50" s="136"/>
+      <c r="B50" s="134"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="134"/>
+      <c r="E50" s="134"/>
       <c r="F50" s="2"/>
       <c r="G50" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H50" s="151"/>
-      <c r="I50" s="151"/>
+      <c r="H50" s="158"/>
+      <c r="I50" s="158"/>
       <c r="J50" s="28">
         <f>COUNTIF(Funções!B$8:B$469,G50)</f>
         <v>0</v>
@@ -24267,16 +24828,16 @@
     </row>
     <row r="51" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A51" s="27"/>
-      <c r="B51" s="136"/>
-      <c r="C51" s="136"/>
-      <c r="D51" s="136"/>
-      <c r="E51" s="136"/>
+      <c r="B51" s="134"/>
+      <c r="C51" s="134"/>
+      <c r="D51" s="134"/>
+      <c r="E51" s="134"/>
       <c r="F51" s="2"/>
       <c r="G51" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H51" s="151"/>
-      <c r="I51" s="151"/>
+      <c r="H51" s="158"/>
+      <c r="I51" s="158"/>
       <c r="J51" s="28">
         <f>COUNTIF(Funções!B$8:B$469,G51)</f>
         <v>0</v>
@@ -24292,16 +24853,16 @@
     </row>
     <row r="52" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A52" s="27"/>
-      <c r="B52" s="136"/>
-      <c r="C52" s="136"/>
-      <c r="D52" s="136"/>
-      <c r="E52" s="136"/>
+      <c r="B52" s="134"/>
+      <c r="C52" s="134"/>
+      <c r="D52" s="134"/>
+      <c r="E52" s="134"/>
       <c r="F52" s="2"/>
       <c r="G52" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H52" s="151"/>
-      <c r="I52" s="151"/>
+      <c r="H52" s="158"/>
+      <c r="I52" s="158"/>
       <c r="J52" s="28">
         <f>COUNTIF(Funções!B$8:B$469,G52)</f>
         <v>0</v>
@@ -24317,16 +24878,16 @@
     </row>
     <row r="53" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A53" s="27"/>
-      <c r="B53" s="136"/>
-      <c r="C53" s="136"/>
-      <c r="D53" s="136"/>
-      <c r="E53" s="136"/>
+      <c r="B53" s="134"/>
+      <c r="C53" s="134"/>
+      <c r="D53" s="134"/>
+      <c r="E53" s="134"/>
       <c r="F53" s="2"/>
       <c r="G53" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H53" s="151"/>
-      <c r="I53" s="151"/>
+      <c r="H53" s="158"/>
+      <c r="I53" s="158"/>
       <c r="J53" s="28">
         <f>COUNTIF(Funções!B$8:B$469,G53)</f>
         <v>0</v>
@@ -24342,16 +24903,16 @@
     </row>
     <row r="54" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A54" s="27"/>
-      <c r="B54" s="136"/>
-      <c r="C54" s="136"/>
-      <c r="D54" s="136"/>
-      <c r="E54" s="136"/>
+      <c r="B54" s="134"/>
+      <c r="C54" s="134"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="134"/>
       <c r="F54" s="2"/>
       <c r="G54" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H54" s="151"/>
-      <c r="I54" s="151"/>
+      <c r="H54" s="158"/>
+      <c r="I54" s="158"/>
       <c r="J54" s="28">
         <f>COUNTIF(Funções!B$8:B$469,G54)</f>
         <v>0</v>
@@ -24367,16 +24928,16 @@
     </row>
     <row r="55" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A55" s="27"/>
-      <c r="B55" s="136"/>
-      <c r="C55" s="136"/>
-      <c r="D55" s="136"/>
-      <c r="E55" s="136"/>
+      <c r="B55" s="134"/>
+      <c r="C55" s="134"/>
+      <c r="D55" s="134"/>
+      <c r="E55" s="134"/>
       <c r="F55" s="2"/>
       <c r="G55" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H55" s="151"/>
-      <c r="I55" s="151"/>
+      <c r="H55" s="158"/>
+      <c r="I55" s="158"/>
       <c r="J55" s="28">
         <f>COUNTIF(Funções!B$8:B$469,G55)</f>
         <v>0</v>
@@ -24392,16 +24953,16 @@
     </row>
     <row r="56" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A56" s="27"/>
-      <c r="B56" s="136"/>
-      <c r="C56" s="136"/>
-      <c r="D56" s="136"/>
-      <c r="E56" s="136"/>
+      <c r="B56" s="134"/>
+      <c r="C56" s="134"/>
+      <c r="D56" s="134"/>
+      <c r="E56" s="134"/>
       <c r="F56" s="2"/>
       <c r="G56" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H56" s="151"/>
-      <c r="I56" s="151"/>
+      <c r="H56" s="158"/>
+      <c r="I56" s="158"/>
       <c r="J56" s="28">
         <f>COUNTIF(Funções!B$8:B$469,G56)</f>
         <v>0</v>
@@ -24417,16 +24978,16 @@
     </row>
     <row r="57" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A57" s="27"/>
-      <c r="B57" s="136"/>
-      <c r="C57" s="136"/>
-      <c r="D57" s="136"/>
-      <c r="E57" s="136"/>
+      <c r="B57" s="134"/>
+      <c r="C57" s="134"/>
+      <c r="D57" s="134"/>
+      <c r="E57" s="134"/>
       <c r="F57" s="2"/>
       <c r="G57" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H57" s="151"/>
-      <c r="I57" s="151"/>
+      <c r="H57" s="158"/>
+      <c r="I57" s="158"/>
       <c r="J57" s="28">
         <f>COUNTIF(Funções!B$8:B$469,G57)</f>
         <v>0</v>
@@ -24442,16 +25003,16 @@
     </row>
     <row r="58" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A58" s="27"/>
-      <c r="B58" s="136"/>
-      <c r="C58" s="136"/>
-      <c r="D58" s="136"/>
-      <c r="E58" s="136"/>
+      <c r="B58" s="134"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="134"/>
+      <c r="E58" s="134"/>
       <c r="F58" s="2"/>
       <c r="G58" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H58" s="151"/>
-      <c r="I58" s="151"/>
+      <c r="H58" s="158"/>
+      <c r="I58" s="158"/>
       <c r="J58" s="28">
         <f>COUNTIF(Funções!B$8:B$469,G58)</f>
         <v>0</v>
@@ -24467,16 +25028,16 @@
     </row>
     <row r="59" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A59" s="27"/>
-      <c r="B59" s="136"/>
-      <c r="C59" s="136"/>
-      <c r="D59" s="136"/>
-      <c r="E59" s="136"/>
+      <c r="B59" s="134"/>
+      <c r="C59" s="134"/>
+      <c r="D59" s="134"/>
+      <c r="E59" s="134"/>
       <c r="F59" s="2"/>
       <c r="G59" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H59" s="151"/>
-      <c r="I59" s="151"/>
+      <c r="H59" s="158"/>
+      <c r="I59" s="158"/>
       <c r="J59" s="28">
         <f>COUNTIF(Funções!B$8:B$469,G59)</f>
         <v>0</v>
@@ -24492,16 +25053,16 @@
     </row>
     <row r="60" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A60" s="27"/>
-      <c r="B60" s="136"/>
-      <c r="C60" s="136"/>
-      <c r="D60" s="136"/>
-      <c r="E60" s="136"/>
+      <c r="B60" s="134"/>
+      <c r="C60" s="134"/>
+      <c r="D60" s="134"/>
+      <c r="E60" s="134"/>
       <c r="F60" s="2"/>
       <c r="G60" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H60" s="151"/>
-      <c r="I60" s="151"/>
+      <c r="H60" s="158"/>
+      <c r="I60" s="158"/>
       <c r="J60" s="28">
         <f>COUNTIF(Funções!B$8:B$469,G60)</f>
         <v>0</v>
@@ -24517,16 +25078,16 @@
     </row>
     <row r="61" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A61" s="27"/>
-      <c r="B61" s="136"/>
-      <c r="C61" s="136"/>
-      <c r="D61" s="136"/>
-      <c r="E61" s="136"/>
+      <c r="B61" s="134"/>
+      <c r="C61" s="134"/>
+      <c r="D61" s="134"/>
+      <c r="E61" s="134"/>
       <c r="F61" s="2"/>
       <c r="G61" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H61" s="151"/>
-      <c r="I61" s="151"/>
+      <c r="H61" s="158"/>
+      <c r="I61" s="158"/>
       <c r="J61" s="28">
         <f>COUNTIF(Funções!B$8:B$469,G61)</f>
         <v>0</v>
@@ -24542,16 +25103,16 @@
     </row>
     <row r="62" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A62" s="27"/>
-      <c r="B62" s="136"/>
-      <c r="C62" s="136"/>
-      <c r="D62" s="136"/>
-      <c r="E62" s="136"/>
+      <c r="B62" s="134"/>
+      <c r="C62" s="134"/>
+      <c r="D62" s="134"/>
+      <c r="E62" s="134"/>
       <c r="F62" s="2"/>
       <c r="G62" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H62" s="151"/>
-      <c r="I62" s="151"/>
+      <c r="H62" s="158"/>
+      <c r="I62" s="158"/>
       <c r="J62" s="28">
         <f>COUNTIF(Funções!B$8:B$469,G62)</f>
         <v>0</v>
@@ -24567,16 +25128,16 @@
     </row>
     <row r="63" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A63" s="27"/>
-      <c r="B63" s="136"/>
-      <c r="C63" s="136"/>
-      <c r="D63" s="136"/>
-      <c r="E63" s="136"/>
+      <c r="B63" s="134"/>
+      <c r="C63" s="134"/>
+      <c r="D63" s="134"/>
+      <c r="E63" s="134"/>
       <c r="F63" s="2"/>
       <c r="G63" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H63" s="151"/>
-      <c r="I63" s="151"/>
+      <c r="H63" s="158"/>
+      <c r="I63" s="158"/>
       <c r="J63" s="28">
         <f>COUNTIF(Funções!B$8:B$469,G63)</f>
         <v>0</v>
@@ -24592,16 +25153,16 @@
     </row>
     <row r="64" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A64" s="29"/>
-      <c r="B64" s="152"/>
-      <c r="C64" s="152"/>
-      <c r="D64" s="152"/>
-      <c r="E64" s="152"/>
+      <c r="B64" s="159"/>
+      <c r="C64" s="159"/>
+      <c r="D64" s="159"/>
+      <c r="E64" s="159"/>
       <c r="F64" s="30"/>
       <c r="G64" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H64" s="153"/>
-      <c r="I64" s="153"/>
+      <c r="H64" s="160"/>
+      <c r="I64" s="160"/>
       <c r="J64" s="32">
         <f>COUNTIF(Funções!B$8:B$469,G64)</f>
         <v>0</v>
@@ -24618,86 +25179,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="90">
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="H59:I59"/>
     <mergeCell ref="B63:E63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="B64:E64"/>
@@ -24708,6 +25189,86 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="B62:E62"/>
     <mergeCell ref="H62:I62"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H40:I41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.023611111111111" bottom="1.023611111111111" header="0.51180555555555551" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="48" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -24719,7 +25280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Plan4"/>
   <dimension ref="A1:L52"/>
   <sheetViews>
@@ -24746,61 +25307,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="128" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="139"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="139"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="166" t="str">
+      <c r="A4" s="163" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
-        <v xml:space="preserve">Aplicação : </v>
-      </c>
-      <c r="B4" s="166"/>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
+        <v>Aplicação : Puchealth</v>
+      </c>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
       <c r="F4" s="149" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
-        <v xml:space="preserve">Projeto : </v>
+        <v>Projeto : TCC Engenharia de Software - PUC Minas</v>
       </c>
       <c r="G4" s="149"/>
       <c r="H4" s="149"/>
@@ -24810,17 +25371,17 @@
       <c r="L4" s="149"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="166" t="str">
+      <c r="A5" s="163" t="str">
         <f>Contagem!A9&amp;" : "&amp;Contagem!F9</f>
-        <v xml:space="preserve">Responsável : </v>
-      </c>
-      <c r="B5" s="166"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
+        <v>Responsável : Caio Philipe Vargas de Souza</v>
+      </c>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
       <c r="F5" s="149" t="str">
         <f>Contagem!A10&amp;" : "&amp;Contagem!F10</f>
-        <v xml:space="preserve">Revisor : </v>
+        <v>Revisor : -</v>
       </c>
       <c r="G5" s="149"/>
       <c r="H5" s="149"/>
@@ -24830,14 +25391,14 @@
       <c r="L5" s="149"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="166" t="str">
+      <c r="A6" s="163" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
-        <v xml:space="preserve">Empresa : </v>
-      </c>
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
+        <v>Empresa : -</v>
+      </c>
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
       <c r="F6" s="149" t="str">
         <f>"Tipo de Contagem : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Tipo de Contagem : </v>
@@ -24850,44 +25411,44 @@
       <c r="L6" s="149"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="165" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="162"/>
-      <c r="C7" s="163" t="s">
+      <c r="B7" s="165"/>
+      <c r="C7" s="166" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="164" t="s">
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="161" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="164" t="s">
+      <c r="H7" s="161" t="s">
         <v>122</v>
       </c>
       <c r="I7" s="69"/>
-      <c r="J7" s="164" t="s">
+      <c r="J7" s="161" t="s">
         <v>123</v>
       </c>
-      <c r="K7" s="164"/>
-      <c r="L7" s="165" t="s">
+      <c r="K7" s="161"/>
+      <c r="L7" s="162" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="162"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
+      <c r="A8" s="165"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
       <c r="I8" s="70"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
-      <c r="L8" s="165"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="161"/>
+      <c r="L8" s="162"/>
     </row>
     <row r="9" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="47"/>
@@ -24910,7 +25471,7 @@
       </c>
       <c r="C10" s="52">
         <f>COUNTIF(Funções!G8:G469,"EEL")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D10" s="51"/>
       <c r="E10" s="53" t="s">
@@ -24921,7 +25482,7 @@
       </c>
       <c r="G10" s="52">
         <f>C10*3</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H10" s="51"/>
       <c r="I10" s="34"/>
@@ -24940,7 +25501,7 @@
       <c r="B11" s="51"/>
       <c r="C11" s="52">
         <f>COUNTIF(Funções!G8:G469,"EEA")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="51"/>
       <c r="E11" s="53" t="s">
@@ -24951,7 +25512,7 @@
       </c>
       <c r="G11" s="52">
         <f>C11*4</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H11" s="51"/>
       <c r="I11" s="34"/>
@@ -25016,7 +25577,7 @@
       </c>
       <c r="C14" s="52">
         <f>SUM(C10:C12)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D14" s="51"/>
       <c r="E14" s="51"/>
@@ -25025,11 +25586,11 @@
       </c>
       <c r="G14" s="52">
         <f>SUM(G10:G12)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="34" t="str">
+        <v>38</v>
+      </c>
+      <c r="H14" s="34">
         <f>IF($G$45&lt;&gt;0,G14/$G$45,"")</f>
-        <v/>
+        <v>0.17351598173515981</v>
       </c>
       <c r="I14" s="61"/>
       <c r="J14" s="54"/>
@@ -25077,7 +25638,7 @@
       </c>
       <c r="C17" s="54">
         <f>COUNTIF(Funções!G8:G469,"SEL")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="51"/>
       <c r="E17" s="53" t="s">
@@ -25088,7 +25649,7 @@
       </c>
       <c r="G17" s="54">
         <f>C17*4</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H17" s="51"/>
       <c r="I17" s="51"/>
@@ -25137,7 +25698,7 @@
       <c r="B19" s="51"/>
       <c r="C19" s="54">
         <f>COUNTIF(Funções!G8:G469,"SEH")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D19" s="51"/>
       <c r="E19" s="53" t="s">
@@ -25148,7 +25709,7 @@
       </c>
       <c r="G19" s="54">
         <f>C19*7</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H19" s="51"/>
       <c r="I19" s="51"/>
@@ -25183,7 +25744,7 @@
       </c>
       <c r="C21" s="52">
         <f>SUM(C17:C19)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D21" s="51"/>
       <c r="E21" s="51"/>
@@ -25192,11 +25753,11 @@
       </c>
       <c r="G21" s="52">
         <f>SUM(G17:G19)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="34" t="str">
+        <v>32</v>
+      </c>
+      <c r="H21" s="34">
         <f>IF($G$45&lt;&gt;0,G21/$G$45,"")</f>
-        <v/>
+        <v>0.14611872146118721</v>
       </c>
       <c r="I21" s="61"/>
       <c r="J21" s="54"/>
@@ -25244,7 +25805,7 @@
       </c>
       <c r="C24" s="52">
         <f>COUNTIF(Funções!G8:G469,"CEL")</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D24" s="51"/>
       <c r="E24" s="53" t="s">
@@ -25255,7 +25816,7 @@
       </c>
       <c r="G24" s="52">
         <f>C24*3</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H24" s="51"/>
       <c r="I24" s="51"/>
@@ -25274,7 +25835,7 @@
       <c r="B25" s="51"/>
       <c r="C25" s="52">
         <f>COUNTIF(Funções!G8:G469,"CEA")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" s="51"/>
       <c r="E25" s="53" t="s">
@@ -25285,7 +25846,7 @@
       </c>
       <c r="G25" s="52">
         <f>C25*4</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H25" s="51"/>
       <c r="I25" s="51"/>
@@ -25304,7 +25865,7 @@
       <c r="B26" s="51"/>
       <c r="C26" s="52">
         <f>COUNTIF(Funções!G8:G469,"CEH")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="51"/>
       <c r="E26" s="53" t="s">
@@ -25315,7 +25876,7 @@
       </c>
       <c r="G26" s="52">
         <f>C26*6</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H26" s="51"/>
       <c r="I26" s="51"/>
@@ -25350,7 +25911,7 @@
       </c>
       <c r="C28" s="52">
         <f>SUM(C24:C26)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D28" s="51"/>
       <c r="E28" s="51"/>
@@ -25359,11 +25920,11 @@
       </c>
       <c r="G28" s="52">
         <f>SUM(G24:G26)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="34" t="str">
+        <v>65</v>
+      </c>
+      <c r="H28" s="34">
         <f>IF($G$45&lt;&gt;0,G28/$G$45,"")</f>
-        <v/>
+        <v>0.29680365296803651</v>
       </c>
       <c r="I28" s="61"/>
       <c r="J28" s="54"/>
@@ -25411,7 +25972,7 @@
       </c>
       <c r="C31" s="52">
         <f>COUNTIF(Funções!G8:G469,"ALIL")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D31" s="51"/>
       <c r="E31" s="51" t="s">
@@ -25422,7 +25983,7 @@
       </c>
       <c r="G31" s="52">
         <f>C31*7</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="H31" s="51"/>
       <c r="I31" s="51"/>
@@ -25517,7 +26078,7 @@
       </c>
       <c r="C35" s="52">
         <f>SUM(C31:C33)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D35" s="51"/>
       <c r="E35" s="51"/>
@@ -25526,11 +26087,11 @@
       </c>
       <c r="G35" s="52">
         <f>SUM(G31:G33)</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="34" t="str">
+        <v>84</v>
+      </c>
+      <c r="H35" s="34">
         <f>IF($G$45&lt;&gt;0,G35/$G$45,"")</f>
-        <v/>
+        <v>0.38356164383561642</v>
       </c>
       <c r="I35" s="61"/>
       <c r="J35" s="54"/>
@@ -25695,9 +26256,9 @@
         <f>SUM(G38:G40)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="34" t="str">
+      <c r="H42" s="34">
         <f>IF($G$45&lt;&gt;0,G42/$G$45,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I42" s="61"/>
       <c r="J42" s="54"/>
@@ -25740,16 +26301,16 @@
     </row>
     <row r="45" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A45" s="57"/>
-      <c r="B45" s="161" t="s">
+      <c r="B45" s="164" t="s">
         <v>136</v>
       </c>
-      <c r="C45" s="161"/>
-      <c r="D45" s="161"/>
-      <c r="E45" s="161"/>
-      <c r="F45" s="161"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="164"/>
+      <c r="E45" s="164"/>
+      <c r="F45" s="164"/>
       <c r="G45" s="52">
         <f>SUM(G14+G21+G28+G35+G42)</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="H45" s="51"/>
       <c r="I45" s="51"/>
@@ -25759,16 +26320,16 @@
     </row>
     <row r="46" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A46" s="57"/>
-      <c r="B46" s="161" t="s">
+      <c r="B46" s="164" t="s">
         <v>137</v>
       </c>
-      <c r="C46" s="161"/>
-      <c r="D46" s="161"/>
-      <c r="E46" s="161"/>
-      <c r="F46" s="161"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="164"/>
+      <c r="E46" s="164"/>
+      <c r="F46" s="164"/>
       <c r="G46" s="52">
         <f>(C10+C11+C12)*4+(C17+C18+C19)*5+(C24+C25+C26)*4+(C31+C32+C33)*7+(C38+C39+C40)*5</f>
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="H46" s="51"/>
       <c r="I46" s="51"/>
@@ -25778,16 +26339,16 @@
     </row>
     <row r="47" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A47" s="57"/>
-      <c r="B47" s="161" t="s">
+      <c r="B47" s="164" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="161"/>
-      <c r="D47" s="161"/>
-      <c r="E47" s="161"/>
-      <c r="F47" s="161"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
+      <c r="E47" s="164"/>
+      <c r="F47" s="164"/>
       <c r="G47" s="52">
         <f>(C31+C32+C33)*35+(C38+C39+C40)*15</f>
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="H47" s="51"/>
       <c r="I47" s="51"/>
@@ -25868,6 +26429,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:F8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="J7:K8"/>
     <mergeCell ref="L7:L8"/>
@@ -25878,11 +26444,6 @@
     <mergeCell ref="F5:L5"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="F6:L6"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:F8"/>
     <mergeCell ref="G7:G8"/>
   </mergeCells>
   <pageMargins left="0.51180555555555551" right="0.51180555555555551" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555551" footer="0.31527777777777777"/>
@@ -25896,7 +26457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Plan5"/>
   <dimension ref="A1:M70"/>
   <sheetViews>
@@ -25923,64 +26484,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="128" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="139"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="139"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="166" t="str">
+      <c r="A4" s="163" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
-        <v xml:space="preserve">Aplicação : </v>
-      </c>
-      <c r="B4" s="166"/>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
+        <v>Aplicação : Puchealth</v>
+      </c>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
       <c r="F4" s="149" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
-        <v xml:space="preserve">Projeto : </v>
+        <v>Projeto : TCC Engenharia de Software - PUC Minas</v>
       </c>
       <c r="G4" s="149"/>
       <c r="H4" s="149"/>
@@ -25991,17 +26552,17 @@
       <c r="M4" s="149"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="168" t="str">
+      <c r="A5" s="167" t="str">
         <f>Contagem!A9&amp;" : "&amp;Contagem!F9</f>
-        <v xml:space="preserve">Responsável : </v>
-      </c>
-      <c r="B5" s="168"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
+        <v>Responsável : Caio Philipe Vargas de Souza</v>
+      </c>
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
       <c r="F5" s="149" t="str">
         <f>Contagem!A10&amp;" : "&amp;Contagem!F10</f>
-        <v xml:space="preserve">Revisor : </v>
+        <v>Revisor : -</v>
       </c>
       <c r="G5" s="149"/>
       <c r="H5" s="149"/>
@@ -26012,14 +26573,14 @@
       <c r="M5" s="149"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="168" t="str">
+      <c r="A6" s="167" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
-        <v xml:space="preserve">Empresa : </v>
-      </c>
-      <c r="B6" s="168"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
+        <v>Empresa : -</v>
+      </c>
+      <c r="B6" s="167"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
       <c r="F6" s="149" t="str">
         <f>"Tipo de Contagem : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Tipo de Contagem : </v>
@@ -26049,14 +26610,14 @@
     </row>
     <row r="8" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A8" s="84"/>
-      <c r="B8" s="169"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="168"/>
       <c r="J8" s="61"/>
       <c r="K8" s="61"/>
       <c r="L8" s="61"/>
@@ -26064,11 +26625,11 @@
     </row>
     <row r="9" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A9" s="84"/>
-      <c r="B9" s="170" t="s">
+      <c r="B9" s="169" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="170"/>
-      <c r="D9" s="170"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
       <c r="E9" s="37" t="s">
         <v>101</v>
       </c>
@@ -26093,11 +26654,11 @@
     </row>
     <row r="10" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="84"/>
-      <c r="B10" s="136" t="str">
+      <c r="B10" s="134" t="str">
         <f>""&amp;Deflatores!B4</f>
         <v>Inclusão</v>
       </c>
-      <c r="C10" s="136"/>
+      <c r="C10" s="134"/>
       <c r="D10" s="25" t="str">
         <f>""&amp;Deflatores!G4</f>
         <v>I</v>
@@ -26134,11 +26695,11 @@
     </row>
     <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="84"/>
-      <c r="B11" s="136" t="str">
+      <c r="B11" s="134" t="str">
         <f>""&amp;Deflatores!B5</f>
         <v>Alteração (sem conhecimento do Fator de Impacto)</v>
       </c>
-      <c r="C11" s="136"/>
+      <c r="C11" s="134"/>
       <c r="D11" s="25" t="str">
         <f>""&amp;Deflatores!G5</f>
         <v>A</v>
@@ -26176,11 +26737,11 @@
     </row>
     <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="84"/>
-      <c r="B12" s="136" t="str">
+      <c r="B12" s="134" t="str">
         <f>""&amp;Deflatores!B6</f>
         <v>Exclusão</v>
       </c>
-      <c r="C12" s="136"/>
+      <c r="C12" s="134"/>
       <c r="D12" s="25" t="str">
         <f>""&amp;Deflatores!G6</f>
         <v>E</v>
@@ -26215,11 +26776,11 @@
     </row>
     <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="84"/>
-      <c r="B13" s="136" t="str">
+      <c r="B13" s="134" t="str">
         <f>""&amp;Deflatores!B7</f>
         <v>Alteração (50%) de função desenvolvida ou já alterada pela empresa atual</v>
       </c>
-      <c r="C13" s="136"/>
+      <c r="C13" s="134"/>
       <c r="D13" s="25" t="str">
         <f>""&amp;Deflatores!G7</f>
         <v>A50</v>
@@ -26256,11 +26817,11 @@
     </row>
     <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="84"/>
-      <c r="B14" s="136" t="str">
+      <c r="B14" s="134" t="str">
         <f>""&amp;Deflatores!B8</f>
         <v>Alteração (75%) de função não desenv. e ainda não alterada pela empresa atual</v>
       </c>
-      <c r="C14" s="136"/>
+      <c r="C14" s="134"/>
       <c r="D14" s="25" t="str">
         <f>""&amp;Deflatores!G8</f>
         <v>A75</v>
@@ -26292,17 +26853,17 @@
       <c r="K14" s="61"/>
       <c r="L14" s="43">
         <f>Contagem!Q4</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="M14" s="56"/>
     </row>
     <row r="15" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="84"/>
-      <c r="B15" s="136" t="str">
+      <c r="B15" s="134" t="str">
         <f>""&amp;Deflatores!B9</f>
         <v>Alteração (75%+15%): o mesmo acima + redocumentar a função</v>
       </c>
-      <c r="C15" s="136"/>
+      <c r="C15" s="134"/>
       <c r="D15" s="25" t="str">
         <f>""&amp;Deflatores!G9</f>
         <v>A90</v>
@@ -26337,11 +26898,11 @@
     </row>
     <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="84"/>
-      <c r="B16" s="136" t="str">
+      <c r="B16" s="134" t="str">
         <f>""&amp;Deflatores!B10</f>
         <v>Migração de Dados</v>
       </c>
-      <c r="C16" s="136"/>
+      <c r="C16" s="134"/>
       <c r="D16" s="25" t="str">
         <f>""&amp;Deflatores!G10</f>
         <v>PMD</v>
@@ -26376,11 +26937,11 @@
     </row>
     <row r="17" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="84"/>
-      <c r="B17" s="136" t="str">
+      <c r="B17" s="134" t="str">
         <f>""&amp;Deflatores!B11</f>
         <v>Corretiva (sem conhecimento do Fator de Impacto)</v>
       </c>
-      <c r="C17" s="136"/>
+      <c r="C17" s="134"/>
       <c r="D17" s="25" t="str">
         <f>""&amp;Deflatores!G11</f>
         <v>COR</v>
@@ -26415,11 +26976,11 @@
     </row>
     <row r="18" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="84"/>
-      <c r="B18" s="136" t="str">
+      <c r="B18" s="134" t="str">
         <f>""&amp;Deflatores!B12</f>
         <v>Corretiva (50%) - Fora da garantia (mesma empresa)</v>
       </c>
-      <c r="C18" s="136"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="25" t="str">
         <f>""&amp;Deflatores!G12</f>
         <v>COR50</v>
@@ -26454,11 +27015,11 @@
     </row>
     <row r="19" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="84"/>
-      <c r="B19" s="136" t="str">
+      <c r="B19" s="134" t="str">
         <f>""&amp;Deflatores!B13</f>
         <v>Corretiva (75%) - Fora da garantia (outra empresa)</v>
       </c>
-      <c r="C19" s="136"/>
+      <c r="C19" s="134"/>
       <c r="D19" s="25" t="str">
         <f>""&amp;Deflatores!G13</f>
         <v>COR75</v>
@@ -26493,11 +27054,11 @@
     </row>
     <row r="20" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="84"/>
-      <c r="B20" s="136" t="str">
+      <c r="B20" s="134" t="str">
         <f>""&amp;Deflatores!B14</f>
         <v>Corretiva (75%+15%) - Fora da garantia (outra empresa) + Redocumentação</v>
       </c>
-      <c r="C20" s="136"/>
+      <c r="C20" s="134"/>
       <c r="D20" s="25" t="str">
         <f>""&amp;Deflatores!G14</f>
         <v>COR90</v>
@@ -26532,11 +27093,11 @@
     </row>
     <row r="21" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="84"/>
-      <c r="B21" s="136" t="str">
+      <c r="B21" s="134" t="str">
         <f>""&amp;Deflatores!B15</f>
         <v>Corretiva em Garantia</v>
       </c>
-      <c r="C21" s="136"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="25" t="str">
         <f>""&amp;Deflatores!G15</f>
         <v>GAR</v>
@@ -26571,11 +27132,11 @@
     </row>
     <row r="22" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="84"/>
-      <c r="B22" s="136" t="str">
+      <c r="B22" s="134" t="str">
         <f>""&amp;Deflatores!B16</f>
         <v>Mudança de Plataforma - Linguagem de Programação</v>
       </c>
-      <c r="C22" s="136"/>
+      <c r="C22" s="134"/>
       <c r="D22" s="25" t="str">
         <f>""&amp;Deflatores!G16</f>
         <v>MLP</v>
@@ -26610,11 +27171,11 @@
     </row>
     <row r="23" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="84"/>
-      <c r="B23" s="136" t="str">
+      <c r="B23" s="134" t="str">
         <f>""&amp;Deflatores!B17</f>
         <v>Mudança de Plataforma - Banco de Dados (outro paradigma)</v>
       </c>
-      <c r="C23" s="136"/>
+      <c r="C23" s="134"/>
       <c r="D23" s="25" t="str">
         <f>""&amp;Deflatores!G17</f>
         <v>MBO</v>
@@ -26649,11 +27210,11 @@
     </row>
     <row r="24" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="84"/>
-      <c r="B24" s="136" t="str">
+      <c r="B24" s="134" t="str">
         <f>""&amp;Deflatores!B18</f>
         <v>Mudança de Plataforma - Banco de Dados (mesmo paradigma com alterações)</v>
       </c>
-      <c r="C24" s="136"/>
+      <c r="C24" s="134"/>
       <c r="D24" s="25" t="str">
         <f>""&amp;Deflatores!G18</f>
         <v>MBM</v>
@@ -26688,11 +27249,11 @@
     </row>
     <row r="25" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="84"/>
-      <c r="B25" s="136" t="str">
+      <c r="B25" s="134" t="str">
         <f>""&amp;Deflatores!B19</f>
         <v>Atualização de Versão – Linguagem de Programação</v>
       </c>
-      <c r="C25" s="136"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="25" t="str">
         <f>""&amp;Deflatores!G19</f>
         <v>ALP</v>
@@ -26727,11 +27288,11 @@
     </row>
     <row r="26" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="84"/>
-      <c r="B26" s="136" t="str">
+      <c r="B26" s="134" t="str">
         <f>""&amp;Deflatores!B20</f>
         <v>Atualização de Versão – Browser</v>
       </c>
-      <c r="C26" s="136"/>
+      <c r="C26" s="134"/>
       <c r="D26" s="25" t="str">
         <f>""&amp;Deflatores!G20</f>
         <v>AVB</v>
@@ -26766,11 +27327,11 @@
     </row>
     <row r="27" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="84"/>
-      <c r="B27" s="136" t="str">
+      <c r="B27" s="134" t="str">
         <f>""&amp;Deflatores!B21</f>
         <v>Atualização de Versão – Banco de Dados</v>
       </c>
-      <c r="C27" s="136"/>
+      <c r="C27" s="134"/>
       <c r="D27" s="25" t="str">
         <f>""&amp;Deflatores!G21</f>
         <v>ABD</v>
@@ -26805,11 +27366,11 @@
     </row>
     <row r="28" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="84"/>
-      <c r="B28" s="136" t="str">
+      <c r="B28" s="134" t="str">
         <f>""&amp;Deflatores!B22</f>
         <v>Manutenção Cosmética</v>
       </c>
-      <c r="C28" s="136"/>
+      <c r="C28" s="134"/>
       <c r="D28" s="25" t="str">
         <f>""&amp;Deflatores!G22</f>
         <v>COS</v>
@@ -26844,12 +27405,12 @@
     </row>
     <row r="29" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="84"/>
-      <c r="B29" s="158" t="str">
+      <c r="B29" s="154" t="str">
         <f>""&amp;Deflatores!B23</f>
         <v>Adaptação em Funcionalidades sem Alteração de Requisitos Funcionais
 (sem conhecimento do Fator de Impacto)</v>
       </c>
-      <c r="C29" s="160"/>
+      <c r="C29" s="156"/>
       <c r="D29" s="25" t="str">
         <f>""&amp;Deflatores!G23</f>
         <v>ARN</v>
@@ -26884,12 +27445,12 @@
     </row>
     <row r="30" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="84"/>
-      <c r="B30" s="158" t="str">
+      <c r="B30" s="154" t="str">
         <f>""&amp;Deflatores!B24</f>
         <v>Adaptação em Funcionalidades sem Alteração de Requisitos Funcionais (50%)
 (em função desenvolvida ou já alterada pela empresa atual)</v>
       </c>
-      <c r="C30" s="160"/>
+      <c r="C30" s="156"/>
       <c r="D30" s="25" t="str">
         <f>""&amp;Deflatores!G24</f>
         <v>ARN50</v>
@@ -26924,12 +27485,12 @@
     </row>
     <row r="31" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="84"/>
-      <c r="B31" s="158" t="str">
+      <c r="B31" s="154" t="str">
         <f>""&amp;Deflatores!B25</f>
         <v>Adaptação em Funcionalidades sem Alteração de Requisitos Funcionais (75%)
 (em função não desenvolvida e ainda não alterada pela empresa atual)</v>
       </c>
-      <c r="C31" s="160"/>
+      <c r="C31" s="156"/>
       <c r="D31" s="25" t="str">
         <f>""&amp;Deflatores!G25</f>
         <v>ARN75</v>
@@ -26964,11 +27525,11 @@
     </row>
     <row r="32" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="84"/>
-      <c r="B32" s="136" t="str">
+      <c r="B32" s="134" t="str">
         <f>""&amp;Deflatores!B26</f>
         <v>Atualização de Dados sem Consulta Prévia</v>
       </c>
-      <c r="C32" s="136"/>
+      <c r="C32" s="134"/>
       <c r="D32" s="25" t="str">
         <f>""&amp;Deflatores!G26</f>
         <v>ADS</v>
@@ -27003,11 +27564,11 @@
     </row>
     <row r="33" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="84"/>
-      <c r="B33" s="136" t="str">
+      <c r="B33" s="134" t="str">
         <f>""&amp;Deflatores!B27</f>
         <v>Consulta Prévia sem Atualização</v>
       </c>
-      <c r="C33" s="136"/>
+      <c r="C33" s="134"/>
       <c r="D33" s="25" t="str">
         <f>""&amp;Deflatores!G27</f>
         <v>CPA</v>
@@ -27042,11 +27603,11 @@
     </row>
     <row r="34" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="84"/>
-      <c r="B34" s="136" t="str">
+      <c r="B34" s="134" t="str">
         <f>""&amp;Deflatores!B28</f>
         <v>Atualização de Dados com Consulta Prévia</v>
       </c>
-      <c r="C34" s="136"/>
+      <c r="C34" s="134"/>
       <c r="D34" s="25" t="str">
         <f>""&amp;Deflatores!G28</f>
         <v>ADC</v>
@@ -27081,11 +27642,11 @@
     </row>
     <row r="35" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="84"/>
-      <c r="B35" s="136" t="str">
+      <c r="B35" s="134" t="str">
         <f>""&amp;Deflatores!B29</f>
         <v>Apuração Especial – Geração de Relatórios</v>
       </c>
-      <c r="C35" s="136"/>
+      <c r="C35" s="134"/>
       <c r="D35" s="25" t="str">
         <f>""&amp;Deflatores!G29</f>
         <v>AGR</v>
@@ -27120,11 +27681,11 @@
     </row>
     <row r="36" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="84"/>
-      <c r="B36" s="136" t="str">
+      <c r="B36" s="134" t="str">
         <f>""&amp;Deflatores!B30</f>
         <v>Apuração Especial – Reexecução</v>
       </c>
-      <c r="C36" s="136"/>
+      <c r="C36" s="134"/>
       <c r="D36" s="25" t="str">
         <f>""&amp;Deflatores!G30</f>
         <v>AER</v>
@@ -27159,11 +27720,11 @@
     </row>
     <row r="37" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="84"/>
-      <c r="B37" s="136" t="str">
+      <c r="B37" s="134" t="str">
         <f>""&amp;Deflatores!B31</f>
         <v>Atualização de Dados</v>
       </c>
-      <c r="C37" s="136"/>
+      <c r="C37" s="134"/>
       <c r="D37" s="25" t="str">
         <f>""&amp;Deflatores!G31</f>
         <v>ATD</v>
@@ -27198,11 +27759,11 @@
     </row>
     <row r="38" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="84"/>
-      <c r="B38" s="136" t="str">
+      <c r="B38" s="134" t="str">
         <f>""&amp;Deflatores!B32</f>
         <v>Manutenção de Documentação de Sistemas Legados</v>
       </c>
-      <c r="C38" s="136"/>
+      <c r="C38" s="134"/>
       <c r="D38" s="25" t="str">
         <f>""&amp;Deflatores!G32</f>
         <v>MSL</v>
@@ -27237,11 +27798,11 @@
     </row>
     <row r="39" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="84"/>
-      <c r="B39" s="136" t="str">
+      <c r="B39" s="134" t="str">
         <f>""&amp;Deflatores!B33</f>
         <v>Verificação de Erros (Sem Documentação de Teste existente)</v>
       </c>
-      <c r="C39" s="136"/>
+      <c r="C39" s="134"/>
       <c r="D39" s="25" t="str">
         <f>""&amp;Deflatores!G33</f>
         <v>VES</v>
@@ -27276,11 +27837,11 @@
     </row>
     <row r="40" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="84"/>
-      <c r="B40" s="136" t="str">
+      <c r="B40" s="134" t="str">
         <f>""&amp;Deflatores!B34</f>
         <v>Verificação de Erros (Com Documentação de Teste existente)</v>
       </c>
-      <c r="C40" s="136"/>
+      <c r="C40" s="134"/>
       <c r="D40" s="25" t="str">
         <f>""&amp;Deflatores!G34</f>
         <v>VEC</v>
@@ -27315,11 +27876,11 @@
     </row>
     <row r="41" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="84"/>
-      <c r="B41" s="136" t="str">
+      <c r="B41" s="134" t="str">
         <f>""&amp;Deflatores!B35</f>
         <v>Pontos de Função de Teste</v>
       </c>
-      <c r="C41" s="136"/>
+      <c r="C41" s="134"/>
       <c r="D41" s="25" t="str">
         <f>""&amp;Deflatores!G35</f>
         <v>PFT</v>
@@ -27354,11 +27915,11 @@
     </row>
     <row r="42" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="84"/>
-      <c r="B42" s="136" t="str">
+      <c r="B42" s="134" t="str">
         <f>""&amp;Deflatores!B36</f>
         <v>Componente Interno Reusável</v>
       </c>
-      <c r="C42" s="136"/>
+      <c r="C42" s="134"/>
       <c r="D42" s="25" t="str">
         <f>""&amp;Deflatores!G36</f>
         <v>CIR</v>
@@ -27393,11 +27954,11 @@
     </row>
     <row r="43" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="84"/>
-      <c r="B43" s="136" t="str">
+      <c r="B43" s="134" t="str">
         <f>""&amp;Deflatores!B37</f>
         <v/>
       </c>
-      <c r="C43" s="136"/>
+      <c r="C43" s="134"/>
       <c r="D43" s="25" t="str">
         <f>""&amp;Deflatores!G37</f>
         <v xml:space="preserve">           .</v>
@@ -27432,11 +27993,11 @@
     </row>
     <row r="44" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="84"/>
-      <c r="B44" s="136" t="str">
+      <c r="B44" s="134" t="str">
         <f>""&amp;Deflatores!B38</f>
         <v/>
       </c>
-      <c r="C44" s="136"/>
+      <c r="C44" s="134"/>
       <c r="D44" s="25" t="str">
         <f>""&amp;Deflatores!G38</f>
         <v xml:space="preserve">           .</v>
@@ -27486,11 +28047,11 @@
     </row>
     <row r="46" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="84"/>
-      <c r="B46" s="167" t="s">
+      <c r="B46" s="170" t="s">
         <v>145</v>
       </c>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="170"/>
       <c r="E46" s="45" t="s">
         <v>101</v>
       </c>
@@ -27511,11 +28072,11 @@
     </row>
     <row r="47" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="84"/>
-      <c r="B47" s="136" t="str">
+      <c r="B47" s="134" t="str">
         <f>""&amp;Deflatores!B42</f>
         <v>Páginas Estáticas</v>
       </c>
-      <c r="C47" s="136"/>
+      <c r="C47" s="134"/>
       <c r="D47" s="38" t="str">
         <f>""&amp;Deflatores!G42</f>
         <v>PAG</v>
@@ -27544,11 +28105,11 @@
     </row>
     <row r="48" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="84"/>
-      <c r="B48" s="136" t="str">
+      <c r="B48" s="134" t="str">
         <f>""&amp;Deflatores!B43</f>
         <v>Manutenção Cosmética (atrelada a algo não funcional)</v>
       </c>
-      <c r="C48" s="136"/>
+      <c r="C48" s="134"/>
       <c r="D48" s="38" t="str">
         <f>""&amp;Deflatores!G43</f>
         <v>COSNF</v>
@@ -27577,11 +28138,11 @@
     </row>
     <row r="49" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A49" s="84"/>
-      <c r="B49" s="136" t="str">
+      <c r="B49" s="134" t="str">
         <f>""&amp;Deflatores!B44</f>
         <v>Dados de Código</v>
       </c>
-      <c r="C49" s="136"/>
+      <c r="C49" s="134"/>
       <c r="D49" s="38" t="str">
         <f>""&amp;Deflatores!G44</f>
         <v>DC</v>
@@ -27610,11 +28171,11 @@
     </row>
     <row r="50" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A50" s="84"/>
-      <c r="B50" s="136" t="str">
+      <c r="B50" s="134" t="str">
         <f>""&amp;Deflatores!B45</f>
         <v/>
       </c>
-      <c r="C50" s="136"/>
+      <c r="C50" s="134"/>
       <c r="D50" s="38" t="str">
         <f>""&amp;Deflatores!G45</f>
         <v xml:space="preserve">           .</v>
@@ -27643,11 +28204,11 @@
     </row>
     <row r="51" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A51" s="84"/>
-      <c r="B51" s="136" t="str">
+      <c r="B51" s="134" t="str">
         <f>""&amp;Deflatores!B46</f>
         <v/>
       </c>
-      <c r="C51" s="136"/>
+      <c r="C51" s="134"/>
       <c r="D51" s="38" t="str">
         <f>""&amp;Deflatores!G46</f>
         <v xml:space="preserve">           .</v>
@@ -27676,11 +28237,11 @@
     </row>
     <row r="52" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A52" s="84"/>
-      <c r="B52" s="136" t="str">
+      <c r="B52" s="134" t="str">
         <f>""&amp;Deflatores!B47</f>
         <v/>
       </c>
-      <c r="C52" s="136"/>
+      <c r="C52" s="134"/>
       <c r="D52" s="38" t="str">
         <f>""&amp;Deflatores!G47</f>
         <v xml:space="preserve">           .</v>
@@ -27709,11 +28270,11 @@
     </row>
     <row r="53" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A53" s="84"/>
-      <c r="B53" s="136" t="str">
+      <c r="B53" s="134" t="str">
         <f>""&amp;Deflatores!B48</f>
         <v/>
       </c>
-      <c r="C53" s="136"/>
+      <c r="C53" s="134"/>
       <c r="D53" s="38" t="str">
         <f>""&amp;Deflatores!G48</f>
         <v xml:space="preserve">           .</v>
@@ -27742,11 +28303,11 @@
     </row>
     <row r="54" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A54" s="84"/>
-      <c r="B54" s="136" t="str">
+      <c r="B54" s="134" t="str">
         <f>""&amp;Deflatores!B49</f>
         <v/>
       </c>
-      <c r="C54" s="136"/>
+      <c r="C54" s="134"/>
       <c r="D54" s="38" t="str">
         <f>""&amp;Deflatores!G49</f>
         <v xml:space="preserve">           .</v>
@@ -27775,11 +28336,11 @@
     </row>
     <row r="55" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A55" s="84"/>
-      <c r="B55" s="136" t="str">
+      <c r="B55" s="134" t="str">
         <f>""&amp;Deflatores!B50</f>
         <v/>
       </c>
-      <c r="C55" s="136"/>
+      <c r="C55" s="134"/>
       <c r="D55" s="38" t="str">
         <f>""&amp;Deflatores!G50</f>
         <v xml:space="preserve">           .</v>
@@ -27808,11 +28369,11 @@
     </row>
     <row r="56" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A56" s="84"/>
-      <c r="B56" s="136" t="str">
+      <c r="B56" s="134" t="str">
         <f>""&amp;Deflatores!B51</f>
         <v/>
       </c>
-      <c r="C56" s="136"/>
+      <c r="C56" s="134"/>
       <c r="D56" s="38" t="str">
         <f>""&amp;Deflatores!G51</f>
         <v xml:space="preserve">           .</v>
@@ -27841,11 +28402,11 @@
     </row>
     <row r="57" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A57" s="84"/>
-      <c r="B57" s="136" t="str">
+      <c r="B57" s="134" t="str">
         <f>""&amp;Deflatores!B52</f>
         <v/>
       </c>
-      <c r="C57" s="136"/>
+      <c r="C57" s="134"/>
       <c r="D57" s="38" t="str">
         <f>""&amp;Deflatores!G52</f>
         <v xml:space="preserve">           .</v>
@@ -27874,11 +28435,11 @@
     </row>
     <row r="58" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A58" s="84"/>
-      <c r="B58" s="136" t="str">
+      <c r="B58" s="134" t="str">
         <f>""&amp;Deflatores!B53</f>
         <v/>
       </c>
-      <c r="C58" s="136"/>
+      <c r="C58" s="134"/>
       <c r="D58" s="38" t="str">
         <f>""&amp;Deflatores!G53</f>
         <v xml:space="preserve">           .</v>
@@ -27907,11 +28468,11 @@
     </row>
     <row r="59" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A59" s="84"/>
-      <c r="B59" s="136" t="str">
+      <c r="B59" s="134" t="str">
         <f>""&amp;Deflatores!B54</f>
         <v/>
       </c>
-      <c r="C59" s="136"/>
+      <c r="C59" s="134"/>
       <c r="D59" s="38" t="str">
         <f>""&amp;Deflatores!G54</f>
         <v xml:space="preserve">           .</v>
@@ -27940,11 +28501,11 @@
     </row>
     <row r="60" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A60" s="84"/>
-      <c r="B60" s="136" t="str">
+      <c r="B60" s="134" t="str">
         <f>""&amp;Deflatores!B55</f>
         <v/>
       </c>
-      <c r="C60" s="136"/>
+      <c r="C60" s="134"/>
       <c r="D60" s="38" t="str">
         <f>""&amp;Deflatores!G55</f>
         <v xml:space="preserve">           .</v>
@@ -27973,11 +28534,11 @@
     </row>
     <row r="61" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A61" s="84"/>
-      <c r="B61" s="136" t="str">
+      <c r="B61" s="134" t="str">
         <f>""&amp;Deflatores!B56</f>
         <v/>
       </c>
-      <c r="C61" s="136"/>
+      <c r="C61" s="134"/>
       <c r="D61" s="38" t="str">
         <f>""&amp;Deflatores!G56</f>
         <v xml:space="preserve">           .</v>
@@ -28006,11 +28567,11 @@
     </row>
     <row r="62" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A62" s="84"/>
-      <c r="B62" s="136" t="str">
+      <c r="B62" s="134" t="str">
         <f>""&amp;Deflatores!B57</f>
         <v/>
       </c>
-      <c r="C62" s="136"/>
+      <c r="C62" s="134"/>
       <c r="D62" s="38" t="str">
         <f>""&amp;Deflatores!G57</f>
         <v xml:space="preserve">           .</v>
@@ -28039,11 +28600,11 @@
     </row>
     <row r="63" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A63" s="84"/>
-      <c r="B63" s="136" t="str">
+      <c r="B63" s="134" t="str">
         <f>""&amp;Deflatores!B58</f>
         <v/>
       </c>
-      <c r="C63" s="136"/>
+      <c r="C63" s="134"/>
       <c r="D63" s="38" t="str">
         <f>""&amp;Deflatores!G58</f>
         <v xml:space="preserve">           .</v>
@@ -28072,11 +28633,11 @@
     </row>
     <row r="64" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A64" s="84"/>
-      <c r="B64" s="136" t="str">
+      <c r="B64" s="134" t="str">
         <f>""&amp;Deflatores!B59</f>
         <v/>
       </c>
-      <c r="C64" s="136"/>
+      <c r="C64" s="134"/>
       <c r="D64" s="38" t="str">
         <f>""&amp;Deflatores!G59</f>
         <v xml:space="preserve">           .</v>
@@ -28105,11 +28666,11 @@
     </row>
     <row r="65" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A65" s="84"/>
-      <c r="B65" s="136" t="str">
+      <c r="B65" s="134" t="str">
         <f>""&amp;Deflatores!B60</f>
         <v/>
       </c>
-      <c r="C65" s="136"/>
+      <c r="C65" s="134"/>
       <c r="D65" s="38" t="str">
         <f>""&amp;Deflatores!G60</f>
         <v xml:space="preserve">           .</v>
@@ -28138,11 +28699,11 @@
     </row>
     <row r="66" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A66" s="84"/>
-      <c r="B66" s="136" t="str">
+      <c r="B66" s="134" t="str">
         <f>""&amp;Deflatores!B61</f>
         <v/>
       </c>
-      <c r="C66" s="136"/>
+      <c r="C66" s="134"/>
       <c r="D66" s="38" t="str">
         <f>""&amp;Deflatores!G61</f>
         <v xml:space="preserve">           .</v>
@@ -28171,11 +28732,11 @@
     </row>
     <row r="67" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A67" s="84"/>
-      <c r="B67" s="136" t="str">
+      <c r="B67" s="134" t="str">
         <f>""&amp;Deflatores!B62</f>
         <v/>
       </c>
-      <c r="C67" s="136"/>
+      <c r="C67" s="134"/>
       <c r="D67" s="38" t="str">
         <f>""&amp;Deflatores!G62</f>
         <v xml:space="preserve">           .</v>
@@ -28204,11 +28765,11 @@
     </row>
     <row r="68" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A68" s="84"/>
-      <c r="B68" s="136" t="str">
+      <c r="B68" s="134" t="str">
         <f>""&amp;Deflatores!B63</f>
         <v/>
       </c>
-      <c r="C68" s="136"/>
+      <c r="C68" s="134"/>
       <c r="D68" s="38" t="str">
         <f>""&amp;Deflatores!G63</f>
         <v xml:space="preserve">           .</v>
@@ -28237,11 +28798,11 @@
     </row>
     <row r="69" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A69" s="84"/>
-      <c r="B69" s="136" t="str">
+      <c r="B69" s="134" t="str">
         <f>""&amp;Deflatores!B64</f>
         <v/>
       </c>
-      <c r="C69" s="136"/>
+      <c r="C69" s="134"/>
       <c r="D69" s="38" t="str">
         <f>""&amp;Deflatores!G64</f>
         <v xml:space="preserve">           .</v>
@@ -28286,6 +28847,58 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="68">
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="A1:M3"/>
     <mergeCell ref="A4:E4"/>
@@ -28302,58 +28915,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.023611111111111" bottom="1.023611111111111" header="0.51180555555555551" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="47" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
